--- a/data-run.xlsx
+++ b/data-run.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagiv.M\PycharmProjects\Cancer-Feature-Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94DC9F-1E74-4E67-94C6-7F72C4F38DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8371E-6201-46A1-8569-99813A6AE50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="2208" windowWidth="9588" windowHeight="4800" xr2:uid="{9051433E-04A2-4DA1-80CF-DA9E93464AC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9051433E-04A2-4DA1-80CF-DA9E93464AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="knn" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="122">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -288,6 +287,120 @@
   </si>
   <si>
     <t>Feat-1833,Feat-3206,Feat-4195,Feat-4564,Feat-4846</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Feat54-Feat473-Feat817-Feat1157-Feat1463-Feat2664-Feat2665-Feat2756-Feat4264-Feat5189</t>
+  </si>
+  <si>
+    <t>Feat632-Feat2647-Feat2753-Feat2963-Feat3250-Feat3385-Feat4662-Feat4664-Feat5037-Feat5332</t>
+  </si>
+  <si>
+    <t>Feat15-Feat18-Feat239-Feat824-Feat1697-Feat1957-Feat2653-Feat3776-Feat4335</t>
+  </si>
+  <si>
+    <t>Feat0-Feat1-Feat2-Feat3-Feat4-Feat5-Feat6-Feat7-Feat8-Feat9-Feat10-Feat11-Feat12-Feat13-Feat14-Feat15-Feat16-Feat17-Feat18-Feat19-Feat20-Feat21-Feat22-Feat24-Feat26-Feat27-Feat28-Feat29-Feat30-Feat31-Feat32-Feat33-Feat34-Feat35-Feat36-Feat37-Feat38-Feat39-Feat40-Feat41-Feat42-Feat43-Feat44-Feat45-Feat46-Feat47-Feat48-Feat49-Feat50-Feat51-Feat52-Feat53-Feat54-Feat55-Feat56-Feat57-Feat58-Feat59-Feat60-Feat61-Feat62-Feat63-Feat64-Feat65-Feat66-Feat67-Feat68-Feat69-Feat70-Feat71-Feat72-Feat73-Feat74-Feat75-Feat76-Feat77-Feat78-Feat79-Feat80-Feat81-Feat82-Feat83-Feat84-Feat85-Feat86-Feat87-Feat88-Feat89-Feat90-Feat91-Feat92-Feat93-Feat94-Feat95-Feat96-Feat97-Feat98-Feat99-Feat100-Feat101-Feat102-Feat103-Feat104-Feat105-Feat106-Feat107-Feat108-Feat109-Feat110-Feat111-Feat112-Feat113-Feat114-Feat115-Feat116-Feat117-Feat118-Feat119-Feat120-Feat121-Feat122-Feat123-Feat124-Feat125-Feat126-Feat127-Feat128-Feat129-Feat130-Feat131-Feat133-Feat134-Feat135-Feat136-Feat137-Feat139-Feat140-Feat141-Feat142-Feat143-Feat144-Feat145-Feat147-Feat148-Feat149-Feat150-Feat151-Feat152-Feat153-Feat154-Feat155-Feat156-Feat157-Feat158-Feat159-Feat160-Feat161-Feat162-Feat163-Feat164-Feat165-Feat166-Feat167-Feat168-Feat169-Feat170-Feat171-Feat172-Feat173-Feat174-Feat175-Feat177-Feat178-Feat179-Feat180-Feat182-Feat183-Feat184-Feat185-Feat186-Feat187-Feat188-Feat189-Feat190-Feat191-Feat192-Feat193-Feat194-Feat195-Feat196-Feat197-Feat198-Feat199-Feat200-Feat201-Feat202-Feat203-Feat204-Feat205-Feat206-Feat207-Feat208-Feat209-Feat210-Feat211-Feat212-Feat213-Feat214-Feat215-Feat216-Feat217-Feat218-Feat219-Feat220-Feat221-Feat222-Feat223-Feat224-Feat225-Feat226-Feat227-Feat228-Feat229-Feat231-Feat232-Feat233-Feat234-Feat235-Feat236-Feat237-Feat238-Feat239-Feat240-Feat241-Feat242-Feat243-Feat244-Feat246-Feat247-Feat248-Feat249-Feat250-Feat251-Feat252-Feat253-Feat254-Feat255-Feat256-Feat257-Feat258-Feat259-Feat260-Feat261-Feat262-Feat263-Feat264-Feat265-Feat266-Feat267-Feat268-Feat269-Feat270-Feat271-Feat272-Feat273-Feat275-Feat276-Feat277-Feat278-Feat279-Feat280-Feat281-Feat282-Feat283-Feat284-Feat285-Feat286-Feat287-Feat288-Feat289-Feat290-Feat291-Feat292-Feat293-Feat294-Feat295-Feat296-Feat297-Feat298-Feat299-Feat300-Feat301-Feat302-Feat303-Feat304-Feat305-Feat306-Feat307-Feat308-Feat309-Feat310-Feat311-Feat312-Feat313-Feat314-Feat315-Feat317-Feat318-Feat319-Feat320-Feat321-Feat322-Feat323-Feat324-Feat325-Feat326-Feat327-Feat329-Feat330-Feat331-Feat332-Feat333-Feat334-Feat335-Feat336-Feat337-Feat338-Feat339-Feat340-Feat341-Feat342-Feat343-Feat344-Feat345-Feat346-Feat347-Feat348-Feat349-Feat350-Feat351-Feat352-Feat353-Feat354-Feat355-Feat356-Feat357-Feat358-Feat359-Feat360-Feat361-Feat362-Feat363-Feat364-Feat365-Feat366-Feat367-Feat368-Feat369-Feat370-Feat371-Feat372-Feat373-Feat374-Feat375-Feat376-Feat377-Feat378-Feat379-Feat381-Feat382-Feat383-Feat384-Feat385-Feat386-Feat387-Feat388-Feat389-Feat390-Feat391-Feat392-Feat393-Feat395-Feat396-Feat397-Feat398-Feat399-Feat400-Feat401-Feat402-Feat403-Feat404-Feat405-Feat406-Feat407-Feat408-Feat409-Feat410-Feat411-Feat412-Feat413-Feat414-Feat415-Feat416-Feat417-Feat418-Feat419-Feat420-Feat421-Feat422-Feat423-Feat424-Feat426-Feat427-Feat428-Feat429-Feat430-Feat431-Feat432-Feat433-Feat434-Feat436-Feat437-Feat438-Feat439-Feat440-Feat441-Feat442-Feat443-Feat444-Feat445-Feat446-Feat447-Feat448-Feat449-Feat450-Feat451-Feat452-Feat453-Feat454-Feat456-Feat457-Feat458-Feat459-Feat460-Feat461-Feat462-Feat463-Feat464-Feat465-Feat466-Feat467-Feat468-Feat469-Feat470-Feat471-Feat472-Feat473-Feat474-Feat475-Feat476-Feat477-Feat478-Feat479-Feat480-Feat481-Feat482-Feat483-Feat484-Feat485-Feat486-Feat487-Feat488-Feat489-Feat490-Feat491-Feat492-Feat493-Feat494-Feat495-Feat496-Feat497-Feat498-Feat499-Feat500-Feat501-Feat502-Feat503-Feat504-Feat505-Feat506-Feat507-Feat508-Feat509-Feat510-Feat511-Feat512-Feat513-Feat514-Feat515-Feat516-Feat517-Feat518-Feat519-Feat520-Feat521-Feat522-Feat523-Feat524-Feat525-Feat526-Feat527-Feat528-Feat529-Feat530-Feat531-Feat532-Feat533-Feat534-Feat535-Feat536-Feat537-Feat538-Feat539-Feat540-Feat541-Feat542-Feat543-Feat544-Feat545-Feat546-Feat547-Feat548-Feat549-Feat550-Feat551-Feat552-Feat553-Feat554-Feat555-Feat556-Feat557-Feat558-Feat559-Feat560-Feat561-Feat562-Feat563-Feat564-Feat565-Feat566-Feat567-Feat569-Feat570-Feat571-Feat572-Feat573-Feat574-Feat575-Feat576-Feat578-Feat579-Feat580-Feat581-Feat582-Feat583-Feat584-Feat585-Feat586-Feat587-Feat588-Feat589-Feat590-Feat591-Feat592-Feat593-Feat594-Feat595-Feat597-Feat598-Feat599-Feat600-Feat601-Feat603-Feat604-Feat605-Feat606-Feat607-Feat608-Feat609-Feat610-Feat611-Feat612-Feat613-Feat614-Feat615-Feat617-Feat618-Feat619-Feat620-Feat622-Feat623-Feat624-Feat625-Feat626-Feat627-Feat628-Feat629-Feat630-Feat631-Feat632-Feat633-Feat634-Feat636-Feat637-Feat638-Feat639-Feat640-Feat641-Feat642-Feat643-Feat644-Feat645-Feat646-Feat647-Feat648-Feat649-Feat650-Feat651-Feat652-Feat653-Feat654-Feat655-Feat656-Feat657-Feat658-Feat659-Feat660-Feat661-Feat662-Feat663-Feat664-Feat665-Feat666-Feat667-Feat668-Feat669-Feat670-Feat671-Feat672-Feat673-Feat674-Feat675-Feat676-Feat677-Feat678-Feat679-Feat680-Feat681-Feat682-Feat683-Feat684-Feat685-Feat686-Feat687-Feat688-Feat689-Feat690-Feat691-Feat692-Feat693-Feat694-Feat695-Feat696-Feat697-Feat698-Feat699-Feat700-Feat701-Feat702-Feat703-Feat704-Feat705-Feat706-Feat707-Feat708-Feat709-Feat710-Feat711-Feat712-Feat713-Feat714-Feat715-Feat716-Feat717-Feat718-Feat719-Feat720-Feat721-Feat722-Feat723-Feat724-Feat725-Feat726-Feat727-Feat728-Feat729-Feat730-Feat731-Feat732-Feat733-Feat734-Feat735-Feat736-Feat737-Feat738-Feat739-Feat740-Feat741-Feat742-Feat743-Feat744-Feat745-Feat746-Feat747-Feat749-Feat750-Feat751-Feat752-Feat753-Feat754-Feat755-Feat756-Feat757-Feat758-Feat759-Feat760-Feat761-Feat762-Feat763-Feat764-Feat765-Feat766-Feat767-Feat768-Feat769-Feat770-Feat771-Feat772-Feat773-Feat774-Feat775-Feat776-Feat777-Feat778-Feat779-Feat780-Feat781-Feat782-Feat783-Feat784-Feat785-Feat786-Feat787-Feat788-Feat789-Feat790-Feat791-Feat792-Feat793-Feat794-Feat796-Feat797-Feat798-Feat799-Feat800-Feat801-Feat802-Feat803-Feat804-Feat805-Feat806-Feat807-Feat808-Feat809-Feat811-Feat812-Feat813-Feat814-Feat815-Feat816-Feat817-Feat818-Feat819-Feat820-Feat821-Feat822-Feat823-Feat824-Feat825-Feat826-Feat827-Feat828-Feat829-Feat830-Feat831-Feat832-Feat833-Feat834-Feat835-Feat836-Feat837-Feat838-Feat839-Feat840-Feat841-Feat842-Feat843-Feat844-Feat845-Feat846-Feat847-Feat848-Feat849-Feat850-Feat851-Feat852-Feat853-Feat854-Feat855-Feat856-Feat857-Feat858-Feat859-Feat860-Feat861-Feat862-Feat863-Feat864-Feat865-Feat866-Feat867-Feat868-Feat869-Feat870-Feat871-Feat872-Feat873-Feat874-Feat875-Feat876-Feat877-Feat878-Feat879-Feat880-Feat881-Feat882-Feat883-Feat884-Feat885-Feat886-Feat887-Feat888-Feat889-Feat890-Feat891-Feat892-Feat893-Feat894-Feat895-Feat896-Feat897-Feat898-Feat899-Feat900-Feat903-Feat904-Feat905-Feat906-Feat907-Feat908-Feat909-Feat910-Feat911-Feat912-Feat913-Feat914-Feat915-Feat916-Feat917-Feat918-Feat919-Feat920-Feat921-Feat922-Feat923-Feat924-Feat925-Feat926-Feat927-Feat928-Feat929-Feat930-Feat931-Feat932-Feat933-Feat934-Feat935-Feat936-Feat937-Feat938-Feat939-Feat940-Feat941-Feat942-Feat943-Feat944-Feat945-Feat946-Feat947-Feat948-Feat949-Feat950-Feat951-Feat952-Feat953-Feat954-Feat955-Feat956-Feat957-Feat958-Feat959-Feat960-Feat961-Feat962-Feat963-Feat964-Feat965-Feat966-Feat967-Feat968-Feat969-Feat970-Feat971-Feat972-Feat973-Feat974-Feat975-Feat976-Feat977-Feat978-Feat979-Feat980-Feat981-Feat982-Feat983-Feat985-Feat986-Feat987-Feat988-Feat989-Feat990-Feat991-Feat992-Feat993-Feat994-Feat995-Feat996-Feat997-Feat998-Feat999-Feat1000-Feat1001-Feat1002-Feat1003-Feat1004-Feat1005-Feat1006-Feat1007-Feat1008-Feat1009-Feat1010-Feat1011-Feat1013-Feat1014-Feat1015-Feat1016-Feat1017-Feat1018-Feat1019-Feat1020-Feat1021-Feat1022-Feat1023-Feat1024-Feat1025-Feat1026-Feat1027-Feat1028-Feat1029-Feat1030-Feat1031-Feat1032-Feat1033-Feat1034-Feat1035-Feat1036-Feat1037-Feat1038-Feat1039-Feat1040-Feat1041-Feat1042-Feat1043-Feat1044-Feat1045-Feat1046-Feat1047-Feat1048-Feat1049-Feat1050-Feat1051-Feat1052-Feat1053-Feat1054-Feat1055-Feat1056-Feat1057-Feat1058-Feat1059-Feat1060-Feat1061-Feat1062-Feat1063-Feat1064-Feat1065-Feat1066-Feat1067-Feat1068-Feat1069-Feat1070-Feat1071-Feat1072-Feat1073-Feat1074-Feat1075-Feat1076-Feat1077-Feat1078-Feat1079-Feat1080-Feat1081-Feat1082-Feat1083-Feat1084-Feat1085-Feat1086-Feat1087-Feat1088-Feat1089-Feat1090-Feat1091-Feat1092-Feat1093-Feat1094-Feat1095-Feat1096-Feat1097-Feat1098-Feat1099-Feat1100-Feat1101-Feat1102-Feat1103-Feat1105-Feat1106-Feat1107-Feat1108-Feat1109-Feat1110-Feat1112-Feat1113-Feat1114-Feat1115-Feat1116-Feat1117-Feat1118-Feat1119-Feat1120-Feat1121-Feat1122-Feat1124-Feat1125-Feat1126-Feat1127-Feat1128-Feat1130-Feat1131-Feat1132-Feat1133-Feat1134-Feat1135-Feat1137-Feat1138-Feat1139-Feat1140-Feat1141-Feat1142-Feat1143-Feat1144-Feat1145-Feat1146-Feat1147-Feat1148-Feat1149-Feat1150-Feat1151-Feat1152-Feat1153-Feat1154-Feat1156-Feat1157-Feat1158-Feat1159-Feat1160-Feat1161-Feat1162-Feat1163-Feat1164-Feat1165-Feat1166-Feat1167-Feat1168-Feat1169-Feat1170-Feat1171-Feat1172-Feat1173-Feat1174-Feat1175-Feat1176-Feat1177-Feat1178-Feat1179-Feat1180-Feat1181-Feat1182-Feat1183-Feat1184-Feat1185-Feat1186-Feat1187-Feat1188-Feat1189-Feat1190-Feat1191-Feat1192-Feat1193-Feat1194-Feat1195-Feat1196-Feat1197-Feat1198-Feat1199-Feat1200-Feat1201-Feat1202-Feat1203-Feat1204-Feat1205-Feat1206-Feat1207-Feat1208-Feat1209-Feat1210-Feat1211-Feat1212-Feat1213-Feat1214-Feat1216-Feat1217-Feat1218-Feat1219-Feat1220-Feat1221-Feat1222-Feat1223-Feat1224-Feat1225-Feat1226-Feat1227-Feat1228-Feat1229-Feat1230-Feat1231-Feat1232-Feat1233-Feat1235-Feat1236-Feat1237-Feat1238-Feat1239-Feat1240-Feat1241-Feat1242-Feat1243-Feat1244-Feat1245-Feat1246-Feat1247-Feat1248-Feat1249-Feat1250-Feat1251-Feat1252-Feat1253-Feat1254-Feat1256-Feat1257-Feat1258-Feat1259-Feat1260-Feat1262-Feat1263-Feat1264-Feat1265-Feat1266-Feat1267-Feat1268-Feat1269-Feat1270-Feat1271-Feat1272-Feat1273-Feat1274-Feat1275-Feat1276-Feat1278-Feat1279-Feat1280-Feat1281-Feat1282-Feat1283-Feat1284-Feat1285-Feat1286-Feat1287-Feat1288-Feat1289-Feat1290-Feat1291-Feat1293-Feat1294-Feat1295-Feat1296-Feat1297-Feat1298-Feat1299-Feat1300-Feat1301-Feat1302-Feat1303-Feat1304-Feat1305-Feat1306-Feat1307-Feat1308-Feat1309-Feat1310-Feat1311-Feat1312-Feat1313-Feat1314-Feat1315-Feat1316-Feat1317-Feat1318-Feat1319-Feat1320-Feat1321-Feat1322-Feat1323-Feat1324-Feat1325-Feat1326-Feat1327-Feat1328-Feat1329-Feat1330-Feat1331-Feat1332-Feat1333-Feat1334-Feat1336-Feat1337-Feat1338-Feat1339-Feat1340-Feat1341-Feat1342-Feat1343-Feat1344-Feat1345-Feat1346-Feat1347-Feat1348-Feat1349-Feat1350-Feat1351-Feat1352-Feat1353-Feat1354-Feat1355-Feat1357-Feat1358-Feat1359-Feat1360-Feat1361-Feat1362-Feat1363-Feat1364-Feat1365-Feat1366-Feat1367-Feat1368-Feat1369-Feat1370-Feat1371-Feat1372-Feat1373-Feat1374-Feat1375-Feat1376-Feat1377-Feat1378-Feat1379-Feat1380-Feat1381-Feat1382-Feat1383-Feat1384-Feat1385-Feat1388-Feat1389-Feat1390-Feat1391-Feat1392-Feat1394-Feat1395-Feat1396-Feat1397-Feat1398-Feat1399-Feat1400-Feat1401-Feat1402-Feat1404-Feat1405-Feat1406-Feat1407-Feat1409-Feat1410-Feat1411-Feat1412-Feat1413-Feat1414-Feat1415-Feat1416-Feat1417-Feat1418-Feat1419-Feat1420-Feat1421-Feat1422-Feat1424-Feat1425-Feat1426-Feat1427-Feat1428-Feat1429-Feat1430-Feat1431-Feat1432-Feat1433-Feat1434-Feat1435-Feat1436-Feat1437-Feat1439-Feat1440-Feat1441-Feat1442-Feat1443-Feat1444-Feat1445-Feat1446-Feat1447-Feat1448-Feat1449-Feat1450-Feat1451-Feat1452-Feat1453-Feat1454-Feat1455-Feat1456-Feat1457-Feat1458-Feat1459-Feat1460-Feat1461-Feat1462-Feat1463-Feat1464-Feat1465-Feat1466-Feat1467-Feat1468-Feat1469-Feat1470-Feat1471-Feat1472-Feat1473-Feat1474-Feat1475-Feat1476-Feat1477-Feat1478-Feat1479-Feat1480-Feat1481-Feat1482-Feat1483-Feat1484-Feat1485-Feat1486-Feat1487-Feat1490-Feat1491-Feat1492-Feat1493-Feat1494-Feat1495-Feat1496-Feat1497-Feat1498-Feat1499-Feat1500-Feat1501-Feat1502-Feat1503-Feat1504-Feat1505-Feat1506-Feat1507-Feat1508-Feat1509-Feat1510-Feat1511-Feat1512-Feat1513-Feat1514-Feat1515-Feat1516-Feat1517-Feat1518-Feat1519-Feat1520-Feat1521-Feat1522-Feat1523-Feat1524-Feat1525-Feat1526-Feat1527-Feat1528-Feat1529-Feat1530-Feat1531-Feat1532-Feat1533-Feat1534-Feat1535-Feat1536-Feat1537-Feat1538-Feat1539-Feat1540-Feat1542-Feat1543-Feat1544-Feat1545-Feat1546-Feat1547-Feat1548-Feat1549-Feat1550-Feat1551-Feat1552-Feat1553-Feat1554-Feat1555-Feat1556-Feat1557-Feat1558-Feat1559-Feat1560-Feat1561-Feat1562-Feat1563-Feat1564-Feat1565-Feat1566-Feat1567-Feat1568-Feat1569-Feat1570-Feat1571-Feat1572-Feat1573-Feat1574-Feat1575-Feat1576-Feat1577-Feat1578-Feat1579-Feat1580-Feat1581-Feat1582-Feat1583-Feat1584-Feat1585-Feat1586-Feat1587-Feat1588-Feat1589-Feat1590-Feat1591-Feat1592-Feat1593-Feat1594-Feat1595-Feat1596-Feat1597-Feat1598-Feat1599-Feat1600-Feat1601-Feat1602-Feat1603-Feat1604-Feat1605-Feat1606-Feat1607-Feat1608-Feat1609-Feat1610-Feat1611-Feat1612-Feat1613-Feat1614-Feat1615-Feat1616-Feat1617-Feat1618-Feat1619-Feat1620-Feat1621-Feat1622-Feat1623-Feat1624-Feat1625-Feat1626-Feat1627-Feat1628-Feat1629-Feat1630-Feat1631-Feat1632-Feat1633-Feat1634-Feat1635-Feat1636-Feat1637-Feat1638-Feat1639-Feat1640-Feat1641-Feat1642-Feat1643-Feat1645-Feat1646-Feat1647-Feat1648-Feat1649-Feat1650-Feat1651-Feat1652-Feat1653-Feat1654-Feat1655-Feat1656-Feat1657-Feat1658-Feat1660-Feat1661-Feat1662-Feat1663-Feat1664-Feat1665-Feat1666-Feat1667-Feat1668-Feat1669-Feat1670-Feat1671-Feat1672-Feat1673-Feat1674-Feat1675-Feat1676-Feat1677-Feat1678-Feat1679-Feat1680-Feat1681-Feat1682-Feat1683-Feat1684-Feat1685-Feat1686-Feat1687-Feat1688-Feat1689-Feat1690-Feat1691-Feat1692-Feat1693-Feat1694-Feat1695-Feat1696-Feat1697-Feat1698-Feat1699-Feat1700-Feat1701-Feat1703-Feat1704-Feat1705-Feat1706-Feat1707-Feat1708-Feat1709-Feat1710-Feat1711-Feat1712-Feat1713-Feat1714-Feat1715-Feat1716-Feat1717-Feat1719-Feat1720-Feat1721-Feat1722-Feat1723-Feat1724-Feat1725-Feat1726-Feat1727-Feat1728-Feat1729-Feat1730-Feat1731-Feat1732-Feat1733-Feat1734-Feat1735-Feat1736-Feat1737-Feat1738-Feat1739-Feat1740-Feat1741-Feat1742-Feat1743-Feat1744-Feat1745-Feat1746-Feat1747-Feat1748-Feat1749-Feat1750-Feat1751-Feat1752-Feat1753-Feat1754-Feat1755-Feat1756-Feat1757-Feat1758-Feat1759-Feat1760-Feat1761-Feat1762-Feat1763-Feat1764-Feat1765-Feat1766-Feat1767-Feat1768-Feat1769-Feat1770-Feat1771-Feat1772-Feat1773-Feat1774-Feat1775-Feat1776-Feat1777-Feat1778-Feat1779-Feat1780-Feat1781-Feat1782-Feat1783-Feat1785-Feat1786-Feat1789-Feat1790-Feat1791-Feat1792-Feat1793-Feat1794-Feat1795-Feat1796-Feat1797-Feat1798-Feat1799-Feat1800-Feat1801-Feat1802-Feat1804-Feat1805-Feat1806-Feat1807-Feat1808-Feat1809-Feat1810-Feat1811-Feat1812-Feat1813-Feat1814-Feat1815-Feat1816-Feat1817-Feat1818-Feat1819-Feat1820-Feat1821-Feat1822-Feat1823-Feat1824-Feat1825-Feat1826-Feat1827-Feat1828-Feat1829-Feat1830-Feat1831-Feat1832-Feat1833-Feat1834-Feat1835-Feat1836-Feat1837-Feat1838-Feat1839-Feat1840-Feat1841-Feat1842-Feat1843-Feat1844-Feat1845-Feat1846-Feat1847-Feat1848-Feat1849-Feat1850-Feat1851-Feat1852-Feat1853-Feat1854-Feat1855-Feat1856-Feat1857-Feat1858-Feat1859-Feat1860-Feat1861-Feat1862-Feat1863-Feat1864-Feat1865-Feat1866-Feat1867-Feat1868-Feat1869-Feat1870-Feat1871-Feat1872-Feat1873-Feat1874-Feat1875-Feat1876-Feat1877-Feat1878-Feat1880-Feat1881-Feat1882-Feat1883-Feat1884-Feat1885-Feat1887-Feat1888-Feat1889-Feat1890-Feat1891-Feat1892-Feat1893-Feat1894-Feat1895-Feat1896-Feat1897-Feat1898-Feat1899-Feat1900-Feat1901-Feat1902-Feat1903-Feat1904-Feat1905-Feat1906-Feat1907-Feat1908-Feat1909-Feat1910-Feat1911-Feat1912-Feat1913-Feat1914-Feat1915-Feat1916-Feat1917-Feat1918-Feat1919-Feat1920-Feat1921-Feat1922-Feat1923-Feat1924-Feat1925-Feat1926-Feat1927-Feat1928-Feat1929-Feat1930-Feat1931-Feat1932-Feat1933-Feat1934-Feat1935-Feat1936-Feat1937-Feat1938-Feat1939-Feat1940-Feat1941-Feat1942-Feat1943-Feat1944-Feat1945-Feat1946-Feat1947-Feat1948-Feat1949-Feat1950-Feat1951-Feat1952-Feat1953-Feat1954-Feat1955-Feat1956-Feat1957-Feat1958-Feat1960-Feat1961-Feat1962-Feat1963-Feat1964-Feat1965-Feat1966-Feat1967-Feat1968-Feat1969-Feat1970-Feat1971-Feat1973-Feat1974-Feat1975-Feat1976-Feat1977-Feat1978-Feat1979-Feat1980-Feat1981-Feat1982-Feat1983-Feat1984-Feat1985-Feat1986-Feat1987-Feat1988-Feat1989-Feat1990-Feat1991-Feat1992-Feat1993-Feat1994-Feat1995-Feat1996-Feat1997-Feat1998-Feat1999-Feat2000-Feat2001-Feat2002-Feat2003-Feat2004-Feat2005-Feat2006-Feat2007-Feat2008-Feat2009-Feat2011-Feat2012-Feat2013-Feat2014-Feat2015-Feat2016-Feat2017-Feat2018-Feat2019-Feat2020-Feat2021-Feat2022-Feat2023-Feat2024-Feat2025-Feat2026-Feat2027-Feat2028-Feat2029-Feat2030-Feat2031-Feat2032-Feat2033-Feat2034-Feat2035-Feat2036-Feat2037-Feat2038-Feat2039-Feat2040-Feat2041-Feat2042-Feat2043-Feat2044-Feat2045-Feat2046-Feat2047-Feat2048-Feat2049-Feat2050-Feat2051-Feat2052-Feat2053-Feat2054-Feat2055-Feat2056-Feat2057-Feat2058-Feat2059-Feat2060-Feat2061-Feat2062-Feat2063-Feat2064-Feat2065-Feat2066-Feat2067-Feat2068-Feat2069-Feat2070-Feat2071-Feat2072-Feat2073-Feat2074-Feat2075-Feat2076-Feat2077-Feat2078-Feat2079-Feat2080-Feat2081-Feat2082-Feat2083-Feat2084-Feat2085-Feat2086-Feat2087-Feat2089-Feat2090-Feat2091-Feat2092-Feat2093-Feat2094-Feat2096-Feat2097-Feat2098-Feat2099-Feat2100-Feat2101-Feat2102-Feat2103-Feat2104-Feat2105-Feat2106-Feat2107-Feat2108-Feat2109-Feat2110-Feat2111-Feat2112-Feat2113-Feat2114-Feat2115-Feat2116-Feat2117-Feat2118-Feat2120-Feat2121-Feat2122-Feat2124-Feat2125-Feat2126-Feat2127-Feat2128-Feat2129-Feat2130-Feat2131-Feat2132-Feat2133-Feat2134-Feat2135-Feat2136-Feat2137-Feat2138-Feat2139-Feat2140-Feat2141-Feat2142-Feat2143-Feat2144-Feat2145-Feat2146-Feat2147-Feat2148-Feat2149-Feat2150-Feat2151-Feat2152-Feat2153-Feat2154-Feat2155-Feat2156-Feat2157-Feat2158-Feat2159-Feat2160-Feat2161-Feat2162-Feat2163-Feat2164-Feat2165-Feat2166-Feat2167-Feat2168-Feat2169-Feat2170-Feat2171-Feat2172-Feat2173-Feat2174-Feat2175-Feat2176-Feat2177-Feat2178-Feat2179-Feat2180-Feat2182-Feat2183-Feat2184-Feat2185-Feat2186-Feat2187-Feat2188-Feat2189-Feat2190-Feat2191-Feat2192-Feat2193-Feat2194-Feat2195-Feat2196-Feat2197-Feat2198-Feat2199-Feat2200-Feat2201-Feat2202-Feat2203-Feat2204-Feat2205-Feat2206-Feat2207-Feat2208-Feat2209-Feat2210-Feat2211-Feat2212-Feat2213-Feat2214-Feat2215-Feat2216-Feat2217-Feat2218-Feat2219-Feat2221-Feat2222-Feat2223-Feat2224-Feat2225-Feat2226-Feat2227-Feat2228-Feat2229-Feat2230-Feat2231-Feat2232-Feat2233-Feat2234-Feat2235-Feat2236-Feat2237-Feat2238-Feat2239-Feat2240-Feat2241-Feat2242-Feat2243-Feat2244-Feat2245-Feat2247-Feat2248-Feat2249-Feat2251-Feat2252-Feat2253-Feat2254-Feat2255-Feat2256-Feat2257-Feat2258-Feat2259-Feat2261-Feat2262-Feat2263-Feat2264-Feat2265-Feat2266-Feat2267-Feat2268-Feat2269-Feat2270-Feat2271-Feat2272-Feat2273-Feat2274-Feat2275-Feat2276-Feat2277-Feat2278-Feat2279-Feat2280-Feat2281-Feat2282-Feat2283-Feat2284-Feat2285-Feat2286-Feat2287-Feat2288-Feat2289-Feat2290-Feat2291-Feat2292-Feat2293-Feat2294-Feat2295-Feat2296-Feat2297-Feat2298-Feat2299-Feat2300-Feat2301-Feat2302-Feat2303-Feat2304-Feat2305-Feat2306-Feat2307-Feat2308-Feat2309-Feat2310-Feat2311-Feat2312-Feat2313-Feat2314-Feat2315-Feat2316-Feat2317-Feat2318-Feat2319-Feat2320-Feat2321-Feat2322-Feat2323-Feat2324-Feat2325-Feat2326-Feat2327-Feat2328-Feat2329-Feat2330-Feat2331-Feat2332-Feat2333-Feat2334-Feat2335-Feat2336-Feat2337-Feat2338-Feat2339-Feat2340-Feat2341-Feat2342-Feat2343-Feat2344-Feat2345-Feat2346-Feat2347-Feat2348-Feat2349-Feat2350-Feat2351-Feat2352-Feat2353-Feat2354-Feat2355-Feat2356-Feat2357-Feat2358-Feat2359-Feat2360-Feat2361-Feat2362-Feat2363-Feat2364-Feat2365-Feat2366-Feat2367-Feat2368-Feat2369-Feat2370-Feat2371-Feat2372-Feat2373-Feat2374-Feat2375-Feat2376-Feat2377-Feat2378-Feat2379-Feat2380-Feat2381-Feat2382-Feat2383-Feat2384-Feat2385-Feat2386-Feat2387-Feat2388-Feat2389-Feat2390-Feat2391-Feat2392-Feat2393-Feat2394-Feat2395-Feat2396-Feat2397-Feat2398-Feat2399-Feat2400-Feat2401-Feat2402-Feat2403-Feat2404-Feat2405-Feat2406-Feat2407-Feat2408-Feat2409-Feat2410-Feat2411-Feat2412-Feat2413-Feat2414-Feat2415-Feat2416-Feat2417-Feat2418-Feat2419-Feat2420-Feat2421-Feat2422-Feat2423-Feat2424-Feat2425-Feat2426-Feat2427-Feat2428-Feat2429-Feat2430-Feat2431-Feat2433-Feat2434-Feat2435-Feat2436-Feat2437-Feat2438-Feat2439-Feat2440-Feat2441-Feat2442-Feat2443-Feat2444-Feat2445-Feat2446-Feat2447-Feat2448-Feat2449-Feat2450-Feat2451-Feat2452-Feat2453-Feat2454-Feat2455-Feat2456-Feat2457-Feat2458-Feat2459-Feat2460-Feat2461-Feat2462-Feat2463-Feat2464-Feat2465-Feat2466-Feat2467-Feat2468-Feat2469-Feat2470-Feat2471-Feat2472-Feat2474-Feat2475-Feat2476-Feat2477-Feat2479-Feat2480-Feat2481-Feat2482-Feat2483-Feat2484-Feat2485-Feat2486-Feat2487-Feat2488-Feat2489-Feat2490-Feat2491-Feat2494-Feat2495-Feat2496-Feat2497-Feat2498-Feat2499-Feat2500-Feat2501-Feat2502-Feat2503-Feat2504-Feat2505-Feat2506-Feat2507-Feat2508-Feat2510-Feat2511-Feat2512-Feat2513-Feat2514-Feat2516-Feat2517-Feat2518-Feat2519-Feat2520-Feat2522-Feat2523-Feat2524-Feat2526-Feat2527-Feat2528-Feat2529-Feat2530-Feat2531-Feat2532-Feat2533-Feat2534-Feat2535-Feat2536-Feat2537-Feat2538-Feat2539-Feat2540-Feat2541-Feat2542-Feat2543-Feat2544-Feat2545-Feat2546-Feat2547-Feat2548-Feat2549-Feat2550-Feat2551-Feat2552-Feat2553-Feat2554-Feat2555-Feat2556-Feat2557-Feat2558-Feat2559-Feat2560-Feat2561-Feat2562-Feat2563-Feat2564-Feat2565-Feat2566-Feat2567-Feat2568-Feat2569-Feat2570-Feat2571-Feat2572-Feat2573-Feat2574-Feat2575-Feat2576-Feat2577-Feat2578-Feat2579-Feat2580-Feat2581-Feat2582-Feat2583-Feat2584-Feat2585-Feat2586-Feat2587-Feat2588-Feat2589-Feat2590-Feat2591-Feat2592-Feat2593-Feat2594-Feat2595-Feat2596-Feat2597-Feat2598-Feat2599-Feat2600-Feat2601-Feat2602-Feat2603-Feat2604-Feat2605-Feat2606-Feat2607-Feat2608-Feat2609-Feat2610-Feat2611-Feat2612-Feat2613-Feat2614-Feat2615-Feat2616-Feat2617-Feat2618-Feat2619-Feat2620-Feat2621-Feat2622-Feat2623-Feat2624-Feat2625-Feat2626-Feat2627-Feat2628-Feat2629-Feat2630-Feat2631-Feat2632-Feat2633-Feat2634-Feat2635-Feat2636-Feat2637-Feat2638-Feat2639-Feat2640-Feat2641-Feat2642-Feat2643-Feat2644-Feat2645-Feat2646-Feat2647-Feat2648-Feat2649-Feat2650-Feat2651-Feat2652-Feat2653-Feat2654-Feat2655-Feat2656-Feat2657-Feat2658-Feat2659-Feat2660-Feat2661-Feat2662-Feat2663-Feat2664-Feat2665-Feat2666-Feat2667-Feat2668-Feat2669-Feat2670-Feat2671-Feat2672-Feat2673-Feat2674-Feat2675-Feat2676-Feat2677-Feat2678-Feat2679-Feat2680-Feat2681-Feat2682-Feat2683-Feat2684-Feat2685-Feat2686-Feat2687-Feat2688-Feat2689-Feat2690-Feat2691-Feat2692-Feat2693-Feat2694-Feat2695-Feat2696-Feat2697-Feat2698-Feat2699-Feat2700-Feat2701-Feat2702-Feat2703-Feat2704-Feat2705-Feat2706-Feat2707-Feat2708-Feat2709-Feat2710-Feat2711-Feat2712-Feat2713-Feat2714-Feat2715-Feat2716-Feat2717-Feat2718-Feat2719-Feat2720-Feat2721-Feat2722-Feat2723-Feat2724-Feat2725-Feat2726-Feat2727-Feat2728-Feat2729-Feat2730-Feat2731-Feat2732-Feat2733-Feat2734-Feat2735-Feat2736-Feat2737-Feat2738-Feat2739-Feat2740-Feat2741-Feat2742-Feat2743-Feat2744-Feat2745-Feat2747-Feat2748-Feat2749-Feat2750-Feat2751-Feat2752-Feat2753-Feat2754-Feat2755-Feat2756-Feat2757-Feat2758-Feat2759-Feat2760-Feat2761-Feat2762-Feat2763-Feat2764-Feat2765-Feat2766-Feat2767-Feat2768-Feat2769-Feat2771-Feat2772-Feat2773-Feat2774-Feat2775-Feat2776-Feat2777-Feat2778-Feat2779-Feat2780-Feat2781-Feat2782-Feat2783-Feat2784-Feat2785-Feat2786-Feat2787-Feat2788-Feat2789-Feat2790-Feat2791-Feat2792-Feat2793-Feat2794-Feat2795-Feat2796-Feat2797-Feat2798-Feat2799-Feat2800-Feat2801-Feat2802-Feat2803-Feat2804-Feat2806-Feat2807-Feat2808-Feat2809-Feat2810-Feat2811-Feat2812-Feat2813-Feat2814-Feat2815-Feat2816-Feat2817-Feat2818-Feat2819-Feat2820-Feat2821-Feat2822-Feat2823-Feat2824-Feat2825-Feat2826-Feat2827-Feat2828-Feat2829-Feat2830-Feat2831-Feat2832-Feat2833-Feat2834-Feat2835-Feat2836-Feat2837-Feat2838-Feat2839-Feat2840-Feat2841-Feat2842-Feat2843-Feat2844-Feat2845-Feat2846-Feat2847-Feat2848-Feat2849-Feat2850-Feat2851-Feat2852-Feat2854-Feat2855-Feat2856-Feat2857-Feat2858-Feat2859-Feat2860-Feat2861-Feat2862-Feat2863-Feat2864-Feat2865-Feat2866-Feat2867-Feat2868-Feat2869-Feat2870-Feat2871-Feat2872-Feat2873-Feat2874-Feat2875-Feat2877-Feat2878-Feat2879-Feat2880-Feat2881-Feat2882-Feat2883-Feat2884-Feat2885-Feat2886-Feat2887-Feat2888-Feat2889-Feat2890-Feat2891-Feat2892-Feat2893-Feat2894-Feat2895-Feat2896-Feat2897-Feat2898-Feat2899-Feat2900-Feat2901-Feat2902-Feat2903-Feat2904-Feat2905-Feat2906-Feat2907-Feat2908-Feat2909-Feat2910-Feat2911-Feat2912-Feat2913-Feat2914-Feat2915-Feat2916-Feat2917-Feat2918-Feat2919-Feat2920-Feat2921-Feat2922-Feat2923-Feat2924-Feat2925-Feat2926-Feat2927-Feat2928-Feat2929-Feat2930-Feat2931-Feat2932-Feat2933-Feat2935-Feat2936-Feat2937-Feat2938-Feat2939-Feat2940-Feat2941-Feat2942-Feat2943-Feat2944-Feat2945-Feat2946-Feat2947-Feat2948-Feat2949-Feat2950-Feat2951-Feat2952-Feat2953-Feat2954-Feat2955-Feat2956-Feat2957-Feat2958-Feat2959-Feat2960-Feat2961-Feat2962-Feat2964-Feat2965-Feat2966-Feat2967-Feat2968-Feat2970-Feat2971-Feat2972-Feat2973-Feat2974-Feat2975-Feat2976-Feat2977-Feat2979-Feat2980-Feat2981-Feat2982-Feat2983-Feat2984-Feat2985-Feat2986-Feat2987-Feat2988-Feat2989-Feat2990-Feat2991-Feat2992-Feat2993-Feat2994-Feat2995-Feat2996-Feat2997-Feat2998-Feat2999-Feat3000-Feat3001-Feat3003-Feat3005-Feat3006-Feat3007-Feat3008-Feat3009-Feat3010-Feat3011-Feat3012-Feat3013-Feat3014-Feat3015-Feat3016-Feat3017-Feat3018-Feat3019-Feat3020-Feat3021-Feat3022-Feat3023-Feat3024-Feat3025-Feat3026-Feat3027-Feat3028-Feat3030-Feat3031-Feat3032-Feat3033-Feat3034-Feat3035-Feat3036-Feat3037-Feat3038-Feat3039-Feat3041-Feat3042-Feat3043-Feat3044-Feat3045-Feat3046-Feat3047-Feat3048-Feat3049-Feat3050-Feat3051-Feat3052-Feat3053-Feat3054-Feat3055-Feat3056-Feat3057-Feat3058-Feat3059-Feat3060-Feat3062-Feat3063-Feat3064-Feat3065-Feat3066-Feat3067-Feat3068-Feat3069-Feat3070-Feat3071-Feat3072-Feat3073-Feat3074-Feat3075-Feat3076-Feat3077-Feat3078-Feat3079-Feat3080-Feat3081-Feat3082-Feat3083-Feat3084-Feat3085-Feat3086-Feat3087-Feat3088-Feat3089-Feat3090-Feat3091-Feat3092-Feat3093-Feat3094-Feat3095-Feat3096-Feat3097-Feat3098-Feat3099-Feat3100-Feat3101-Feat3102-Feat3103-Feat3104-Feat3105-Feat3106-Feat3107-Feat3109-Feat3110-Feat3111-Feat3112-Feat3113-Feat3114-Feat3115-Feat3116-Feat3117-Feat3118-Feat3119-Feat3120-Feat3121-Feat3122-Feat3123-Feat3124-Feat3125-Feat3127-Feat3128-Feat3129-Feat3130-Feat3131-Feat3132-Feat3133-Feat3134-Feat3135-Feat3136-Feat3137-Feat3138-Feat3139-Feat3140-Feat3141-Feat3142-Feat3143-Feat3144-Feat3145-Feat3146-Feat3147-Feat3148-Feat3149-Feat3150-Feat3151-Feat3152-Feat3153-Feat3154-Feat3155-Feat3156-Feat3157-Feat3159-Feat3160-Feat3161-Feat3162-Feat3163-Feat3164-Feat3165-Feat3166-Feat3167-Feat3168-Feat3169-Feat3170-Feat3171-Feat3172-Feat3173-Feat3174-Feat3175-Feat3176-Feat3177-Feat3178-Feat3179-Feat3180-Feat3181-Feat3182-Feat3183-Feat3184-Feat3185-Feat3186-Feat3187-Feat3188-Feat3189-Feat3190-Feat3191-Feat3192-Feat3193-Feat3194-Feat3195-Feat3196-Feat3197-Feat3198-Feat3199-Feat3200-Feat3201-Feat3202-Feat3203-Feat3204-Feat3205-Feat3206-Feat3207-Feat3208-Feat3209-Feat3210-Feat3211-Feat3212-Feat3213-Feat3214-Feat3215-Feat3216-Feat3217-Feat3218-Feat3219-Feat3220-Feat3221-Feat3222-Feat3223-Feat3224-Feat3225-Feat3227-Feat3228-Feat3229-Feat3230-Feat3231-Feat3232-Feat3233-Feat3234-Feat3235-Feat3236-Feat3237-Feat3238-Feat3239-Feat3240-Feat3241-Feat3242-Feat3243-Feat3244-Feat3245-Feat3246-Feat3247-Feat3248-Feat3249-Feat3250-Feat3251-Feat3252-Feat3253-Feat3254-Feat3255-Feat3256-Feat3257-Feat3258-Feat3259-Feat3260-Feat3261-Feat3262-Feat3263-Feat3264-Feat3265-Feat3266-Feat3267-Feat3268-Feat3269-Feat3270-Feat3271-Feat3272-Feat3273-Feat3274-Feat3275-Feat3276-Feat3277-Feat3278-Feat3280-Feat3281-Feat3282-Feat3283-Feat3284-Feat3285-Feat3286-Feat3287-Feat3289-Feat3290-Feat3291-Feat3292-Feat3293-Feat3294-Feat3295-Feat3296-Feat3297-Feat3298-Feat3299-Feat3300-Feat3301-Feat3302-Feat3303-Feat3304-Feat3305-Feat3306-Feat3307-Feat3308-Feat3309-Feat3310-Feat3311-Feat3312-Feat3313-Feat3314-Feat3315-Feat3317-Feat3318-Feat3319-Feat3320-Feat3321-Feat3322-Feat3323-Feat3324-Feat3325-Feat3326-Feat3327-Feat3328-Feat3329-Feat3330-Feat3331-Feat3332-Feat3333-Feat3334-Feat3335-Feat3336-Feat3337-Feat3338-Feat3339-Feat3340-Feat3341-Feat3342-Feat3344-Feat3345-Feat3346-Feat3347-Feat3348-Feat3350-Feat3351-Feat3352-Feat3353-Feat3354-Feat3355-Feat3356-Feat3357-Feat3358-Feat3359-Feat3360-Feat3361-Feat3362-Feat3363-Feat3364-Feat3365-Feat3366-Feat3367-Feat3368-Feat3369-Feat3370-Feat3371-Feat3372-Feat3373-Feat3374-Feat3375-Feat3376-Feat3377-Feat3378-Feat3379-Feat3380-Feat3381-Feat3382-Feat3383-Feat3384-Feat3385-Feat3386-Feat3387-Feat3388-Feat3390-Feat3391-Feat3393-Feat3395-Feat3396-Feat3397-Feat3398-Feat3399-Feat3400-Feat3401-Feat3402-Feat3403-Feat3404-Feat3405-Feat3406-Feat3407-Feat3408-Feat3409-Feat3410-Feat3411-Feat3412-Feat3413-Feat3414-Feat3415-Feat3416-Feat3417-Feat3418-Feat3419-Feat3420-Feat3421-Feat3422-Feat3423-Feat3424-Feat3425-Feat3426-Feat3427-Feat3428-Feat3429-Feat3430-Feat3431-Feat3432-Feat3433-Feat3434-Feat3435-Feat3436-Feat3437-Feat3438-Feat3439-Feat3440-Feat3441-Feat3442-Feat3443-Feat3444-Feat3445-Feat3446-Feat3447-Feat3449-Feat3450-Feat3451-Feat3452-Feat3453-Feat3454-Feat3455-Feat3456-Feat3457-Feat3458-Feat3460-Feat3461-Feat3462-Feat3463-Feat3464-Feat3465-Feat3466-Feat3467-Feat3469-Feat3470-Feat3471-Feat3472-Feat3473-Feat3474-Feat3475-Feat3476-Feat3477-Feat3478-Feat3479-Feat3480-Feat3481-Feat3482-Feat3483-Feat3484-Feat3485-Feat3486-Feat3487-Feat3488-Feat3489-Feat3490-Feat3491-Feat3492-Feat3493-Feat3494-Feat3496-Feat3497-Feat3498-Feat3499-Feat3500-Feat3501-Feat3502-Feat3503-Feat3504-Feat3505-Feat3506-Feat3507-Feat3508-Feat3509-Feat3510-Feat3511-Feat3512-Feat3513-Feat3514-Feat3515-Feat3516-Feat3517-Feat3518-Feat3519-Feat3520-Feat3521-Feat3522-Feat3523-Feat3524-Feat3525-Feat3526-Feat3527-Feat3528-Feat3529-Feat3530-Feat3531-Feat3532-Feat3533-Feat3534-Feat3535-Feat3536-Feat3537-Feat3538-Feat3539-Feat3540-Feat3541-Feat3542-Feat3543-Feat3544-Feat3545-Feat3546-Feat3547-Feat3548-Feat3549-Feat3550-Feat3551-Feat3552-Feat3553-Feat3554-Feat3555-Feat3556-Feat3557-Feat3558-Feat3559-Feat3560-Feat3561-Feat3562-Feat3563-Feat3564-Feat3565-Feat3566-Feat3567-Feat3568-Feat3570-Feat3571-Feat3572-Feat3573-Feat3574-Feat3575-Feat3576-Feat3577-Feat3578-Feat3579-Feat3580-Feat3581-Feat3582-Feat3583-Feat3584-Feat3585-Feat3586-Feat3587-Feat3588-Feat3589-Feat3590-Feat3591-Feat3592-Feat3593-Feat3594-Feat3595-Feat3596-Feat3597-Feat3598-Feat3599-Feat3600-Feat3601-Feat3602-Feat3604-Feat3605-Feat3606-Feat3607-Feat3609-Feat3610-Feat3611-Feat3612-Feat3614-Feat3615-Feat3616-Feat3617-Feat3618-Feat3619-Feat3620-Feat3621-Feat3622-Feat3623-Feat3624-Feat3625-Feat3626-Feat3627-Feat3628-Feat3629-Feat3630-Feat3631-Feat3632-Feat3633-Feat3634-Feat3635-Feat3636-Feat3637-Feat3638-Feat3639-Feat3640-Feat3641-Feat3642-Feat3643-Feat3644-Feat3645-Feat3646-Feat3647-Feat3648-Feat3649-Feat3650-Feat3651-Feat3652-Feat3653-Feat3654-Feat3655-Feat3656-Feat3657-Feat3658-Feat3659-Feat3660-Feat3661-Feat3662-Feat3663-Feat3664-Feat3665-Feat3666-Feat3667-Feat3668-Feat3669-Feat3671-Feat3672-Feat3673-Feat3674-Feat3675-Feat3676-Feat3677-Feat3678-Feat3679-Feat3680-Feat3681-Feat3682-Feat3683-Feat3684-Feat3685-Feat3686-Feat3687-Feat3688-Feat3689-Feat3690-Feat3691-Feat3692-Feat3693-Feat3694-Feat3695-Feat3696-Feat3697-Feat3698-Feat3699-Feat3700-Feat3701-Feat3702-Feat3703-Feat3704-Feat3705-Feat3706-Feat3707-Feat3708-Feat3709-Feat3710-Feat3711-Feat3712-Feat3713-Feat3714-Feat3715-Feat3716-Feat3717-Feat3718-Feat3719-Feat3720-Feat3721-Feat3723-Feat3724-Feat3725-Feat3726-Feat3727-Feat3728-Feat3729-Feat3730-Feat3731-Feat3732-Feat3733-Feat3734-Feat3735-Feat3736-Feat3737-Feat3738-Feat3739-Feat3740-Feat3741-Feat3742-Feat3743-Feat3744-Feat3745-Feat3746-Feat3747-Feat3748-Feat3749-Feat3750-Feat3751-Feat3752-Feat3753-Feat3754-Feat3755-Feat3756-Feat3757-Feat3759-Feat3760-Feat3761-Feat3762-Feat3763-Feat3764-Feat3765-Feat3766-Feat3767-Feat3768-Feat3769-Feat3770-Feat3771-Feat3772-Feat3773-Feat3774-Feat3775-Feat3776-Feat3777-Feat3778-Feat3779-Feat3780-Feat3781-Feat3782-Feat3783-Feat3784-Feat3785-Feat3786-Feat3787-Feat3788-Feat3789-Feat3790-Feat3791-Feat3792-Feat3793-Feat3794-Feat3795-Feat3797-Feat3798-Feat3799-Feat3801-Feat3802-Feat3803-Feat3804-Feat3805-Feat3807-Feat3808-Feat3809-Feat3810-Feat3811-Feat3812-Feat3813-Feat3814-Feat3815-Feat3817-Feat3818-Feat3819-Feat3820-Feat3821-Feat3822-Feat3823-Feat3824-Feat3825-Feat3826-Feat3827-Feat3828-Feat3829-Feat3830-Feat3831-Feat3832-Feat3833-Feat3834-Feat3835-Feat3836-Feat3837-Feat3838-Feat3839-Feat3840-Feat3841-Feat3842-Feat3843-Feat3844-Feat3845-Feat3846-Feat3847-Feat3849-Feat3850-Feat3851-Feat3852-Feat3853-Feat3854-Feat3855-Feat3856-Feat3857-Feat3858-Feat3859-Feat3860-Feat3861-Feat3862-Feat3863-Feat3864-Feat3865-Feat3866-Feat3867-Feat3868-Feat3869-Feat3870-Feat3871-Feat3872-Feat3873-Feat3874-Feat3875-Feat3876-Feat3877-Feat3878-Feat3879-Feat3880-Feat3881-Feat3882-Feat3883-Feat3884-Feat3885-Feat3886-Feat38</t>
+  </si>
+  <si>
+    <t>Feat1-Feat2-Feat4-Feat5-Feat7-Feat9-Feat14-Feat15-Feat21-Feat24-Feat25-Feat26-Feat28-Feat35-Feat36-Feat40-Feat42-Feat43-Feat44-Feat45-Feat47-Feat51-Feat56-Feat57-Feat62-Feat63-Feat64-Feat66-Feat71-Feat76-Feat79-Feat82-Feat83-Feat86-Feat88-Feat91-Feat92-Feat93-Feat95-Feat96-Feat98-Feat99-Feat102-Feat104-Feat106-Feat108-Feat111-Feat115-Feat118-Feat120-Feat121-Feat122-Feat123-Feat126-Feat127-Feat128-Feat134-Feat135-Feat136-Feat138-Feat139-Feat140-Feat141-Feat144-Feat146-Feat149-Feat152-Feat154-Feat156-Feat160-Feat161-Feat163-Feat164-Feat166-Feat167-Feat168-Feat169-Feat170-Feat172-Feat173-Feat178-Feat182-Feat184-Feat188-Feat189-Feat190-Feat192-Feat193-Feat196-Feat197-Feat198-Feat200-Feat202-Feat204-Feat205-Feat206-Feat208-Feat210-Feat211-Feat212-Feat215-Feat222-Feat223-Feat224-Feat225-Feat226-Feat227-Feat228-Feat230-Feat232-Feat234-Feat235-Feat237-Feat238-Feat241-Feat242-Feat243-Feat244-Feat247-Feat249-Feat253-Feat255-Feat256-Feat259-Feat261-Feat262-Feat263-Feat266-Feat268-Feat270-Feat271-Feat275-Feat276-Feat280-Feat281-Feat285-Feat287-Feat289-Feat291-Feat292-Feat293-Feat298-Feat299-Feat301-Feat302-Feat305-Feat307-Feat308-Feat314-Feat317-Feat319-Feat322-Feat323-Feat330-Feat332-Feat333-Feat334-Feat336-Feat339-Feat340-Feat341-Feat342-Feat343-Feat345-Feat346-Feat347-Feat349-Feat351-Feat356-Feat359-Feat361-Feat362-Feat363-Feat365-Feat367-Feat369-Feat373-Feat374-Feat376-Feat379-Feat380-Feat381-Feat382-Feat383-Feat384-Feat385-Feat387-Feat388-Feat389-Feat390-Feat391-Feat392-Feat396-Feat397-Feat398-Feat399-Feat400-Feat402-Feat405-Feat408-Feat410-Feat414-Feat417-Feat418-Feat419-Feat420-Feat423-Feat425-Feat426-Feat427-Feat428-Feat431-Feat432-Feat433-Feat434-Feat436-Feat439-Feat441-Feat443-Feat444-Feat445-Feat446-Feat448-Feat449-Feat452-Feat454-Feat455-Feat456-Feat457-Feat458-Feat461-Feat462-Feat463-Feat464-Feat465-Feat466-Feat468-Feat469-Feat470-Feat471-Feat472-Feat473-Feat474-Feat475-Feat482-Feat484-Feat487-Feat488-Feat493-Feat494-Feat498-Feat500-Feat501-Feat502-Feat504-Feat507-Feat509-Feat514-Feat519-Feat520-Feat521-Feat523-Feat524-Feat528-Feat529-Feat533-Feat536-Feat537-Feat538-Feat545-Feat550-Feat551-Feat553-Feat556-Feat557-Feat559-Feat562-Feat563-Feat564-Feat566-Feat569-Feat570-Feat573-Feat576-Feat577-Feat578-Feat579-Feat581-Feat586-Feat589-Feat590-Feat591-Feat594-Feat595-Feat596-Feat597-Feat598-Feat601-Feat603-Feat606-Feat607-Feat612-Feat613-Feat615-Feat618-Feat619-Feat621-Feat623-Feat624-Feat625-Feat626-Feat628-Feat630-Feat633-Feat636-Feat641-Feat643-Feat645-Feat647-Feat648-Feat649-Feat650-Feat653-Feat657-Feat659-Feat661-Feat662-Feat668-Feat669-Feat670-Feat671-Feat672-Feat673-Feat674-Feat678-Feat679-Feat686-Feat687-Feat688-Feat689-Feat691-Feat692-Feat693-Feat698-Feat701-Feat703-Feat704-Feat705-Feat706-Feat708-Feat709-Feat711-Feat712-Feat713-Feat717-Feat719-Feat720-Feat721-Feat724-Feat725-Feat726-Feat728-Feat729-Feat730-Feat731-Feat733-Feat735-Feat736-Feat738-Feat741-Feat742-Feat744-Feat745-Feat746-Feat747-Feat748-Feat749-Feat754-Feat755-Feat757-Feat759-Feat760-Feat763-Feat765-Feat766-Feat767-Feat768-Feat769-Feat770-Feat773-Feat774-Feat776-Feat781-Feat787-Feat788-Feat794-Feat797-Feat798-Feat800-Feat801-Feat807-Feat809-Feat810-Feat811-Feat814-Feat816-Feat821-Feat822-Feat826-Feat827-Feat829-Feat831-Feat833-Feat835-Feat836-Feat842-Feat844-Feat845-Feat848-Feat852-Feat855-Feat856-Feat861-Feat866-Feat869-Feat870-Feat871-Feat872-Feat873-Feat875-Feat878-Feat879-Feat880-Feat881-Feat884-Feat885-Feat889-Feat891-Feat892-Feat893-Feat895-Feat897-Feat898-Feat899-Feat901-Feat902-Feat904-Feat905-Feat906-Feat908-Feat909-Feat914-Feat917-Feat919-Feat920-Feat922-Feat923-Feat924-Feat926-Feat927-Feat928-Feat937-Feat939-Feat940-Feat944-Feat948-Feat950-Feat951-Feat952-Feat953-Feat954-Feat956-Feat957-Feat959-Feat961-Feat962-Feat963-Feat964-Feat965-Feat966-Feat968-Feat970-Feat975-Feat979-Feat986-Feat987-Feat988-Feat989-Feat993-Feat996-Feat997-Feat999-Feat1000-Feat1001-Feat1003-Feat1004-Feat1008-Feat1009-Feat1011-Feat1014-Feat1015-Feat1017-Feat1018-Feat1019-Feat1020-Feat1021-Feat1023-Feat1025-Feat1027-Feat1030-Feat1033-Feat1034-Feat1035-Feat1036-Feat1037-Feat1038-Feat1041-Feat1042-Feat1050-Feat1051-Feat1052-Feat1056-Feat1058-Feat1059-Feat1062-Feat1063-Feat1064-Feat1067-Feat1074-Feat1077-Feat1078-Feat1079-Feat1080-Feat1081-Feat1082-Feat1083-Feat1086-Feat1088-Feat1089-Feat1090-Feat1092-Feat1093-Feat1095-Feat1097-Feat1098-Feat1100-Feat1102-Feat1103-Feat1105-Feat1106-Feat1109-Feat1112-Feat1116-Feat1118-Feat1119-Feat1121-Feat1122-Feat1123-Feat1125-Feat1126-Feat1127-Feat1132-Feat1133-Feat1135-Feat1136-Feat1138-Feat1139-Feat1140-Feat1147-Feat1148-Feat1152-Feat1153-Feat1154-Feat1155-Feat1156-Feat1161-Feat1162-Feat1164-Feat1167-Feat1168-Feat1170-Feat1175-Feat1177-Feat1181-Feat1182-Feat1184-Feat1186-Feat1193-Feat1194-Feat1197-Feat1198-Feat1200-Feat1203-Feat1205-Feat1206-Feat1207-Feat1210-Feat1212-Feat1213-Feat1214-Feat1215-Feat1218-Feat1219-Feat1220-Feat1221-Feat1222-Feat1224-Feat1225-Feat1228-Feat1229-Feat1230-Feat1231-Feat1232-Feat1233-Feat1235-Feat1236-Feat1237-Feat1238-Feat1240-Feat1245-Feat1247-Feat1248-Feat1251-Feat1252-Feat1253-Feat1255-Feat1258-Feat1259-Feat1261-Feat1263-Feat1265-Feat1266-Feat1267-Feat1268-Feat1271-Feat1275-Feat1277-Feat1278-Feat1279-Feat1281-Feat1283-Feat1284-Feat1286-Feat1289-Feat1290-Feat1294-Feat1295-Feat1296-Feat1299-Feat1300-Feat1303-Feat1304-Feat1305-Feat1306-Feat1310-Feat1311-Feat1312-Feat1313-Feat1317-Feat1318-Feat1321-Feat1324-Feat1326-Feat1327-Feat1329-Feat1332-Feat1335-Feat1336-Feat1337-Feat1338-Feat1342-Feat1347-Feat1349-Feat1351-Feat1353-Feat1354-Feat1357-Feat1358-Feat1359-Feat1361-Feat1362-Feat1363-Feat1365-Feat1366-Feat1368-Feat1369-Feat1370-Feat1371-Feat1372-Feat1373-Feat1377-Feat1378-Feat1381-Feat1382-Feat1384-Feat1386-Feat1389-Feat1391-Feat1393-Feat1394-Feat1396-Feat1402-Feat1403-Feat1404-Feat1409-Feat1410-Feat1411-Feat1412-Feat1413-Feat1414-Feat1415-Feat1421-Feat1422-Feat1423-Feat1425-Feat1431-Feat1434-Feat1435-Feat1439-Feat1440-Feat1441-Feat1442-Feat1443-Feat1445-Feat1447-Feat1448-Feat1450-Feat1452-Feat1453-Feat1455-Feat1458-Feat1459-Feat1460-Feat1464-Feat1466-Feat1467-Feat1471-Feat1472-Feat1474-Feat1476-Feat1478-Feat1482-Feat1485-Feat1487-Feat1488-Feat1493-Feat1494-Feat1495-Feat1496-Feat1498-Feat1499-Feat1500-Feat1504-Feat1505-Feat1506-Feat1509-Feat1510-Feat1511-Feat1512-Feat1513-Feat1514-Feat1516-Feat1518-Feat1519-Feat1520-Feat1523-Feat1524-Feat1525-Feat1529-Feat1531-Feat1532-Feat1533-Feat1534-Feat1535-Feat1536-Feat1537-Feat1539-Feat1541-Feat1542-Feat1543-Feat1545-Feat1547-Feat1548-Feat1553-Feat1555-Feat1561-Feat1565-Feat1566-Feat1574-Feat1575-Feat1576-Feat1577-Feat1580-Feat1582-Feat1583-Feat1588-Feat1589-Feat1591-Feat1592-Feat1596-Feat1597-Feat1601-Feat1602-Feat1603-Feat1604-Feat1606-Feat1611-Feat1616-Feat1617-Feat1618-Feat1621-Feat1623-Feat1624-Feat1625-Feat1626-Feat1627-Feat1628-Feat1630-Feat1633-Feat1637-Feat1638-Feat1641-Feat1643-Feat1645-Feat1646-Feat1648-Feat1649-Feat1650-Feat1655-Feat1656-Feat1658-Feat1660-Feat1661-Feat1662-Feat1665-Feat1666-Feat1668-Feat1672-Feat1674-Feat1676-Feat1678-Feat1681-Feat1683-Feat1685-Feat1686-Feat1688-Feat1689-Feat1690-Feat1691-Feat1692-Feat1693-Feat1694-Feat1696-Feat1698-Feat1699-Feat1701-Feat1705-Feat1709-Feat1710-Feat1713-Feat1714-Feat1716-Feat1717-Feat1720-Feat1721-Feat1724-Feat1728-Feat1729-Feat1730-Feat1731-Feat1732-Feat1735-Feat1736-Feat1737-Feat1740-Feat1742-Feat1745-Feat1747-Feat1748-Feat1754-Feat1755-Feat1756-Feat1757-Feat1760-Feat1761-Feat1762-Feat1763-Feat1764-Feat1765-Feat1766-Feat1767-Feat1768-Feat1771-Feat1773-Feat1774-Feat1777-Feat1779-Feat1782-Feat1789-Feat1792-Feat1793-Feat1797-Feat1798-Feat1799-Feat1802-Feat1803-Feat1805-Feat1806-Feat1810-Feat1813-Feat1817-Feat1819-Feat1820-Feat1822-Feat1824-Feat1826-Feat1832-Feat1835-Feat1836-Feat1838-Feat1841-Feat1842-Feat1844-Feat1850-Feat1851-Feat1853-Feat1854-Feat1857-Feat1858-Feat1859-Feat1861-Feat1862-Feat1863-Feat1864-Feat1867-Feat1868-Feat1869-Feat1871-Feat1873-Feat1874-Feat1877-Feat1878-Feat1879-Feat1880-Feat1881-Feat1883-Feat1884-Feat1885-Feat1886-Feat1887-Feat1889-Feat1890-Feat1891-Feat1892-Feat1895-Feat1896-Feat1898-Feat1900-Feat1901-Feat1902-Feat1905-Feat1906-Feat1907-Feat1909-Feat1910-Feat1911-Feat1914-Feat1918-Feat1919-Feat1920-Feat1923-Feat1927-Feat1932-Feat1933-Feat1936-Feat1937-Feat1938-Feat1939-Feat1940-Feat1942-Feat1947-Feat1949-Feat1951-Feat1952-Feat1954-Feat1957-Feat1959-Feat1960-Feat1962-Feat1965-Feat1966-Feat1967-Feat1969-Feat1970-Feat1972-Feat1977-Feat1978-Feat1980-Feat1981-Feat1982-Feat1983-Feat1987-Feat1990-Feat1993-Feat1994-Feat1997-Feat1998-Feat1999-Feat2001-Feat2003-Feat2005-Feat2006-Feat2008-Feat2009-Feat2011-Feat2014-Feat2015-Feat2017-Feat2018-Feat2019-Feat2020-Feat2021-Feat2023-Feat2024-Feat2025-Feat2027-Feat2030-Feat2031-Feat2032-Feat2033-Feat2034-Feat2036-Feat2044-Feat2045-Feat2046-Feat2047-Feat2048-Feat2051-Feat2053-Feat2059-Feat2060-Feat2061-Feat2062-Feat2063-Feat2064-Feat2065-Feat2067-Feat2068-Feat2070-Feat2071-Feat2072-Feat2074-Feat2075-Feat2076-Feat2077-Feat2079-Feat2081-Feat2083-Feat2084-Feat2088-Feat2089-Feat2090-Feat2091-Feat2095-Feat2096-Feat2097-Feat2098-Feat2103-Feat2104-Feat2106-Feat2107-Feat2108-Feat2110-Feat2116-Feat2117-Feat2121-Feat2122-Feat2124-Feat2126-Feat2127-Feat2128-Feat2133-Feat2135-Feat2136-Feat2139-Feat2140-Feat2143-Feat2146-Feat2148-Feat2151-Feat2152-Feat2154-Feat2156-Feat2158-Feat2159-Feat2160-Feat2161-Feat2163-Feat2166-Feat2168-Feat2172-Feat2173-Feat2175-Feat2177-Feat2178-Feat2186-Feat2187-Feat2189-Feat2190-Feat2191-Feat2193-Feat2196-Feat2199-Feat2200-Feat2202-Feat2203-Feat2204-Feat2205-Feat2206-Feat2208-Feat2209-Feat2210-Feat2212-Feat2213-Feat2216-Feat2217-Feat2219-Feat2220-Feat2222-Feat2223-Feat2226-Feat2230-Feat2232-Feat2233-Feat2234-Feat2236-Feat2238-Feat2239-Feat2242-Feat2244-Feat2245-Feat2246-Feat2250-Feat2252-Feat2255-Feat2256-Feat2257-Feat2258-Feat2260-Feat2261-Feat2265-Feat2267-Feat2271-Feat2273-Feat2275-Feat2276-Feat2278-Feat2279-Feat2280-Feat2281-Feat2282-Feat2283-Feat2284-Feat2285-Feat2287-Feat2288-Feat2289-Feat2290-Feat2292-Feat2293-Feat2297-Feat2300-Feat2301-Feat2303-Feat2305-Feat2306-Feat2307-Feat2309-Feat2312-Feat2313-Feat2315-Feat2317-Feat2318-Feat2319-Feat2320-Feat2323-Feat2324-Feat2325-Feat2326-Feat2329-Feat2330-Feat2333-Feat2334-Feat2338-Feat2339-Feat2341-Feat2344-Feat2345-Feat2347-Feat2348-Feat2349-Feat2350-Feat2351-Feat2353-Feat2355-Feat2356-Feat2359-Feat2360-Feat2362-Feat2363-Feat2364-Feat2374-Feat2375-Feat2376-Feat2378-Feat2379-Feat2380-Feat2381-Feat2384-Feat2385-Feat2386-Feat2390-Feat2393-Feat2394-Feat2395-Feat2405-Feat2407-Feat2408-Feat2409-Feat2410-Feat2413-Feat2421-Feat2423-Feat2425-Feat2428-Feat2429-Feat2431-Feat2433-Feat2435-Feat2440-Feat2441-Feat2442-Feat2443-Feat2444-Feat2448-Feat2451-Feat2453-Feat2454-Feat2456-Feat2458-Feat2459-Feat2461-Feat2465-Feat2466-Feat2467-Feat2473-Feat2479-Feat2480-Feat2481-Feat2486-Feat2488-Feat2489-Feat2491-Feat2492-Feat2496-Feat2499-Feat2502-Feat2503-Feat2505-Feat2506-Feat2507-Feat2509-Feat2510-Feat2512-Feat2513-Feat2514-Feat2516-Feat2517-Feat2518-Feat2520-Feat2521-Feat2522-Feat2523-Feat2528-Feat2533-Feat2534-Feat2536-Feat2537-Feat2538-Feat2539-Feat2540-Feat2541-Feat2542-Feat2544-Feat2547-Feat2551-Feat2552-Feat2554-Feat2561-Feat2562-Feat2563-Feat2564-Feat2566-Feat2569-Feat2572-Feat2573-Feat2576-Feat2577-Feat2578-Feat2579-Feat2582-Feat2583-Feat2585-Feat2587-Feat2589-Feat2591-Feat2592-Feat2594-Feat2596-Feat2599-Feat2601-Feat2602-Feat2603-Feat2608-Feat2609-Feat2613-Feat2614-Feat2615-Feat2620-Feat2623-Feat2625-Feat2628-Feat2629-Feat2631-Feat2633-Feat2635-Feat2640-Feat2641-Feat2645-Feat2646-Feat2647-Feat2648-Feat2649-Feat2650-Feat2653-Feat2659-Feat2662-Feat2663-Feat2664-Feat2667-Feat2671-Feat2673-Feat2675-Feat2679-Feat2681-Feat2682-Feat2685-Feat2689-Feat2690-Feat2692-Feat2694-Feat2696-Feat2699-Feat2700-Feat2701-Feat2703-Feat2704-Feat2705-Feat2706-Feat2708-Feat2709-Feat2711-Feat2712-Feat2713-Feat2718-Feat2720-Feat2721-Feat2722-Feat2723-Feat2724-Feat2725-Feat2726-Feat2731-Feat2733-Feat2735-Feat2736-Feat2737-Feat2739-Feat2740-Feat2741-Feat2742-Feat2743-Feat2744-Feat2745-Feat2748-Feat2749-Feat2750-Feat2752-Feat2754-Feat2755-Feat2756-Feat2760-Feat2763-Feat2764-Feat2765-Feat2768-Feat2770-Feat2773-Feat2776-Feat2781-Feat2786-Feat2787-Feat2788-Feat2789-Feat2791-Feat2792-Feat2793-Feat2795-Feat2804-Feat2805-Feat2807-Feat2811-Feat2814-Feat2816-Feat2819-Feat2821-Feat2823-Feat2824-Feat2828-Feat2829-Feat2830-Feat2837-Feat2842-Feat2846-Feat2847-Feat2854-Feat2855-Feat2856-Feat2857-Feat2860-Feat2861-Feat2865-Feat2867-Feat2869-Feat2873-Feat2874-Feat2876-Feat2879-Feat2880-Feat2883-Feat2884-Feat2886-Feat2887-Feat2888-Feat2889-Feat2890-Feat2892-Feat2896-Feat2898-Feat2901-Feat2902-Feat2905-Feat2906-Feat2909-Feat2912-Feat2915-Feat2916-Feat2920-Feat2922-Feat2924-Feat2925-Feat2927-Feat2928-Feat2930-Feat2931-Feat2932-Feat2933-Feat2934-Feat2935-Feat2937-Feat2939-Feat2940-Feat2942-Feat2945-Feat2947-Feat2948-Feat2950-Feat2951-Feat2953-Feat2954-Feat2955-Feat2959-Feat2962-Feat2966-Feat2967-Feat2968-Feat2969-Feat2970-Feat2971-Feat2972-Feat2973-Feat2974-Feat2975-Feat2976-Feat2977-Feat2979-Feat2980-Feat2981-Feat2982-Feat2984-Feat2985-Feat2986-Feat2987-Feat2988-Feat2989-Feat2990-Feat2992-Feat2995-Feat2997-Feat3002-Feat3004-Feat3005-Feat3008-Feat3009-Feat3012-Feat3013-Feat3014-Feat3018-Feat3019-Feat3020-Feat3021-Feat3022-Feat3024-Feat3026-Feat3029-Feat3032-Feat3033-Feat3038-Feat3039-Feat3041-Feat3044-Feat3045-Feat3046-Feat3047-Feat3048-Feat3051-Feat3053-Feat3054-Feat3056-Feat3057-Feat3058-Feat3059-Feat3062-Feat3063-Feat3067-Feat3068-Feat3070-Feat3071-Feat3072-Feat3073-Feat3076-Feat3078-Feat3079-Feat3086-Feat3088-Feat3093-Feat3097-Feat3100-Feat3102-Feat3103-Feat3104-Feat3105-Feat3106-Feat3109-Feat3112-Feat3113-Feat3114-Feat3116-Feat3118-Feat3121-Feat3123-Feat3125-Feat3126-Feat3128-Feat3133-Feat3136-Feat3138-Feat3142-Feat3144-Feat3148-Feat3151-Feat3152-Feat3153-Feat3154-Feat3155-Feat3156-Feat3157-Feat3159-Feat3160-Feat3161-Feat3162-Feat3163-Feat3164-Feat3166-Feat3170-Feat3171-Feat3175-Feat3179-Feat3182-Feat3184-Feat3186-Feat3187-Feat3188-Feat3189-Feat3192-Feat3194-Feat3198-Feat3199-Feat3201-Feat3203-Feat3205-Feat3207-Feat3208-Feat3210-Feat3213-Feat3214-Feat3216-Feat3219-Feat3220-Feat3221-Feat3222-Feat3223-Feat3224-Feat3225-Feat3228-Feat3229-Feat3230-Feat3234-Feat3239-Feat3240-Feat3241-Feat3242-Feat3245-Feat3246-Feat3247-Feat3252-Feat3255-Feat3256-Feat3258-Feat3260-Feat3266-Feat3267-Feat3268-Feat3270-Feat3274-Feat3275-Feat3276-Feat3279-Feat3281-Feat3282-Feat3284-Feat3287-Feat3288-Feat3289-Feat3290-Feat3292-Feat3293-Feat3294-Feat3296-Feat3297-Feat3303-Feat3304-Feat3305-Feat3306-Feat3307-Feat3308-Feat3310-Feat3311-Feat3312-Feat3313-Feat3316-Feat3322-Feat3323-Feat3324-Feat3325-Feat3330-Feat3334-Feat3340-Feat3342-Feat3344-Feat3345-Feat3347-Feat3348-Feat3351-Feat3353-Feat3354-Feat3359-Feat3360-Feat3361-Feat3366-Feat3367-Feat3370-Feat3373-Feat3374-Feat3375-Feat3377-Feat3379-Feat3383-Feat3388-Feat3392-Feat3393-Feat3394-Feat3398-Feat3399-Feat3401-Feat3403-Feat3406-Feat3407-Feat3409-Feat3417-Feat3420-Feat3421-Feat3422-Feat3423-Feat3426-Feat3429-Feat3430-Feat3431-Feat3432-Feat3433-Feat3434-Feat3435-Feat3442-Feat3443-Feat3446-Feat3447-Feat3449-Feat3450-Feat3454-Feat3455-Feat3458-Feat3459-Feat3460-Feat3461-Feat3462-Feat3463-Feat3467-Feat3468-Feat3470-Feat3472-Feat3474-Feat3476-Feat3477-Feat3479-Feat3481-Feat3483-Feat3486-Feat3487-Feat3488-Feat3489-Feat3496-Feat3498-Feat3501-Feat3503-Feat3504-Feat3506-Feat3507-Feat3509-Feat3512-Feat3513-Feat3515-Feat3516-Feat3520-Feat3522-Feat3524-Feat3529-Feat3530-Feat3531-Feat3532-Feat3533-Feat3535-Feat3536-Feat3540-Feat3541-Feat3545-Feat3546-Feat3549-Feat3550-Feat3557-Feat3558-Feat3559-Feat3560-Feat3561-Feat3564-Feat3565-Feat3571-Feat3574-Feat3577-Feat3578-Feat3583-Feat3584-Feat3587-Feat3588-Feat3589-Feat3591-Feat3593-Feat3594-Feat3597-Feat3598-Feat3599-Feat3602-Feat3605-Feat3611-Feat3616-Feat3618-Feat3619-Feat3620-Feat3623-Feat3624-Feat3625-Feat3626-Feat3627-Feat3629-Feat3630-Feat3631-Feat3633-Feat3634-Feat3640-Feat3641-Feat3646-Feat3648-Feat3649-Feat3654-Feat3655-Feat3658-Feat3661-Feat3662-Feat3663-Feat3664-Feat3669-Feat3671-Feat3674-Feat3675-Feat3676-Feat3677-Feat3678-Feat3681-Feat3683-Feat3685-Feat3686-Feat3688-Feat3690-Feat3693-Feat3694-Feat3696-Feat3697-Feat3698-Feat3709-Feat3710-Feat3711-Feat3716-Feat3718-Feat3719-Feat3720-Feat3722-Feat3725-Feat3727-Feat3728-Feat3729-Feat3730-Feat3732-Feat3734-Feat3736-Feat3738-Feat3743-Feat3748-Feat3750-Feat3756-Feat3757-Feat3766-Feat3767-Feat3769-Feat3770-Feat3771-Feat3772-Feat3775-Feat3776-Feat3777-Feat3780-Feat3782-Feat3783-Feat3784-Feat3785-Feat3787-Feat3789-Feat3793-Feat3794-Feat3795-Feat3796-Feat3797-Feat3798-Feat3801-Feat3805-Feat3809-Feat3811-Feat3813-Feat3815-Feat3820-Feat3821-Feat3823-Feat3824-Feat3826-Feat3829-Feat3830-Feat3832-Feat3833-Feat3834-Feat3835-Feat3836-Feat3837-Feat3840-Feat3841-Feat3845-Feat3846-Feat3850-Feat3851-Feat3853-Feat3854-Feat3855-Feat3856-Feat3857-Feat3863-Feat3864-Feat3866-Feat3868-Feat3869-Feat3873-Feat3880-Feat3884-Feat3885-Feat3887-Feat3889-Feat3890-Feat3899-Feat3901-Feat3902-Feat3904-Feat3905-Feat3907-Feat3909-Feat3911-Feat3912-Feat3913-Feat3914-Feat3915-Feat3917-Feat3920-Feat3926-Feat3931-Feat3932-Feat3936-Feat3943-Feat3945-Feat3946-Feat3949-Feat3950-Feat3952-Feat3953-Feat3954-Feat3955-Feat3956-Feat3957-Feat3958-Feat3964-Feat3968-Feat3969-Feat3970-Feat3971-Feat3973-Feat3975-Feat3977-Feat3978-Feat3979-Feat3981-Feat3982-Feat3983-Feat3985-Feat3990-Feat3991-Feat3994-Feat3995-Feat3996-Feat3997-Feat3998-Feat3999-Feat4000-Feat4001-Feat4002-Feat4005-Feat4006-Feat4009-Feat4013-Feat4014-Feat4015-Feat4021-Feat4023-Feat4027-Feat4031-Feat4034-Feat4038-Feat4040-Feat4042-Feat4043-Feat4046-Feat4047-Feat4049-Feat4053-Feat4054-Feat4055-Feat4056-Feat4058-Feat4059-Feat4062-Feat4063-Feat4065-Feat4067-Feat4069-Feat4070-Feat4071-Feat4073-Feat4076-Feat4077-Feat4079-Feat4082-Feat4083-Feat4085-Feat4086-Feat4087-Feat4090-Feat4097-Feat4098-Feat4103-Feat4104-Feat4109-Feat4110-Feat4111-Feat4112-Feat4113-Feat4115-Feat4116-Feat4118-Feat4120-Feat4122-Feat4123-Feat4124-Feat4125-Feat4126-Feat4128-Feat4130-Feat4133-Feat4134-Feat4135-Feat4136-Feat4137-Feat4138-Feat4139-Feat4141-Feat4142-Feat4144-Feat4145-Feat4146-Feat4149-Feat4154-Feat4156-Feat4161-Feat4163-Feat4164-Feat4167-Feat4170-Feat4171-Feat4174-Feat4176-Feat4180-Feat4184-Feat4187-Feat4188-Feat4189-Feat4190-Feat4194-Feat4204-Feat4206-Feat4211-Feat4212-Feat4218-Feat4219-Feat4221-Feat4223-Feat4224-Feat4226-Feat4229-Feat4230-Feat4232-Feat4233-Feat4236-Feat4237-Feat4240-Feat4242-Feat4247-Feat4248-Feat4249-Feat4251-Feat4255-Feat4256-Feat4258-Feat4263-Feat4264-Feat4266-Feat4275-Feat4278-Feat4282-Feat4283-Feat4284-Feat4285-Feat4286-Feat4287-Feat4288-Feat4290-Feat4291-Feat4293-Feat4298-Feat4299-Feat4300-Feat4301-Feat4305-Feat4306-Feat4308-Feat4310-Feat4311-Feat4312-Feat4315-Feat4316-Feat4317-Feat4318-Feat4323-Feat4328-Feat4330-Feat4332-Feat4333-Feat4343-Feat4348-Feat4352-Feat4354-Feat4355-Feat4361-Feat4363-Feat4372-Feat4375-Feat4377-Feat4379-Feat4380-Feat4383-Feat4385-Feat4387-Feat4388-Feat4389-Feat4391-Feat4393-Feat4394-Feat4396-Feat4400-Feat4401-Feat4402-Feat4403-Feat4404-Feat4405-Feat4408-Feat4409-Feat4413-Feat4414-Feat4415-Feat4416-Feat4418-Feat4421-Feat4425-Feat4426-Feat4427-Feat4428-Feat4429-Feat4430-Feat4432-Feat4434-Feat4437-Feat4440-Feat4441-Feat4443-Feat4445-Feat4448-Feat4451-Feat4452-Feat4454-Feat4455-Feat4456-Feat4457-Feat4458-Feat4460-Feat4461-Feat4463-Feat4465-Feat4467-Feat4468-Feat4469-Feat4471-Feat4475-Feat4479-Feat4483-Feat4484-Feat4486-Feat4489-Feat4491-Feat4493-Feat4494-Feat4497-Feat4498-Feat4500-Feat4501-Feat4504-Feat4506-Feat4507-Feat4508-Feat4510-Feat4514-Feat4518-Feat4519-Feat4522-Feat4523-Feat4526-Feat4528-Feat4529-Feat4531-Feat4533-Feat4534-Feat4535-Feat4536-Feat4537-Feat4538-Feat4539-Feat4541-Feat4544-Feat4545-Feat4546-Feat4552-Feat4555-Feat4562-Feat4565-Feat4568-Feat4569-Feat4570-Feat4572-Feat4575-Feat4576-Feat4577-Feat4578-Feat4579-Feat4580-Feat4581-Feat4583-Feat4585-Feat4590-Feat4593-Feat4594-Feat4597-Feat4599-Feat4601-Feat4602-Feat4603-Feat4604-Feat4605-Feat4610-Feat4612-Feat4614-Feat4618-Feat4619-Feat4621-Feat4622-Feat4623-Feat4628-Feat4630-Feat4633-Feat4635-Feat4638-Feat4640-Feat4641-Feat4643-Feat4644-Feat4645-Feat4646-Feat4647-Feat4651-Feat4653-Feat4654-Feat4655-Feat4657-Feat4659-Feat4662-Feat4665-Feat4667-Feat4668-Feat4670-Feat4674-Feat4675-Feat4676-Feat4678-Feat4680-Feat4681-Feat4682-Feat4685-Feat4687-Feat4688-Feat4692-Feat4693-Feat4694-Feat4695-Feat4698-Feat4702-Feat4706-Feat4709-Feat4714-Feat4717-Feat4720-Feat4721-Feat4726-Feat4727-Feat4733-Feat4735-Feat4739-Feat4740-Feat4742-Feat4744-Feat4745-Feat4746-Feat4747-Feat4749-Feat4750-Feat4752-Feat4753-Feat4756-Feat4757-Feat4759-Feat4761-Feat4762-Feat4763-Feat4765-Feat4767-Feat4768-Feat4769-Feat4771-Feat4775-Feat4777-Feat4781-Feat4782-Feat4783-Feat4785-Feat4791-Feat4792-Feat4793-Feat4794-Feat4795-Feat4799-Feat4800-Feat4802-Feat4803-Feat4806-Feat4814-Feat4815-Feat4817-Feat4819-Feat4823-Feat4826-Feat4827-Feat4828-Feat4829-Feat4832-Feat4833-Feat4834-Feat4835-Feat4836-Feat4837-Feat4838-Feat4839-Feat4840-Feat4845-Feat4848-Feat4849-Feat4851-Feat4854-Feat4858-Feat4859-Feat4861-Feat4863-Feat4865-Feat4866-Feat4867-Feat4869-Feat4870-Feat4871-Feat4873-Feat4875-Feat4876-Feat4877-Feat4878-Feat4879-Feat4880-Feat4881-Feat4886-Feat4888-Feat4891-Feat4892-Feat4894-Feat4895-Feat4896-Feat4897-Feat4898-Feat4899-Feat4900-Feat4902-Feat4903-Feat4904-Feat4907-Feat4909-Feat4912-Feat4915-Feat4917-Feat4921-Feat4922-Feat4923-Feat4926-Feat4928-Feat4931-Feat4934-Feat4937-Feat4939-Feat4940-Feat4942-Feat4944-Feat4945-Feat4948-Feat4950-Feat4951-Feat4955-Feat4956-Feat4957-Feat4959-Feat4960-Feat4962-Feat4966-Feat4967-Feat4968-Feat4969-Feat4970-Feat4971-Feat4972-Feat4974-Feat4975-Feat4980-Feat4981-Feat4985-Feat4988-Feat4989-Feat4991-Feat4992-Feat4995-Feat5001-Feat5003-Feat5005-Feat5007-Feat5008-Feat5010-Feat5012-Feat5016-Feat5017-Feat5019-Feat5021-Feat5024-Feat5025-Feat5033-Feat5037-Feat5039-Feat5040-Feat5042-Feat5044-Feat5045-Feat5048-Feat5049-Feat5051-Feat5056-Feat5058-Feat5061-Feat5064-Feat5067-Feat5068-Feat5069-Feat5070-Feat5071-Feat5072-Feat5073-Feat5075-Feat5076-Feat5077-Feat5078-Feat5079-Feat5080-Feat5082-Feat5083-Feat5084-Feat5088-Feat5089-Feat5090-Feat5091-Feat5093-Feat5099-Feat5102-Feat5104-Feat5106-Feat5107-Feat5108-Feat5111-Feat5114-Feat5116-Feat5117-Feat5118-Feat5120-Feat5121-Feat5123-Feat5124-Feat5125-Feat5132-Feat5135-Feat5137-Feat5139-Feat5142-Feat5147-Feat5150-Feat5151-Feat5153-Feat5154-Feat5155-Feat5158-Feat5159-Feat5160-Feat5161-Feat5164-Feat5165-Feat5166-Feat5167-Feat5168-Feat5172-Feat5175-Feat5176-Feat5180-Feat5181-Feat5182-Feat5183-Feat5186-Feat5187-Feat5188-Feat5189-Feat5190-Feat5191-Feat5192-Feat5194-Feat5199-Feat5200-Feat5203-Feat5205-Feat5206-Feat5208-Feat5210-Feat5214-Feat5216-Feat5219-Feat5221-Feat5222-Feat5223-Feat5225-Feat5226-Feat5229-Feat5230-Feat5231-Feat5234-Feat5235-Feat5236-Feat5237-Feat5239-Feat5240-Feat5241-Feat5242-Feat5243-Feat5244-Feat5245-Feat5247-Feat5248-Feat5252-Feat5254-Feat5255-Feat5257-Feat5265-Feat5267-Feat5268-Feat5271-Feat5278-Feat5283-Feat5286-Feat5290-Feat5291-Feat5294-Feat5298-Feat5299-Feat5301-Feat5302-Feat5303-Feat5305-Feat5307-Feat5308-Feat5311-Feat5313-Feat5314-Feat5315-Feat5316-Feat5317-Feat5318-Feat5320-Feat5321-Feat5324-Feat5326-Feat5328-Feat5329-Feat5330-Feat5334-Feat5336-Feat5340-Feat5341-Feat5344-Feat5346-Feat5347-Feat5352-Feat5356-Feat5358-Feat5364-Feat5365-Feat5369-Feat5370-Feat5372-Feat5374-Feat5375-Feat5376-Feat5383-Feat5387-Feat5389-Feat5390-Feat5392-Feat5394-Feat5395-Feat5397-Feat5398-Feat5401-Feat5403-Feat5404-Feat5405-Feat5406-Feat5407-Feat5411-Feat5412-Feat5414-Feat5415-Feat5417-Feat5418-Feat5420-Feat5422-Feat5423-Feat5424-Feat5426-Feat5427-Feat5429-Feat5430-Feat5433-Feat5436-Feat5438-Feat5439-Feat5441-Feat5444-Feat5447-Feat5448-Feat5449-Feat5451-Feat5452-Feat5453-Feat5458-Feat5463-Feat5464-Feat5466-Feat5467-Feat5471-Feat5472-Feat5473-Feat5474-Feat5475-Feat5477-Feat5478-Feat5480-Feat5481-Feat5482-Feat5484-Feat5486-Feat5487-Feat5488-Feat5491-Feat5493-Feat5494-Feat5495-Feat5496-Feat5497-Feat5499-Feat5501-Feat5505-Feat5510-Feat5511-Feat5514-Feat5515-Feat5517-Feat5518-Feat5521-Feat5522-Feat5524-Feat5530-Feat5531-Feat5533-Feat5537-Feat5538-Feat5539-Feat5541-Feat5543-Feat5544-Feat5545-Feat5546-Feat5547-Feat5548-Feat5551-Feat5552-Feat5554-Feat5556-Feat5557-Feat5559-Feat5560-Feat5561-Feat5563</t>
+  </si>
+  <si>
+    <t>Feat54-Feat2434-Feat2664-Feat2684-Feat2717-Feat2756-Feat4348-Feat4517-Feat4553-Feat5285</t>
+  </si>
+  <si>
+    <t>Feat54-Feat473-Feat2664-Feat2665-Feat2756</t>
+  </si>
+  <si>
+    <t>Feat2647-Feat2963-Feat4662-Feat4664-Feat5332</t>
+  </si>
+  <si>
+    <t>Feat11-Feat976-Feat2466-Feat2602</t>
+  </si>
+  <si>
+    <t>Feat0-Feat1-Feat2-Feat3-Feat4-Feat5-Feat10-Feat11-Feat14-Feat17-Feat19-Feat20-Feat22-Feat25-Feat28-Feat29-Feat32-Feat34-Feat35-Feat37-Feat38-Feat39-Feat42-Feat46-Feat47-Feat49-Feat51-Feat52-Feat53-Feat54-Feat57-Feat60-Feat61-Feat62-Feat63-Feat65-Feat67-Feat68-Feat69-Feat70-Feat72-Feat73-Feat75-Feat80-Feat81-Feat82-Feat83-Feat84-Feat85-Feat88-Feat97-Feat98-Feat99-Feat102-Feat103-Feat104-Feat107-Feat110-Feat112-Feat118-Feat119-Feat121-Feat122-Feat124-Feat125-Feat126-Feat127-Feat129-Feat130-Feat131-Feat134-Feat135-Feat137-Feat140-Feat141-Feat145-Feat150-Feat151-Feat153-Feat154-Feat155-Feat156-Feat158-Feat159-Feat162-Feat163-Feat165-Feat167-Feat168-Feat171-Feat173-Feat175-Feat176-Feat177-Feat181-Feat183-Feat185-Feat187-Feat189-Feat192-Feat193-Feat194-Feat197-Feat199-Feat200-Feat201-Feat202-Feat203-Feat204-Feat205-Feat206-Feat208-Feat209-Feat211-Feat213-Feat215-Feat220-Feat222-Feat223-Feat226-Feat230-Feat231-Feat232-Feat236-Feat237-Feat238-Feat240-Feat241-Feat242-Feat250-Feat251-Feat252-Feat254-Feat259-Feat260-Feat261-Feat262-Feat263-Feat264-Feat268-Feat269-Feat272-Feat276-Feat280-Feat282-Feat283-Feat285-Feat288-Feat295-Feat298-Feat301-Feat305-Feat306-Feat307-Feat308-Feat309-Feat311-Feat317-Feat318-Feat321-Feat322-Feat324-Feat330-Feat331-Feat335-Feat336-Feat338-Feat341-Feat342-Feat345-Feat346-Feat348-Feat349-Feat350-Feat351-Feat352-Feat353-Feat354-Feat357-Feat360-Feat361-Feat363-Feat364-Feat366-Feat370-Feat373-Feat374-Feat377-Feat379-Feat380-Feat384-Feat385-Feat386-Feat387-Feat388-Feat390-Feat391-Feat392-Feat394-Feat395-Feat398-Feat399-Feat400-Feat401-Feat404-Feat405-Feat407-Feat408-Feat415-Feat416-Feat417-Feat418-Feat421-Feat422-Feat424-Feat428-Feat429-Feat430-Feat433-Feat434-Feat438-Feat441-Feat442-Feat443-Feat445-Feat446-Feat447-Feat448-Feat451-Feat452-Feat453-Feat455-Feat458-Feat461-Feat462-Feat463-Feat464-Feat465-Feat467-Feat468-Feat470-Feat472-Feat476-Feat485-Feat486-Feat490-Feat491-Feat492-Feat493-Feat501-Feat505-Feat512-Feat513-Feat516-Feat518-Feat519-Feat520-Feat521-Feat522-Feat523-Feat524-Feat527-Feat529-Feat530-Feat532-Feat534-Feat537-Feat542-Feat543-Feat545-Feat547-Feat550-Feat551-Feat553-Feat555-Feat558-Feat566-Feat567-Feat574-Feat577-Feat578-Feat580-Feat581-Feat584-Feat588-Feat589-Feat590-Feat591-Feat592-Feat593-Feat596-Feat602-Feat603-Feat607-Feat610-Feat611-Feat612-Feat617-Feat618-Feat620-Feat621-Feat622-Feat623-Feat625-Feat626-Feat627-Feat628-Feat629-Feat631-Feat633-Feat636-Feat637-Feat638-Feat639-Feat640-Feat643-Feat647-Feat648-Feat652-Feat653-Feat655-Feat656-Feat657-Feat659-Feat661-Feat664-Feat668-Feat669-Feat671-Feat673-Feat675-Feat677-Feat679-Feat680-Feat681-Feat684-Feat687-Feat689-Feat691-Feat693-Feat695-Feat698-Feat701-Feat702-Feat704-Feat705-Feat707-Feat708-Feat711-Feat712-Feat717-Feat718-Feat719-Feat720-Feat722-Feat723-Feat724-Feat725-Feat728-Feat729-Feat735-Feat736-Feat742-Feat743-Feat746-Feat749-Feat751-Feat753-Feat755-Feat757-Feat765-Feat768-Feat769-Feat770-Feat771-Feat772-Feat775-Feat776-Feat780-Feat782-Feat783-Feat784-Feat785-Feat787-Feat792-Feat793-Feat794-Feat796-Feat798-Feat804-Feat807-Feat810-Feat811-Feat813-Feat814-Feat821-Feat823-Feat824-Feat826-Feat827-Feat829-Feat830-Feat832-Feat834-Feat835-Feat837-Feat839-Feat840-Feat842-Feat843-Feat845-Feat846-Feat847-Feat848-Feat849-Feat850-Feat853-Feat857-Feat859-Feat860-Feat862-Feat863-Feat864-Feat867-Feat868-Feat873-Feat876-Feat877-Feat878-Feat880-Feat884-Feat885-Feat887-Feat888-Feat889-Feat893-Feat896-Feat898-Feat899-Feat900-Feat902-Feat906-Feat908-Feat909-Feat910-Feat913-Feat914-Feat915-Feat917-Feat920-Feat921-Feat922-Feat923-Feat925-Feat926-Feat928-Feat931-Feat932-Feat935-Feat937-Feat940-Feat941-Feat942-Feat943-Feat946-Feat949-Feat951-Feat952-Feat958-Feat959-Feat965-Feat967-Feat968-Feat972-Feat975-Feat977-Feat978-Feat979-Feat981-Feat984-Feat985-Feat987-Feat989-Feat995-Feat999-Feat1001-Feat1004-Feat1005-Feat1007-Feat1012-Feat1013-Feat1014-Feat1015-Feat1016-Feat1017-Feat1018-Feat1019-Feat1023-Feat1027-Feat1028-Feat1029-Feat1031-Feat1032-Feat1033-Feat1036-Feat1037-Feat1041-Feat1043-Feat1044-Feat1050-Feat1054-Feat1059-Feat1060-Feat1061-Feat1062-Feat1065-Feat1066-Feat1067-Feat1069-Feat1072-Feat1073-Feat1074-Feat1076-Feat1077-Feat1078-Feat1079-Feat1081-Feat1082-Feat1083-Feat1084-Feat1085-Feat1086-Feat1087-Feat1089-Feat1091-Feat1092-Feat1101-Feat1103-Feat1104-Feat1107-Feat1109-Feat1110-Feat1112-Feat1115-Feat1119-Feat1120-Feat1129-Feat1130-Feat1131-Feat1132-Feat1134-Feat1139-Feat1140-Feat1141-Feat1144-Feat1145-Feat1147-Feat1148-Feat1150-Feat1152-Feat1155-Feat1157-Feat1158-Feat1162-Feat1166-Feat1167-Feat1169-Feat1172-Feat1175-Feat1176-Feat1177-Feat1180-Feat1181-Feat1183-Feat1187-Feat1191-Feat1192-Feat1196-Feat1197-Feat1199-Feat1203-Feat1204-Feat1206-Feat1207-Feat1209-Feat1210-Feat1212-Feat1213-Feat1214-Feat1215-Feat1217-Feat1218-Feat1219-Feat1220-Feat1222-Feat1223-Feat1225-Feat1226-Feat1234-Feat1235-Feat1236-Feat1239-Feat1241-Feat1242-Feat1244-Feat1245-Feat1247-Feat1248-Feat1251-Feat1252-Feat1253-Feat1254-Feat1255-Feat1260-Feat1261-Feat1262-Feat1263-Feat1265-Feat1268-Feat1270-Feat1272-Feat1273-Feat1274-Feat1275-Feat1276-Feat1277-Feat1280-Feat1281-Feat1282-Feat1283-Feat1288-Feat1290-Feat1293-Feat1294-Feat1295-Feat1296-Feat1301-Feat1305-Feat1307-Feat1308-Feat1310-Feat1311-Feat1316-Feat1317-Feat1318-Feat1320-Feat1321-Feat1323-Feat1325-Feat1326-Feat1327-Feat1330-Feat1331-Feat1332-Feat1333-Feat1334-Feat1336-Feat1339-Feat1340-Feat1341-Feat1344-Feat1345-Feat1347-Feat1349-Feat1350-Feat1352-Feat1353-Feat1354-Feat1355-Feat1356-Feat1361-Feat1362-Feat1363-Feat1367-Feat1370-Feat1373-Feat1374-Feat1375-Feat1376-Feat1378-Feat1379-Feat1382-Feat1383-Feat1384-Feat1385-Feat1386-Feat1388-Feat1389-Feat1390-Feat1392-Feat1393-Feat1394-Feat1398-Feat1399-Feat1400-Feat1401-Feat1402-Feat1404-Feat1407-Feat1408-Feat1409-Feat1410-Feat1411-Feat1412-Feat1413-Feat1414-Feat1415-Feat1419-Feat1421-Feat1422-Feat1425-Feat1432-Feat1434-Feat1435-Feat1436-Feat1437-Feat1443-Feat1445-Feat1446-Feat1449-Feat1450-Feat1452-Feat1453-Feat1454-Feat1457-Feat1458-Feat1459-Feat1461-Feat1465-Feat1470-Feat1471-Feat1472-Feat1473-Feat1482-Feat1483-Feat1485-Feat1487-Feat1489-Feat1492-Feat1493-Feat1494-Feat1495-Feat1500-Feat1501-Feat1502-Feat1504-Feat1506-Feat1507-Feat1511-Feat1512-Feat1513-Feat1518-Feat1520-Feat1521-Feat1522-Feat1524-Feat1525-Feat1526-Feat1527-Feat1529-Feat1532-Feat1534-Feat1535-Feat1536-Feat1537-Feat1539-Feat1543-Feat1545-Feat1546-Feat1548-Feat1549-Feat1550-Feat1551-Feat1552-Feat1554-Feat1558-Feat1561-Feat1562-Feat1565-Feat1568-Feat1569-Feat1570-Feat1571-Feat1576-Feat1577-Feat1579-Feat1581-Feat1584-Feat1588-Feat1590-Feat1594-Feat1595-Feat1596-Feat1597-Feat1598-Feat1599-Feat1600-Feat1602-Feat1607-Feat1609-Feat1612-Feat1613-Feat1619-Feat1620-Feat1623-Feat1624-Feat1626-Feat1629-Feat1633-Feat1635-Feat1636-Feat1638-Feat1640-Feat1641-Feat1644-Feat1645-Feat1647-Feat1649-Feat1651-Feat1652-Feat1653-Feat1654-Feat1657-Feat1658-Feat1659-Feat1660-Feat1661-Feat1665-Feat1669-Feat1670-Feat1671-Feat1673-Feat1675-Feat1678-Feat1680-Feat1681-Feat1682-Feat1684-Feat1687-Feat1692-Feat1694-Feat1697-Feat1701-Feat1703-Feat1704-Feat1705-Feat1706-Feat1707-Feat1708-Feat1711-Feat1714-Feat1715-Feat1717-Feat1719-Feat1720-Feat1724-Feat1725-Feat1727-Feat1728-Feat1730-Feat1731-Feat1732-Feat1735-Feat1736-Feat1737-Feat1738-Feat1739-Feat1742-Feat1743-Feat1747-Feat1748-Feat1749-Feat1753-Feat1754-Feat1759-Feat1760-Feat1767-Feat1770-Feat1772-Feat1776-Feat1782-Feat1784-Feat1786-Feat1787-Feat1790-Feat1792-Feat1793-Feat1794-Feat1795-Feat1796-Feat1798-Feat1800-Feat1801-Feat1804-Feat1805-Feat1806-Feat1811-Feat1812-Feat1813-Feat1814-Feat1815-Feat1818-Feat1823-Feat1828-Feat1831-Feat1832-Feat1833-Feat1837-Feat1838-Feat1841-Feat1845-Feat1846-Feat1848-Feat1849-Feat1850-Feat1851-Feat1853-Feat1855-Feat1856-Feat1857-Feat1860-Feat1862-Feat1863-Feat1870-Feat1875-Feat1877-Feat1882-Feat1883-Feat1884-Feat1886-Feat1888-Feat1889-Feat1890-Feat1891-Feat1894-Feat1897-Feat1899-Feat1902-Feat1903-Feat1904-Feat1905-Feat1907-Feat1909-Feat1910-Feat1911-Feat1912-Feat1913-Feat1916-Feat1917-Feat1923-Feat1924-Feat1926-Feat1938-Feat1939-Feat1943-Feat1944-Feat1946-Feat1947-Feat1955-Feat1957-Feat1961-Feat1962-Feat1964-Feat1965-Feat1966-Feat1967-Feat1968-Feat1972-Feat1975-Feat1976-Feat1977-Feat1979-Feat1981-Feat1982-Feat1986-Feat1991-Feat1993-Feat1994-Feat1995-Feat1997-Feat1998-Feat2000-Feat2001-Feat2002-Feat2003-Feat2005-Feat2011-Feat2012-Feat2013-Feat2014-Feat2017-Feat2019-Feat2021-Feat2023-Feat2028-Feat2029-Feat2032-Feat2033-Feat2035-Feat2037-Feat2038-Feat2043-Feat2044-Feat2047-Feat2048-Feat2052-Feat2055-Feat2057-Feat2059-Feat2061-Feat2064-Feat2067-Feat2069-Feat2071-Feat2073-Feat2074-Feat2075-Feat2076-Feat2078-Feat2079-Feat2081-Feat2083-Feat2084-Feat2086-Feat2087-Feat2090-Feat2091-Feat2094-Feat2095-Feat2096-Feat2099-Feat2103-Feat2104-Feat2105-Feat2106-Feat2107-Feat2113-Feat2115-Feat2116-Feat2118-Feat2119-Feat2120-Feat2121-Feat2122-Feat2125-Feat2126-Feat2128-Feat2134-Feat2136-Feat2138-Feat2141-Feat2144-Feat2145-Feat2146-Feat2147-Feat2150-Feat2152-Feat2154-Feat2160-Feat2162-Feat2165-Feat2167-Feat2170-Feat2172-Feat2174-Feat2178-Feat2180-Feat2182-Feat2183-Feat2184-Feat2189-Feat2191-Feat2197-Feat2198-Feat2202-Feat2204-Feat2206-Feat2207-Feat2208-Feat2209-Feat2212-Feat2213-Feat2215-Feat2217-Feat2218-Feat2223-Feat2225-Feat2226-Feat2227-Feat2228-Feat2229-Feat2233-Feat2234-Feat2235-Feat2238-Feat2239-Feat2240-Feat2244-Feat2247-Feat2248-Feat2249-Feat2250-Feat2252-Feat2253-Feat2255-Feat2257-Feat2260-Feat2261-Feat2263-Feat2264-Feat2266-Feat2270-Feat2272-Feat2273-Feat2274-Feat2275-Feat2276-Feat2278-Feat2279-Feat2282-Feat2283-Feat2285-Feat2286-Feat2287-Feat2289-Feat2291-Feat2293-Feat2295-Feat2296-Feat2298-Feat2302-Feat2303-Feat2304-Feat2306-Feat2307-Feat2310-Feat2311-Feat2313-Feat2316-Feat2317-Feat2319-Feat2322-Feat2323-Feat2326-Feat2327-Feat2329-Feat2330-Feat2331-Feat2340-Feat2341-Feat2346-Feat2347-Feat2348-Feat2349-Feat2350-Feat2351-Feat2356-Feat2357-Feat2358-Feat2360-Feat2361-Feat2363-Feat2365-Feat2366-Feat2368-Feat2370-Feat2374-Feat2375-Feat2376-Feat2381-Feat2382-Feat2384-Feat2386-Feat2387-Feat2388-Feat2389-Feat2390-Feat2391-Feat2395-Feat2398-Feat2402-Feat2404-Feat2406-Feat2408-Feat2409-Feat2410-Feat2412-Feat2417-Feat2421-Feat2422-Feat2423-Feat2424-Feat2426-Feat2427-Feat2428-Feat2431-Feat2434-Feat2435-Feat2436-Feat2437-Feat2438-Feat2439-Feat2440-Feat2445-Feat2446-Feat2448-Feat2453-Feat2456-Feat2462-Feat2469-Feat2472-Feat2474-Feat2475-Feat2476-Feat2477-Feat2480-Feat2482-Feat2487-Feat2488-Feat2491-Feat2493-Feat2496-Feat2497-Feat2498-Feat2500-Feat2503-Feat2504-Feat2506-Feat2507-Feat2508-Feat2509-Feat2510-Feat2511-Feat2513-Feat2514-Feat2515-Feat2516-Feat2517-Feat2518-Feat2519-Feat2522-Feat2526-Feat2527-Feat2529-Feat2530-Feat2531-Feat2533-Feat2537-Feat2538-Feat2539-Feat2540-Feat2541-Feat2544-Feat2545-Feat2547-Feat2548-Feat2549-Feat2550-Feat2551-Feat2552-Feat2558-Feat2559-Feat2561-Feat2564-Feat2565-Feat2566-Feat2568-Feat2569-Feat2572-Feat2573-Feat2577-Feat2578-Feat2579-Feat2583-Feat2584-Feat2585-Feat2586-Feat2587-Feat2588-Feat2589-Feat2591-Feat2594-Feat2597-Feat2598-Feat2599-Feat2600-Feat2601-Feat2602-Feat2608-Feat2609-Feat2610-Feat2613-Feat2614-Feat2616-Feat2617-Feat2619-Feat2622-Feat2624-Feat2625-Feat2627-Feat2630-Feat2631-Feat2632-Feat2635-Feat2637-Feat2639-Feat2643-Feat2645-Feat2647-Feat2651-Feat2652-Feat2653-Feat2655-Feat2656-Feat2658-Feat2662-Feat2667-Feat2672-Feat2677-Feat2690-Feat2692-Feat2693-Feat2695-Feat2696-Feat2698-Feat2699-Feat2701-Feat2705-Feat2707-Feat2711-Feat2714-Feat2716-Feat2718-Feat2719-Feat2722-Feat2723-Feat2726-Feat2729-Feat2730-Feat2732-Feat2733-Feat2734-Feat2739-Feat2743-Feat2746-Feat2747-Feat2748-Feat2750-Feat2752-Feat2754-Feat2755-Feat2759-Feat2761-Feat2763-Feat2768-Feat2769-Feat2770-Feat2772-Feat2775-Feat2777-Feat2778-Feat2781-Feat2782-Feat2785-Feat2786-Feat2788-Feat2790-Feat2794-Feat2796-Feat2798-Feat2799-Feat2803-Feat2804-Feat2809-Feat2810-Feat2811-Feat2815-Feat2816-Feat2817-Feat2823-Feat2825-Feat2826-Feat2828-Feat2830-Feat2832-Feat2834-Feat2835-Feat2836-Feat2837-Feat2838-Feat2841-Feat2842-Feat2843-Feat2844-Feat2846-Feat2847-Feat2848-Feat2850-Feat2851-Feat2853-Feat2856-Feat2858-Feat2860-Feat2867-Feat2870-Feat2878-Feat2879-Feat2880-Feat2881-Feat2882-Feat2883-Feat2886-Feat2887-Feat2888-Feat2890-Feat2892-Feat2894-Feat2895-Feat2896-Feat2897-Feat2898-Feat2899-Feat2901-Feat2903-Feat2906-Feat2912-Feat2913-Feat2914-Feat2915-Feat2918-Feat2923-Feat2927-Feat2929-Feat2930-Feat2934-Feat2938-Feat2940-Feat2942-Feat2943-Feat2945-Feat2946-Feat2947-Feat2948-Feat2949-Feat2952-Feat2953-Feat2955-Feat2957-Feat2959-Feat2963-Feat2966-Feat2968-Feat2969-Feat2973-Feat2974-Feat2975-Feat2978-Feat2979-Feat2980-Feat2983-Feat2985-Feat2987-Feat2988-Feat2990-Feat2991-Feat2993-Feat2995-Feat3001-Feat3002-Feat3005-Feat3008-Feat3009-Feat3015-Feat3016-Feat3017-Feat3020-Feat3021-Feat3022-Feat3023-Feat3024-Feat3025-Feat3030-Feat3031-Feat3033-Feat3034-Feat3035-Feat3040-Feat3043-Feat3044-Feat3046-Feat3048-Feat3049-Feat3050-Feat3051-Feat3052-Feat3054-Feat3058-Feat3059-Feat3060-Feat3061-Feat3062-Feat3064-Feat3067-Feat3072-Feat3074-Feat3078-Feat3080-Feat3081-Feat3082-Feat3084-Feat3088-Feat3091-Feat3093-Feat3094-Feat3096-Feat3097-Feat3098-Feat3100-Feat3105-Feat3110-Feat3111-Feat3113-Feat3115-Feat3116-Feat3119-Feat3120-Feat3123-Feat3124-Feat3129-Feat3130-Feat3134-Feat3137-Feat3138-Feat3139-Feat3140-Feat3142-Feat3145-Feat3148-Feat3149-Feat3151-Feat3153-Feat3156-Feat3159-Feat3160-Feat3162-Feat3164-Feat3169-Feat3171-Feat3177-Feat3178-Feat3179-Feat3181-Feat3182-Feat3185-Feat3186-Feat3187-Feat3190-Feat3191-Feat3192-Feat3194-Feat3195-Feat3196-Feat3200-Feat3201-Feat3202-Feat3203-Feat3206-Feat3208-Feat3209-Feat3212-Feat3214-Feat3215-Feat3218-Feat3219-Feat3223-Feat3227-Feat3228-Feat3231-Feat3232-Feat3235-Feat3236-Feat3238-Feat3239-Feat3240-Feat3241-Feat3245-Feat3247-Feat3249-Feat3250-Feat3255-Feat3259-Feat3260-Feat3261-Feat3262-Feat3263-Feat3264-Feat3265-Feat3267-Feat3268-Feat3270-Feat3271-Feat3279-Feat3282-Feat3283-Feat3286-Feat3288-Feat3293-Feat3294-Feat3296-Feat3297-Feat3298-Feat3301-Feat3302-Feat3303-Feat3304-Feat3306-Feat3307-Feat3308-Feat3309-Feat3312-Feat3314-Feat3317-Feat3319-Feat3325-Feat3329-Feat3330-Feat3331-Feat3334-Feat3337-Feat3338-Feat3341-Feat3345-Feat3349-Feat3350-Feat3352-Feat3353-Feat3355-Feat3357-Feat3359-Feat3363-Feat3364-Feat3370-Feat3371-Feat3372-Feat3374-Feat3377-Feat3378-Feat3380-Feat3381-Feat3384-Feat3385-Feat3390-Feat3391-Feat3392-Feat3393-Feat3394-Feat3397-Feat3398-Feat3404-Feat3405-Feat3408-Feat3409-Feat3412-Feat3413-Feat3417-Feat3419-Feat3420-Feat3422-Feat3423-Feat3424-Feat3425-Feat3426-Feat3428-Feat3429-Feat3435-Feat3436-Feat3437-Feat3438-Feat3440-Feat3442-Feat3445-Feat3447-Feat3451-Feat3453-Feat3456-Feat3457-Feat3463-Feat3467-Feat3468-Feat3469-Feat3472-Feat3475-Feat3477-Feat3478-Feat3479-Feat3481-Feat3482-Feat3483-Feat3484-Feat3485-Feat3488-Feat3489-Feat3490-Feat3493-Feat3494-Feat3496-Feat3498-Feat3499-Feat3501-Feat3502-Feat3503-Feat3507-Feat3508-Feat3509-Feat3512-Feat3513-Feat3514-Feat3515-Feat3516-Feat3521-Feat3526-Feat3527-Feat3528-Feat3530-Feat3531-Feat3533-Feat3534-Feat3535-Feat3536-Feat3538-Feat3544-Feat3547-Feat3549-Feat3552-Feat3553-Feat3555-Feat3558-Feat3559-Feat3560-Feat3566-Feat3568-Feat3570-Feat3571-Feat3574-Feat3575-Feat3577-Feat3580-Feat3581-Feat3585-Feat3586-Feat3587-Feat3588-Feat3589-Feat3590-Feat3592-Feat3593-Feat3594-Feat3595-Feat3597-Feat3598-Feat3601-Feat3604-Feat3609-Feat3612-Feat3614-Feat3615-Feat3617-Feat3618-Feat3619-Feat3620-Feat3621-Feat3622-Feat3623-Feat3624-Feat3625-Feat3626-Feat3630-Feat3631-Feat3633-Feat3634-Feat3635-Feat3636-Feat3637-Feat3640-Feat3642-Feat3643-Feat3646-Feat3647-Feat3648-Feat3649-Feat3651-Feat3654-Feat3655-Feat3657-Feat3660-Feat3664-Feat3666-Feat3668-Feat3669-Feat3672-Feat3675-Feat3676-Feat3682-Feat3690-Feat3694-Feat3696-Feat3697-Feat3699-Feat3700-Feat3701-Feat3706-Feat3708-Feat3709-Feat3710-Feat3711-Feat3712-Feat3718-Feat3719-Feat3721-Feat3725-Feat3727-Feat3732-Feat3733-Feat3736-Feat3737-Feat3739-Feat3740-Feat3743-Feat3744-Feat3745-Feat3746-Feat3747-Feat3748-Feat3750-Feat3751-Feat3753-Feat3754-Feat3756-Feat3757-Feat3758-Feat3760-Feat3761-Feat3762-Feat3763-Feat3766-Feat3770-Feat3771-Feat3774-Feat3777-Feat3779-Feat3781-Feat3782-Feat3785-Feat3786-Feat3787-Feat3792-Feat3794-Feat3795-Feat3800-Feat3802-Feat3803-Feat3806-Feat3807-Feat3808-Feat3809-Feat3810-Feat3816-Feat3818-Feat3820-Feat3821-Feat3825-Feat3826-Feat3827-Feat3828-Feat3829-Feat3832-Feat3834-Feat3837-Feat3838-Feat3839-Feat3843-Feat3845-Feat3846-Feat3848-Feat3852-Feat3853-Feat3856-Feat3858-Feat3860-Feat3865-Feat3866-Feat3867-Feat3869-Feat3870-Feat3871-Feat3872-Feat3873-Feat3874-Feat3876-Feat3877-Feat3879-Feat3881-Feat3883-Feat3886-Feat3890-Feat3891-Feat3894-Feat3895-Feat3896-Feat3898-Feat3899-Feat3901-Feat3902-Feat3906-Feat3909-Feat3910-Feat3911-Feat3917-Feat3921-Feat3922-Feat3923-Feat3924-Feat3925-Feat3927-Feat3928-Feat3932-Feat3936-Feat3937-Feat3947-Feat3948-Feat3950-Feat3951-Feat3953-Feat3954-Feat3955-Feat3956-Feat3964-Feat3965-Feat3966-Feat3969-Feat3971-Feat3972-Feat3973-Feat3975-Feat3976-Feat3977-Feat3979-Feat3980-Feat3981-Feat3983-Feat3984-Feat3986-Feat3987-Feat3991-Feat3993-Feat3994-Feat3995-Feat3997-Feat3998-Feat3999-Feat4004-Feat4005-Feat4006-Feat4007-Feat4008-Feat4014-Feat4015-Feat4017-Feat4019-Feat4020-Feat4021-Feat4023-Feat4024-Feat4026-Feat4027-Feat4028-Feat4034-Feat4035-Feat4037-Feat4040-Feat4041-Feat4042-Feat4044-Feat4046-Feat4047-Feat4048-Feat4052-Feat4053-Feat4054-Feat4055-Feat4056-Feat4057-Feat4060-Feat4061-Feat4065-Feat4066-Feat4068-Feat4069-Feat4074-Feat4075-Feat4076-Feat4077-Feat4079-Feat4083-Feat4084-Feat4085-Feat4086-Feat4087-Feat4088-Feat4089-Feat4092-Feat4095-Feat4096-Feat4099-Feat4102-Feat4104-Feat4107-Feat4109-Feat4110-Feat4112-Feat4113-Feat4116-Feat4117-Feat4119-Feat4120-Feat4122-Feat4123-Feat4126-Feat4127-Feat4130-Feat4132-Feat4133-Feat4139-Feat4140-Feat4142-Feat4144-Feat4145-Feat4146-Feat4147-Feat4152-Feat4155-Feat4160-Feat4161-Feat4162-Feat4163-Feat4165-Feat4166-Feat4168-Feat4171-Feat4173-Feat4177-Feat4179-Feat4180-Feat4186-Feat4189-Feat4190-Feat4191-Feat4194-Feat4197-Feat4202-Feat4203-Feat4206-Feat4208-Feat4210-Feat4211-Feat4213-Feat4216-Feat4217-Feat4218-Feat4220-Feat4221-Feat4222-Feat4224-Feat4225-Feat4226-Feat4229-Feat4230-Feat4231-Feat4232-Feat4234-Feat4235-Feat4236-Feat4237-Feat4240-Feat4241-Feat4247-Feat4250-Feat4251-Feat4256-Feat4258-Feat4259-Feat4260-Feat4263-Feat4264-Feat4265-Feat4269-Feat4270-Feat4272-Feat4275-Feat4276-Feat4277-Feat4278-Feat4279-Feat4281-Feat4282-Feat4284-Feat4285-Feat4286-Feat4287-Feat4289-Feat4290-Feat4291-Feat4296-Feat4297-Feat4299-Feat4301-Feat4302-Feat4303-Feat4305-Feat4306-Feat4307-Feat4308-Feat4310-Feat4313-Feat4318-Feat4321-Feat4325-Feat4326-Feat4327-Feat4328-Feat4329-Feat4330-Feat4334-Feat4335-Feat4338-Feat4339-Feat4340-Feat4341-Feat4343-Feat4344-Feat4345-Feat4353-Feat4354-Feat4355-Feat4356-Feat4357-Feat4360-Feat4363-Feat4365-Feat4366-Feat4368-Feat4372-Feat4374-Feat4375-Feat4376-Feat4377-Feat4383-Feat4388-Feat4390-Feat4391-Feat4393-Feat4396-Feat4397-Feat4398-Feat4399-Feat4400-Feat4401-Feat4403-Feat4405-Feat4407-Feat4408-Feat4409-Feat4411-Feat4412-Feat4422-Feat4423-Feat4424-Feat4426-Feat4428-Feat4430-Feat4433-Feat4434-Feat4436-Feat4440-Feat4441-Feat4446-Feat4449-Feat4451-Feat4452-Feat4453-Feat4454-Feat4455-Feat4461-Feat4463-Feat4466-Feat4468-Feat4469-Feat4470-Feat4472-Feat4473-Feat4475-Feat4476-Feat4477-Feat4478-Feat4480-Feat4481-Feat4482-Feat4483-Feat4487-Feat4488-Feat4489-Feat4490-Feat4492-Feat4494-Feat4496-Feat4497-Feat4498-Feat4499-Feat4501-Feat4502-Feat4504-Feat4506-Feat4509-Feat4510-Feat4511-Feat4512-Feat4513-Feat4516-Feat4517-Feat4520-Feat4526-Feat4530-Feat4533-Feat4535-Feat4536-Feat4537-Feat4538-Feat4539-Feat4540-Feat4541-Feat4542-Feat4543-Feat4544-Feat4545-Feat4548-Feat4549-Feat4553-Feat4554-Feat4555-Feat4558-Feat4561-Feat4562-Feat4566-Feat4569-Feat4570-Feat4571-Feat4572-Feat4573-Feat4574-Feat4579-Feat4580-Feat4581-Feat4585-Feat4586-Feat4589-Feat4590-Feat4592-Feat4594-Feat4598-Feat4600-Feat4601-Feat4603-Feat4605-Feat4606-Feat4607-Feat4608-Feat4609-Feat4610-Feat4612-Feat4613-Feat4614-Feat4615-Feat4616-Feat4618-Feat4620-Feat4626-Feat4629-Feat4630-Feat4631-Feat4634-Feat4635-Feat4636-Feat4637-Feat4640-Feat4642-Feat4645-Feat4648-Feat4650-Feat4651-Feat4653-Feat4655-Feat4658-Feat4659-Feat4662-Feat4664-Feat4666-Feat4668-Feat4669-Feat4670-Feat4671-Feat4675-Feat4676-Feat4677-Feat4679-Feat4684-Feat4685-Feat4688-Feat4689-Feat4690-Feat4692-Feat4693-Feat4694-Feat4695-Feat4699-Feat4700-Feat4703-Feat4706-Feat4709-Feat4711-Feat4712-Feat4714-Feat4715-Feat4716-Feat4719-Feat4723-Feat4724-Feat4730-Feat4734-Feat4735-Feat4736-Feat4737-Feat4741-Feat4743-Feat4745-Feat4746-Feat4747-Feat4748-Feat4749-Feat4750-Feat4751-Feat4752-Feat4754-Feat4755-Feat4757-Feat4758-Feat4759-Feat4760-Feat4761-Feat4762-Feat4764-Feat4765-Feat4766-Feat4769-Feat4770-Feat4771-Feat4774-Feat4775-Feat4779-Feat4781-Feat4783-Feat4785-Feat4792-Feat4795-Feat4796-Feat4798-Feat4799-Feat4800-Feat4801-Feat4806-Feat4810-Feat4812-Feat4813-Feat4814-Feat4817-Feat4820-Feat4821-Feat4824-Feat4829-Feat4830-Feat4832-Feat4834-Feat4840-Feat4841-Feat4842-Feat4844-Feat4845-Feat4847-Feat4849-Feat4850-Feat4853-Feat4854-Feat4856-Feat4859-Feat4860-Feat4863-Feat4865-Feat4867-Feat4868-Feat4869-Feat4870-Feat4871-Feat4876-Feat4877-Feat4878-Feat4882-Feat4883-Feat4885-Feat4888-Feat4889-Feat4890-Feat4891-Feat4894-Feat4897-Feat4898-Feat4899-Feat4900-Feat4904-Feat4905-Feat4906-Feat4908-Feat4909-Feat4911-Feat4914-Feat4918-Feat4919-Feat4921-Feat4924-Feat4925-Feat4929-Feat4930-Feat4932-Feat4933-Feat4937-Feat4942-Feat4945-Feat4946-Feat4947-Feat4949-Feat4954-Feat4955-Feat4956-Feat4957-Feat4959-Feat4960-Feat4961-Feat4962-Feat4963-Feat4965-Feat4966-Feat4969-Feat4972-Feat4973-Feat4975-Feat4976-Feat4979-Feat4981-Feat4982-Feat4984-Feat4987-Feat4991-Feat4993-Feat4994-Feat4995-Feat4997-Feat4998-Feat5000-Feat5001-Feat5005-Feat5008-Feat5010-Feat5012-Feat5013-Feat5014-Feat5017-Feat5018-Feat5019-Feat5022-Feat5023-Feat5027-Feat5029-Feat5030-Feat5031-Feat5034-Feat5035-Feat5036-Feat5037-Feat5041-Feat5042-Feat5044-Feat5047-Feat5048-Feat5049-Feat5050-Feat5054-Feat5058-Feat5060-Feat5061-Feat5062-Feat5066-Feat5067-Feat5070-Feat5076-Feat5077-Feat5078-Feat5080-Feat5081-Feat5082-Feat5084-Feat5086-Feat5088-Feat5092-Feat5100-Feat5102-Feat5104-Feat5105-Feat5107-Feat5108-Feat5109-Feat5111-Feat5113-Feat5114-Feat5115-Feat5117-Feat5118-Feat5120-Feat5121-Feat5122-Feat5123-Feat5125-Feat5126-Feat5128-Feat5131-Feat5132-Feat5134-Feat5135-Feat5136-Feat5137-Feat5138-Feat5145-Feat5147-Feat5151-Feat5152-Feat5154-Feat5159-Feat5160-Feat5161-Feat5163-Feat5164-Feat5165-Feat5167-Feat5168-Feat5170-Feat5172-Feat5173-Feat5175-Feat5177-Feat5180-Feat5181-Feat5182-Feat5183-Feat5188-Feat5189-Feat5192-Feat5193-Feat5195-Feat5196-Feat5197-Feat5201-Feat5204-Feat5206-Feat5208-Feat5210-Feat5211-Feat5216-Feat5218-Feat5220-Feat5221-Feat5223-Feat5224-Feat5226-Feat5227-Feat5228-Feat5232-Feat5233-Feat5235-Feat5237-Feat5241-Feat5242-Feat5243-Feat5244-Feat5245-Feat5247-Feat5248-Feat5251-Feat5252-Feat5253-Feat5255-Feat5259-Feat5261-Feat5263-Feat5265-Feat5266-Feat5268-Feat5270-Feat5271-Feat5273-Feat5276-Feat5277-Feat5278-Feat5284-Feat5289-Feat5291-Feat5292-Feat5293-Feat5295-Feat5298-Feat5301-Feat5302-Feat5303-Feat5309-Feat5312-Feat5314-Feat5316-Feat5318-Feat5320-Feat5321-Feat5323-Feat5326-Feat5327-Feat5332-Feat5335-Feat5338-Feat5339-Feat5340-Feat5341-Feat5342-Feat5349-Feat5351-Feat5353-Feat5359-Feat5360-Feat5361-Feat5362-Feat5365-Feat5368-Feat5369-Feat5372-Feat5373-Feat5375-Feat5376-Feat5377-Feat5381-Feat5383-Feat5386-Feat5389-Feat5391-Feat5392-Feat5393-Feat5397-Feat5400-Feat5410-Feat5413-Feat5414-Feat5419-Feat5423-Feat5424-Feat5425-Feat5426-Feat5430-Feat5432-Feat5434-Feat5436-Feat5437-Feat5439-Feat5441-Feat5442-Feat5444-Feat5446-Feat5449-Feat5452-Feat5453-Feat5456-Feat5460-Feat5463-Feat5465-Feat5472-Feat5473-Feat5474-Feat5475-Feat5476-Feat5477-Feat5478-Feat5480-Feat5483-Feat5484-Feat5488-Feat5493-Feat5494-Feat5496-Feat5499-Feat5503-Feat5505-Feat5506-Feat5509-Feat5510-Feat5515-Feat5518-Feat5524-Feat5526-Feat5527-Feat5535-Feat5536-Feat5540-Feat5541-Feat5542-Feat5543-Feat5545-Feat5548-Feat5549-Feat5551-Feat5553-Feat5557-Feat5558-Feat5559-Feat5562-Feat5563</t>
+  </si>
+  <si>
+    <t>Feat2434-Feat2664-Feat2756-Feat4517-Feat4553</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>Feat106-Feat245-Feat574-Feat845-Feat1002-Feat1054-Feat1065-Feat1388-Feat1953-Feat1954</t>
+  </si>
+  <si>
+    <t>Feat268-Feat339-Feat355-Feat357-Feat656-Feat1229-Feat1237-Feat1418-Feat1771-Feat2030</t>
+  </si>
+  <si>
+    <t>Feat106-Feat835-Feat841-Feat845-Feat850-Feat1707-Feat1953-Feat1954-Feat2045-Feat2049</t>
+  </si>
+  <si>
+    <t>Feat0-Feat106-Feat173-Feat245-Feat544-Feat574-Feat741-Feat841-Feat845-Feat1002-Feat1054-Feat1065-Feat1193-Feat1318-Feat1388-Feat1426-Feat1953-Feat1954-Feat2045-Feat2049</t>
+  </si>
+  <si>
+    <t>Feat268-Feat339-Feat351-Feat355-Feat357-Feat656-Feat732-Feat766-Feat831-Feat1006-Feat1229-Feat1237-Feat1418-Feat1428-Feat1755-Feat1771-Feat2022-Feat2030-Feat2149-Feat2256</t>
+  </si>
+  <si>
+    <t>Feat106-Feat245-Feat254-Feat508-Feat741-Feat835-Feat841-Feat845-Feat850-Feat866-Feat1002-Feat1388-Feat1600-Feat1707-Feat1914-Feat1953-Feat1954-Feat2045-Feat2049-Feat2161</t>
+  </si>
+  <si>
+    <t>Feat21-Feat36-Feat730-Feat755-Feat1114-Feat1300-Feat1433-Feat1759-Feat2165</t>
+  </si>
+  <si>
+    <t>Feat11-Feat16-Feat26-Feat37-Feat106-Feat250-Feat411-Feat543-Feat566-Feat574-Feat755-Feat1104-Feat1326-Feat1496-Feat1812-Feat1888-Feat2165-Feat2230-Feat2234</t>
+  </si>
+  <si>
+    <t>submarine</t>
+  </si>
+  <si>
+    <t>Feat151-Feat1645-Feat2832-Feat3764-Feat3773-Feat5930-Feat6118-Feat6832-Feat7742-Feat7750</t>
+  </si>
+  <si>
+    <t>Feat535-Feat921-Feat2415-Feat2468-Feat3764-Feat4330-Feat5348-Feat5742-Feat6558-Feat8433</t>
+  </si>
+  <si>
+    <t>Feat4-Feat21-Feat111-Feat756-Feat1357-Feat1681-Feat4373-Feat4772-Feat6118</t>
+  </si>
+  <si>
+    <t>Feat457-Feat1551-Feat3664-Feat4188-Feat6216-Feat6247-Feat6749-Feat7181-Feat8400-Feat10071</t>
+  </si>
+  <si>
+    <t>Feat151-Feat756-Feat1645-Feat2832-Feat3595-Feat3764-Feat3773-Feat4435-Feat5930-Feat6118-Feat6832-Feat6929-Feat7323-Feat7522-Feat7742-Feat7750-Feat9187-Feat9574-Feat9598-Feat9699</t>
+  </si>
+  <si>
+    <t>Feat513-Feat535-Feat921-Feat2415-Feat2468-Feat2719-Feat3271-Feat3764-Feat3957-Feat4330-Feat5348-Feat5742-Feat5902-Feat6400-Feat6500-Feat6517-Feat6558-Feat6620-Feat8433-Feat8516</t>
+  </si>
+  <si>
+    <t>Feat3-Feat8-Feat33-Feat35-Feat43-Feat756-Feat870-Feat1672-Feat2342-Feat2775-Feat3664-Feat4373-Feat5422-Feat6118-Feat6247-Feat6471-Feat6705-Feat7742-Feat8412-Feat9323</t>
+  </si>
+  <si>
+    <t>sorile</t>
+  </si>
+  <si>
+    <t>Feat47-Feat49-Feat103-Feat209-Feat231-Feat233-Feat327-Feat328-Feat329-Feat330</t>
+  </si>
+  <si>
+    <t>Feat21-Feat63-Feat69-Feat73-Feat113-Feat120-Feat217-Feat248-Feat285-Feat298</t>
+  </si>
+  <si>
+    <t>Feat2-Feat21-Feat26-Feat196-Feat326-Feat330-Feat338-Feat411-Feat424</t>
+  </si>
+  <si>
+    <t>Feat17-Feat47-Feat49-Feat52-Feat54-Feat103-Feat196-Feat205-Feat209-Feat231-Feat232-Feat233-Feat323-Feat325-Feat326-Feat327-Feat328-Feat329-Feat330-Feat338</t>
+  </si>
+  <si>
+    <t>Feat1-Feat21-Feat38-Feat63-Feat69-Feat73-Feat113-Feat120-Feat217-Feat218-Feat222-Feat233-Feat242-Feat248-Feat285-Feat298-Feat305-Feat310-Feat372-Feat415</t>
+  </si>
+  <si>
+    <t>Feat1-Feat9-Feat27-Feat34-Feat36-Feat40-Feat41-Feat80-Feat81-Feat116-Feat227-Feat292-Feat327-Feat328-Feat330-Feat338-Feat341-Feat374-Feat413-Feat435</t>
   </si>
 </sst>
 </file>
@@ -639,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A371A-64DB-4759-8E54-50661DCEFFB3}">
-  <dimension ref="A1:J393"/>
+  <dimension ref="A1:J579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="A349" sqref="A349"/>
+    <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="H530" sqref="H530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>0.57999999999999996</v>
@@ -731,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>0.16</v>
@@ -847,7 +960,7 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -963,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <v>0.99239999999999995</v>
@@ -1079,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <v>0.62</v>
@@ -1183,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <v>0.65</v>
@@ -1287,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <v>0.48299999999999998</v>
@@ -1403,7 +1516,7 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I27">
         <v>7.4999999999999997E-3</v>
@@ -1519,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I31">
         <v>0.97199999999999998</v>
@@ -1635,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I35">
         <v>0.626</v>
@@ -1739,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I39">
         <v>0.72</v>
@@ -1843,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I43">
         <v>0.99199999999999999</v>
@@ -1959,7 +2072,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2075,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I51">
         <v>0.96699999999999997</v>
@@ -2191,7 +2304,7 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I55">
         <v>0.626</v>
@@ -2295,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I59">
         <v>0.69</v>
@@ -2399,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I63">
         <v>0.95899999999999996</v>
@@ -2515,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I67">
         <v>0.97899999999999998</v>
@@ -2631,7 +2744,7 @@
         <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I71">
         <v>0.85</v>
@@ -2747,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I75">
         <v>0.62</v>
@@ -2851,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I79">
         <v>0.69</v>
@@ -2955,7 +3068,7 @@
         <v>31</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I83">
         <v>0.73329999999999995</v>
@@ -2984,7 +3097,7 @@
         <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3100,7 +3213,7 @@
         <v>31</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3216,7 +3329,7 @@
         <v>31</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3332,7 +3445,7 @@
         <v>31</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -3436,7 +3549,7 @@
         <v>31</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -3540,7 +3653,7 @@
         <v>31</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -3656,7 +3769,7 @@
         <v>31</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -3772,7 +3885,7 @@
         <v>31</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -3888,7 +4001,7 @@
         <v>31</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -3992,7 +4105,7 @@
         <v>31</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -4096,7 +4209,7 @@
         <v>31</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -4212,7 +4325,7 @@
         <v>31</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -4328,7 +4441,7 @@
         <v>31</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -4444,7 +4557,7 @@
         <v>31</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -4548,7 +4661,7 @@
         <v>31</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -4652,7 +4765,7 @@
         <v>31</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -4768,7 +4881,7 @@
         <v>31</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -4884,7 +4997,7 @@
         <v>31</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -5000,7 +5113,7 @@
         <v>31</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -5116,7 +5229,7 @@
         <v>31</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -5220,7 +5333,7 @@
         <v>31</v>
       </c>
       <c r="H164" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -5324,7 +5437,7 @@
         <v>31</v>
       </c>
       <c r="H168" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -5440,7 +5553,7 @@
         <v>31</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -5556,7 +5669,7 @@
         <v>31</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -5672,7 +5785,7 @@
         <v>31</v>
       </c>
       <c r="H180" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -5788,7 +5901,7 @@
         <v>31</v>
       </c>
       <c r="H184" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -5883,7 +5996,7 @@
         <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -5975,7 +6088,7 @@
         <v>5</v>
       </c>
       <c r="H192" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -6076,7 +6189,7 @@
         <v>54</v>
       </c>
       <c r="H196" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -6102,7 +6215,7 @@
         <v>54</v>
       </c>
       <c r="H197" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I197">
         <v>9.0399999999999991</v>
@@ -6218,7 +6331,7 @@
         <v>54</v>
       </c>
       <c r="H201" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I201">
         <v>0.952380952380952</v>
@@ -6334,7 +6447,7 @@
         <v>54</v>
       </c>
       <c r="H205" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -6450,7 +6563,7 @@
         <v>54</v>
       </c>
       <c r="H209" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -6566,7 +6679,7 @@
         <v>54</v>
       </c>
       <c r="H213" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I213">
         <v>0.95</v>
@@ -6682,7 +6795,7 @@
         <v>54</v>
       </c>
       <c r="H217" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -6798,7 +6911,7 @@
         <v>54</v>
       </c>
       <c r="H221" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -6914,7 +7027,7 @@
         <v>54</v>
       </c>
       <c r="H225" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -7030,7 +7143,7 @@
         <v>54</v>
       </c>
       <c r="H229" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -7134,7 +7247,7 @@
         <v>54</v>
       </c>
       <c r="H233" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -7238,7 +7351,7 @@
         <v>54</v>
       </c>
       <c r="H237" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -7348,7 +7461,7 @@
         <v>15</v>
       </c>
       <c r="H241" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I241">
         <v>0.11764705882352899</v>
@@ -7374,7 +7487,7 @@
         <v>54</v>
       </c>
       <c r="H242" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I242">
         <v>0.11764705882352899</v>
@@ -7490,7 +7603,7 @@
         <v>54</v>
       </c>
       <c r="H246" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I246">
         <v>5.8823529411764698E-2</v>
@@ -7606,7 +7719,7 @@
         <v>54</v>
       </c>
       <c r="H250" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I250">
         <v>0.11764705882352899</v>
@@ -7722,7 +7835,7 @@
         <v>54</v>
       </c>
       <c r="H254" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I254">
         <v>0.11764705882352899</v>
@@ -7838,7 +7951,7 @@
         <v>54</v>
       </c>
       <c r="H258" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I258">
         <v>0.11764705882352899</v>
@@ -7942,7 +8055,7 @@
         <v>54</v>
       </c>
       <c r="H262" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I262">
         <v>0.11764705882352899</v>
@@ -8058,7 +8171,7 @@
         <v>54</v>
       </c>
       <c r="H266" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I266">
         <v>0.11764705882352899</v>
@@ -8174,7 +8287,7 @@
         <v>54</v>
       </c>
       <c r="H270" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I270">
         <v>0.11764705882352899</v>
@@ -8290,7 +8403,7 @@
         <v>54</v>
       </c>
       <c r="H274" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I274">
         <v>0.11764705882352899</v>
@@ -8406,7 +8519,7 @@
         <v>54</v>
       </c>
       <c r="H278" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I278">
         <v>0.11764705882352899</v>
@@ -8522,7 +8635,7 @@
         <v>54</v>
       </c>
       <c r="H282" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I282">
         <v>0.11764705882352899</v>
@@ -8638,7 +8751,7 @@
         <v>54</v>
       </c>
       <c r="H286" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I286">
         <v>0.17647058823529399</v>
@@ -8751,7 +8864,10 @@
         <v>31</v>
       </c>
       <c r="H290" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -8774,7 +8890,7 @@
         <v>31</v>
       </c>
       <c r="H291" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -8890,7 +9006,7 @@
         <v>31</v>
       </c>
       <c r="H295" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -9006,7 +9122,7 @@
         <v>31</v>
       </c>
       <c r="H299" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I299">
         <v>1</v>
@@ -9122,7 +9238,7 @@
         <v>31</v>
       </c>
       <c r="H303" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -9238,7 +9354,7 @@
         <v>31</v>
       </c>
       <c r="H307" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -9342,7 +9458,7 @@
         <v>31</v>
       </c>
       <c r="H311" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I311">
         <v>1</v>
@@ -9458,7 +9574,7 @@
         <v>31</v>
       </c>
       <c r="H315" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I315">
         <v>1</v>
@@ -9574,7 +9690,7 @@
         <v>31</v>
       </c>
       <c r="H319" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I319">
         <v>1</v>
@@ -9690,7 +9806,7 @@
         <v>31</v>
       </c>
       <c r="H323" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -9806,7 +9922,7 @@
         <v>31</v>
       </c>
       <c r="H327" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I327">
         <v>1</v>
@@ -9910,7 +10026,7 @@
         <v>31</v>
       </c>
       <c r="H331" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I331">
         <v>1</v>
@@ -10014,7 +10130,7 @@
         <v>31</v>
       </c>
       <c r="H335" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I335">
         <v>1</v>
@@ -10111,455 +10227,6756 @@
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>97</v>
+      </c>
       <c r="B339">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C339">
-        <v>7129</v>
-      </c>
-      <c r="E339">
+        <v>5655</v>
+      </c>
+      <c r="H339" t="s">
+        <v>84</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>97</v>
+      </c>
+      <c r="B340">
+        <v>101</v>
+      </c>
+      <c r="C340">
+        <v>5655</v>
+      </c>
+      <c r="D340" t="s">
+        <v>11</v>
+      </c>
+      <c r="E340">
+        <v>10</v>
+      </c>
+      <c r="F340" t="s">
+        <v>54</v>
+      </c>
+      <c r="H340" t="s">
+        <v>84</v>
+      </c>
+      <c r="I340">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="J340" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>97</v>
+      </c>
+      <c r="B341">
+        <v>101</v>
+      </c>
+      <c r="C341">
+        <v>5655</v>
+      </c>
+      <c r="D341" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341">
+        <v>10</v>
+      </c>
+      <c r="F341" t="s">
+        <v>54</v>
+      </c>
+      <c r="H341" t="s">
+        <v>96</v>
+      </c>
+      <c r="I341">
+        <v>0.75555555555555498</v>
+      </c>
+      <c r="J341" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>97</v>
+      </c>
+      <c r="B342">
+        <v>101</v>
+      </c>
+      <c r="C342">
+        <v>5655</v>
+      </c>
+      <c r="D342" t="s">
+        <v>11</v>
+      </c>
+      <c r="E342">
+        <v>10</v>
+      </c>
+      <c r="F342" t="s">
+        <v>54</v>
+      </c>
+      <c r="H342" t="s">
+        <v>16</v>
+      </c>
+      <c r="I342">
+        <v>11.268929004669101</v>
+      </c>
+      <c r="J342" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>97</v>
+      </c>
+      <c r="B343">
+        <v>101</v>
+      </c>
+      <c r="C343">
+        <v>5655</v>
+      </c>
+      <c r="D343" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343">
+        <v>10</v>
+      </c>
+      <c r="F343" t="s">
+        <v>54</v>
+      </c>
+      <c r="H343" t="s">
+        <v>17</v>
+      </c>
+      <c r="I343">
+        <v>0.369640111923217</v>
+      </c>
+      <c r="J343" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>97</v>
+      </c>
+      <c r="B344">
+        <v>101</v>
+      </c>
+      <c r="C344">
+        <v>5655</v>
+      </c>
+      <c r="D344" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344">
+        <v>10</v>
+      </c>
+      <c r="F344" t="s">
+        <v>54</v>
+      </c>
+      <c r="H344" t="s">
+        <v>18</v>
+      </c>
+      <c r="I344">
+        <v>8.1777572631835905E-4</v>
+      </c>
+      <c r="J344" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>97</v>
+      </c>
+      <c r="B345">
+        <v>101</v>
+      </c>
+      <c r="C345">
+        <v>5655</v>
+      </c>
+      <c r="D345" t="s">
+        <v>14</v>
+      </c>
+      <c r="E345">
+        <v>10</v>
+      </c>
+      <c r="F345" t="s">
+        <v>54</v>
+      </c>
+      <c r="H345" t="s">
+        <v>84</v>
+      </c>
+      <c r="I345">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="J345" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>97</v>
+      </c>
+      <c r="B346">
+        <v>101</v>
+      </c>
+      <c r="C346">
+        <v>5655</v>
+      </c>
+      <c r="D346" t="s">
+        <v>14</v>
+      </c>
+      <c r="E346">
+        <v>10</v>
+      </c>
+      <c r="F346" t="s">
+        <v>54</v>
+      </c>
+      <c r="H346" t="s">
+        <v>96</v>
+      </c>
+      <c r="I346">
+        <v>0.19325030145473401</v>
+      </c>
+      <c r="J346" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>97</v>
+      </c>
+      <c r="B347">
+        <v>101</v>
+      </c>
+      <c r="C347">
+        <v>5655</v>
+      </c>
+      <c r="D347" t="s">
+        <v>14</v>
+      </c>
+      <c r="E347">
+        <v>10</v>
+      </c>
+      <c r="F347" t="s">
+        <v>54</v>
+      </c>
+      <c r="H347" t="s">
+        <v>16</v>
+      </c>
+      <c r="I347">
+        <v>0.28822660446166898</v>
+      </c>
+      <c r="J347" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>97</v>
+      </c>
+      <c r="B348">
+        <v>101</v>
+      </c>
+      <c r="C348">
+        <v>5655</v>
+      </c>
+      <c r="D348" t="s">
+        <v>14</v>
+      </c>
+      <c r="E348">
+        <v>10</v>
+      </c>
+      <c r="F348" t="s">
+        <v>54</v>
+      </c>
+      <c r="H348" t="s">
+        <v>17</v>
+      </c>
+      <c r="I348">
+        <v>6.98089599609375E-3</v>
+      </c>
+      <c r="J348" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>97</v>
+      </c>
+      <c r="B349">
+        <v>101</v>
+      </c>
+      <c r="C349">
+        <v>5655</v>
+      </c>
+      <c r="D349" t="s">
+        <v>14</v>
+      </c>
+      <c r="E349">
+        <v>10</v>
+      </c>
+      <c r="F349" t="s">
+        <v>54</v>
+      </c>
+      <c r="H349" t="s">
+        <v>18</v>
+      </c>
+      <c r="I349">
+        <v>9.9802017211913997E-4</v>
+      </c>
+      <c r="J349" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>97</v>
+      </c>
+      <c r="B350">
+        <v>101</v>
+      </c>
+      <c r="C350">
+        <v>5655</v>
+      </c>
+      <c r="D350" t="s">
+        <v>19</v>
+      </c>
+      <c r="E350">
+        <v>10</v>
+      </c>
+      <c r="F350" t="s">
+        <v>54</v>
+      </c>
+      <c r="H350" t="s">
+        <v>84</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>97</v>
+      </c>
+      <c r="B351">
+        <v>101</v>
+      </c>
+      <c r="C351">
+        <v>5655</v>
+      </c>
+      <c r="D351" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351">
+        <v>10</v>
+      </c>
+      <c r="F351" t="s">
+        <v>54</v>
+      </c>
+      <c r="H351" t="s">
+        <v>96</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>97</v>
+      </c>
+      <c r="B352">
+        <v>101</v>
+      </c>
+      <c r="C352">
+        <v>5655</v>
+      </c>
+      <c r="D352" t="s">
+        <v>19</v>
+      </c>
+      <c r="E352">
+        <v>10</v>
+      </c>
+      <c r="F352" t="s">
+        <v>54</v>
+      </c>
+      <c r="H352" t="s">
+        <v>16</v>
+      </c>
+      <c r="I352">
+        <v>0.51608443260192804</v>
+      </c>
+      <c r="J352" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>97</v>
+      </c>
+      <c r="B353">
+        <v>101</v>
+      </c>
+      <c r="C353">
+        <v>5655</v>
+      </c>
+      <c r="D353" t="s">
+        <v>19</v>
+      </c>
+      <c r="E353">
+        <v>10</v>
+      </c>
+      <c r="F353" t="s">
+        <v>54</v>
+      </c>
+      <c r="H353" t="s">
+        <v>17</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>97</v>
+      </c>
+      <c r="B354">
+        <v>101</v>
+      </c>
+      <c r="C354">
+        <v>5655</v>
+      </c>
+      <c r="D354" t="s">
+        <v>19</v>
+      </c>
+      <c r="E354">
+        <v>10</v>
+      </c>
+      <c r="F354" t="s">
+        <v>54</v>
+      </c>
+      <c r="H354" t="s">
+        <v>18</v>
+      </c>
+      <c r="I354">
+        <v>9.9229812622070291E-4</v>
+      </c>
+      <c r="J354" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>97</v>
+      </c>
+      <c r="B355">
+        <v>101</v>
+      </c>
+      <c r="C355">
+        <v>5655</v>
+      </c>
+      <c r="D355" t="s">
+        <v>20</v>
+      </c>
+      <c r="E355">
+        <v>10</v>
+      </c>
+      <c r="F355" t="s">
+        <v>54</v>
+      </c>
+      <c r="H355" t="s">
+        <v>84</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>97</v>
+      </c>
+      <c r="B356">
+        <v>101</v>
+      </c>
+      <c r="C356">
+        <v>5655</v>
+      </c>
+      <c r="D356" t="s">
+        <v>20</v>
+      </c>
+      <c r="E356">
+        <v>10</v>
+      </c>
+      <c r="F356" t="s">
+        <v>54</v>
+      </c>
+      <c r="H356" t="s">
+        <v>96</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>97</v>
+      </c>
+      <c r="B357">
+        <v>101</v>
+      </c>
+      <c r="C357">
+        <v>5655</v>
+      </c>
+      <c r="D357" t="s">
+        <v>20</v>
+      </c>
+      <c r="E357">
+        <v>10</v>
+      </c>
+      <c r="F357" t="s">
+        <v>54</v>
+      </c>
+      <c r="H357" t="s">
+        <v>16</v>
+      </c>
+      <c r="I357">
+        <v>1.49178504943847E-2</v>
+      </c>
+      <c r="J357" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>97</v>
+      </c>
+      <c r="B358">
+        <v>101</v>
+      </c>
+      <c r="C358">
+        <v>5655</v>
+      </c>
+      <c r="D358" t="s">
+        <v>20</v>
+      </c>
+      <c r="E358">
+        <v>10</v>
+      </c>
+      <c r="F358" t="s">
+        <v>54</v>
+      </c>
+      <c r="H358" t="s">
+        <v>17</v>
+      </c>
+      <c r="I358">
+        <v>2.2876977920532199E-2</v>
+      </c>
+      <c r="J358" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>97</v>
+      </c>
+      <c r="B359">
+        <v>101</v>
+      </c>
+      <c r="C359">
+        <v>5655</v>
+      </c>
+      <c r="D359" t="s">
+        <v>20</v>
+      </c>
+      <c r="E359">
+        <v>10</v>
+      </c>
+      <c r="F359" t="s">
+        <v>54</v>
+      </c>
+      <c r="H359" t="s">
+        <v>18</v>
+      </c>
+      <c r="I359">
+        <v>1.30126476287841E-2</v>
+      </c>
+      <c r="J359" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>97</v>
+      </c>
+      <c r="B360">
+        <v>101</v>
+      </c>
+      <c r="C360">
+        <v>5655</v>
+      </c>
+      <c r="D360" t="s">
+        <v>21</v>
+      </c>
+      <c r="E360">
+        <v>10</v>
+      </c>
+      <c r="F360" t="s">
+        <v>54</v>
+      </c>
+      <c r="H360" t="s">
+        <v>84</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>97</v>
+      </c>
+      <c r="B361">
+        <v>101</v>
+      </c>
+      <c r="C361">
+        <v>5655</v>
+      </c>
+      <c r="D361" t="s">
+        <v>21</v>
+      </c>
+      <c r="E361">
+        <v>10</v>
+      </c>
+      <c r="F361" t="s">
+        <v>54</v>
+      </c>
+      <c r="H361" t="s">
+        <v>96</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>97</v>
+      </c>
+      <c r="B362">
+        <v>101</v>
+      </c>
+      <c r="C362">
+        <v>5655</v>
+      </c>
+      <c r="D362" t="s">
+        <v>21</v>
+      </c>
+      <c r="E362">
+        <v>10</v>
+      </c>
+      <c r="F362" t="s">
+        <v>54</v>
+      </c>
+      <c r="H362" t="s">
+        <v>16</v>
+      </c>
+      <c r="I362">
+        <v>62.197876453399601</v>
+      </c>
+      <c r="J362" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>97</v>
+      </c>
+      <c r="B363">
+        <v>101</v>
+      </c>
+      <c r="C363">
+        <v>5655</v>
+      </c>
+      <c r="D363" t="s">
+        <v>21</v>
+      </c>
+      <c r="E363">
+        <v>10</v>
+      </c>
+      <c r="F363" t="s">
+        <v>54</v>
+      </c>
+      <c r="H363" t="s">
+        <v>17</v>
+      </c>
+      <c r="I363">
+        <v>3.9899349212646398E-3</v>
+      </c>
+      <c r="J363" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>97</v>
+      </c>
+      <c r="B364">
+        <v>101</v>
+      </c>
+      <c r="C364">
+        <v>5655</v>
+      </c>
+      <c r="D364" t="s">
+        <v>21</v>
+      </c>
+      <c r="E364">
+        <v>10</v>
+      </c>
+      <c r="F364" t="s">
+        <v>54</v>
+      </c>
+      <c r="H364" t="s">
+        <v>18</v>
+      </c>
+      <c r="I364">
+        <v>3.9885044097900304E-3</v>
+      </c>
+      <c r="J364" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>97</v>
+      </c>
+      <c r="B365">
+        <v>101</v>
+      </c>
+      <c r="C365">
+        <v>5655</v>
+      </c>
+      <c r="D365" t="s">
+        <v>48</v>
+      </c>
+      <c r="E365">
+        <v>10</v>
+      </c>
+      <c r="F365" t="s">
+        <v>54</v>
+      </c>
+      <c r="H365" t="s">
+        <v>84</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>97</v>
+      </c>
+      <c r="B366">
+        <v>101</v>
+      </c>
+      <c r="C366">
+        <v>5655</v>
+      </c>
+      <c r="D366" t="s">
+        <v>48</v>
+      </c>
+      <c r="E366">
+        <v>10</v>
+      </c>
+      <c r="F366" t="s">
+        <v>54</v>
+      </c>
+      <c r="H366" t="s">
+        <v>96</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>97</v>
+      </c>
+      <c r="B367">
+        <v>101</v>
+      </c>
+      <c r="C367">
+        <v>5655</v>
+      </c>
+      <c r="D367" t="s">
+        <v>48</v>
+      </c>
+      <c r="E367">
+        <v>10</v>
+      </c>
+      <c r="F367" t="s">
+        <v>54</v>
+      </c>
+      <c r="H367" t="s">
+        <v>16</v>
+      </c>
+      <c r="I367">
+        <v>104.987023591995</v>
+      </c>
+      <c r="J367" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>97</v>
+      </c>
+      <c r="B368">
+        <v>101</v>
+      </c>
+      <c r="C368">
+        <v>5655</v>
+      </c>
+      <c r="D368" t="s">
+        <v>48</v>
+      </c>
+      <c r="E368">
+        <v>10</v>
+      </c>
+      <c r="F368" t="s">
+        <v>54</v>
+      </c>
+      <c r="H368" t="s">
+        <v>17</v>
+      </c>
+      <c r="I368">
+        <v>9.9778175354003906E-4</v>
+      </c>
+      <c r="J368" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>97</v>
+      </c>
+      <c r="B369">
+        <v>101</v>
+      </c>
+      <c r="C369">
+        <v>5655</v>
+      </c>
+      <c r="D369" t="s">
+        <v>48</v>
+      </c>
+      <c r="E369">
+        <v>10</v>
+      </c>
+      <c r="F369" t="s">
+        <v>54</v>
+      </c>
+      <c r="H369" t="s">
+        <v>18</v>
+      </c>
+      <c r="I369">
+        <v>9.9730491638183594E-4</v>
+      </c>
+      <c r="J369" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>97</v>
+      </c>
+      <c r="B370">
+        <v>101</v>
+      </c>
+      <c r="C370">
+        <v>5655</v>
+      </c>
+      <c r="D370" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370">
         <v>5</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B340">
-        <v>71</v>
-      </c>
-      <c r="C340">
-        <v>7129</v>
-      </c>
-      <c r="E340">
+      <c r="F370" t="s">
+        <v>54</v>
+      </c>
+      <c r="H370" t="s">
+        <v>84</v>
+      </c>
+      <c r="I370">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="J370" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>97</v>
+      </c>
+      <c r="B371">
+        <v>101</v>
+      </c>
+      <c r="C371">
+        <v>5655</v>
+      </c>
+      <c r="D371" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371">
         <v>5</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B341">
-        <v>71</v>
-      </c>
-      <c r="C341">
-        <v>7129</v>
-      </c>
-      <c r="E341">
+      <c r="F371" t="s">
+        <v>54</v>
+      </c>
+      <c r="H371" t="s">
+        <v>96</v>
+      </c>
+      <c r="I371">
+        <v>0.75555555555555498</v>
+      </c>
+      <c r="J371" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>97</v>
+      </c>
+      <c r="B372">
+        <v>101</v>
+      </c>
+      <c r="C372">
+        <v>5655</v>
+      </c>
+      <c r="D372" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372">
         <v>5</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B342">
-        <v>71</v>
-      </c>
-      <c r="C342">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B343">
-        <v>71</v>
-      </c>
-      <c r="C343">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B344">
-        <v>71</v>
-      </c>
-      <c r="C344">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B345">
-        <v>71</v>
-      </c>
-      <c r="C345">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B346">
-        <v>71</v>
-      </c>
-      <c r="C346">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B347">
-        <v>71</v>
-      </c>
-      <c r="C347">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B348">
-        <v>71</v>
-      </c>
-      <c r="C348">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B349">
-        <v>71</v>
-      </c>
-      <c r="C349">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B350">
-        <v>71</v>
-      </c>
-      <c r="C350">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B351">
-        <v>71</v>
-      </c>
-      <c r="C351">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B352">
-        <v>71</v>
-      </c>
-      <c r="C352">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B353">
-        <v>71</v>
-      </c>
-      <c r="C353">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B354">
-        <v>71</v>
-      </c>
-      <c r="C354">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B355">
-        <v>71</v>
-      </c>
-      <c r="C355">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B356">
-        <v>71</v>
-      </c>
-      <c r="C356">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B357">
-        <v>71</v>
-      </c>
-      <c r="C357">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B358">
-        <v>71</v>
-      </c>
-      <c r="C358">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B359">
-        <v>71</v>
-      </c>
-      <c r="C359">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B360">
-        <v>71</v>
-      </c>
-      <c r="C360">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B361">
-        <v>71</v>
-      </c>
-      <c r="C361">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B362">
-        <v>71</v>
-      </c>
-      <c r="C362">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B363">
-        <v>71</v>
-      </c>
-      <c r="C363">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B364">
-        <v>71</v>
-      </c>
-      <c r="C364">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B365">
-        <v>71</v>
-      </c>
-      <c r="C365">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B366">
-        <v>71</v>
-      </c>
-      <c r="C366">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B367">
-        <v>71</v>
-      </c>
-      <c r="C367">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B368">
-        <v>71</v>
-      </c>
-      <c r="C368">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B369">
-        <v>71</v>
-      </c>
-      <c r="C369">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B370">
-        <v>71</v>
-      </c>
-      <c r="C370">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B371">
-        <v>71</v>
-      </c>
-      <c r="C371">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B372">
-        <v>71</v>
-      </c>
-      <c r="C372">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F372" t="s">
+        <v>54</v>
+      </c>
+      <c r="H372" t="s">
+        <v>16</v>
+      </c>
+      <c r="I372">
+        <v>4.9158442020416198</v>
+      </c>
+      <c r="J372" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>97</v>
+      </c>
       <c r="B373">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C373">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D373" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373">
+        <v>5</v>
+      </c>
+      <c r="F373" t="s">
+        <v>54</v>
+      </c>
+      <c r="H373" t="s">
+        <v>17</v>
+      </c>
+      <c r="I373">
+        <v>9.9730491638183594E-4</v>
+      </c>
+      <c r="J373" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>97</v>
+      </c>
       <c r="B374">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C374">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D374" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374">
+        <v>5</v>
+      </c>
+      <c r="F374" t="s">
+        <v>54</v>
+      </c>
+      <c r="H374" t="s">
+        <v>18</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>97</v>
+      </c>
       <c r="B375">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C375">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D375" t="s">
+        <v>14</v>
+      </c>
+      <c r="E375">
+        <v>5</v>
+      </c>
+      <c r="F375" t="s">
+        <v>54</v>
+      </c>
+      <c r="H375" t="s">
+        <v>84</v>
+      </c>
+      <c r="I375">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="J375" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>97</v>
+      </c>
       <c r="B376">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C376">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D376" t="s">
+        <v>14</v>
+      </c>
+      <c r="E376">
+        <v>5</v>
+      </c>
+      <c r="F376" t="s">
+        <v>54</v>
+      </c>
+      <c r="H376" t="s">
+        <v>96</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>97</v>
+      </c>
       <c r="B377">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C377">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D377" t="s">
+        <v>14</v>
+      </c>
+      <c r="E377">
+        <v>5</v>
+      </c>
+      <c r="F377" t="s">
+        <v>54</v>
+      </c>
+      <c r="H377" t="s">
+        <v>16</v>
+      </c>
+      <c r="I377">
+        <v>0.308171987533569</v>
+      </c>
+      <c r="J377" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>97</v>
+      </c>
       <c r="B378">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C378">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D378" t="s">
+        <v>14</v>
+      </c>
+      <c r="E378">
+        <v>5</v>
+      </c>
+      <c r="F378" t="s">
+        <v>54</v>
+      </c>
+      <c r="H378" t="s">
+        <v>17</v>
+      </c>
+      <c r="I378">
+        <v>1.9950866699218698E-3</v>
+      </c>
+      <c r="J378" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>97</v>
+      </c>
       <c r="B379">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C379">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D379" t="s">
+        <v>14</v>
+      </c>
+      <c r="E379">
+        <v>5</v>
+      </c>
+      <c r="F379" t="s">
+        <v>54</v>
+      </c>
+      <c r="H379" t="s">
+        <v>18</v>
+      </c>
+      <c r="I379">
+        <v>9.9754333496093707E-4</v>
+      </c>
+      <c r="J379" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>97</v>
+      </c>
       <c r="B380">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C380">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D380" t="s">
+        <v>19</v>
+      </c>
+      <c r="E380">
+        <v>5</v>
+      </c>
+      <c r="F380" t="s">
+        <v>54</v>
+      </c>
+      <c r="H380" t="s">
+        <v>84</v>
+      </c>
+      <c r="I380">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="J380" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>97</v>
+      </c>
       <c r="B381">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C381">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D381" t="s">
+        <v>19</v>
+      </c>
+      <c r="E381">
+        <v>5</v>
+      </c>
+      <c r="F381" t="s">
+        <v>54</v>
+      </c>
+      <c r="H381" t="s">
+        <v>96</v>
+      </c>
+      <c r="I381">
+        <v>0.44233918732073202</v>
+      </c>
+      <c r="J381" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>97</v>
+      </c>
       <c r="B382">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C382">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D382" t="s">
+        <v>19</v>
+      </c>
+      <c r="E382">
+        <v>5</v>
+      </c>
+      <c r="F382" t="s">
+        <v>54</v>
+      </c>
+      <c r="H382" t="s">
+        <v>16</v>
+      </c>
+      <c r="I382">
+        <v>0.55756068229675204</v>
+      </c>
+      <c r="J382" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>97</v>
+      </c>
       <c r="B383">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C383">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D383" t="s">
+        <v>19</v>
+      </c>
+      <c r="E383">
+        <v>5</v>
+      </c>
+      <c r="F383" t="s">
+        <v>54</v>
+      </c>
+      <c r="H383" t="s">
+        <v>17</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>97</v>
+      </c>
       <c r="B384">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C384">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D384" t="s">
+        <v>19</v>
+      </c>
+      <c r="E384">
+        <v>5</v>
+      </c>
+      <c r="F384" t="s">
+        <v>54</v>
+      </c>
+      <c r="H384" t="s">
+        <v>18</v>
+      </c>
+      <c r="I384">
+        <v>9.8538398742675695E-4</v>
+      </c>
+      <c r="J384" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>97</v>
+      </c>
       <c r="B385">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C385">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D385" t="s">
+        <v>20</v>
+      </c>
+      <c r="E385">
+        <v>5</v>
+      </c>
+      <c r="F385" t="s">
+        <v>54</v>
+      </c>
+      <c r="H385" t="s">
+        <v>84</v>
+      </c>
+      <c r="I385">
+        <v>1</v>
+      </c>
+      <c r="J385" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>97</v>
+      </c>
       <c r="B386">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C386">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D386" t="s">
+        <v>20</v>
+      </c>
+      <c r="E386">
+        <v>5</v>
+      </c>
+      <c r="F386" t="s">
+        <v>54</v>
+      </c>
+      <c r="H386" t="s">
+        <v>96</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+      <c r="J386" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>97</v>
+      </c>
       <c r="B387">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C387">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D387" t="s">
+        <v>20</v>
+      </c>
+      <c r="E387">
+        <v>5</v>
+      </c>
+      <c r="F387" t="s">
+        <v>54</v>
+      </c>
+      <c r="H387" t="s">
+        <v>16</v>
+      </c>
+      <c r="I387">
+        <v>1.29773616790771E-2</v>
+      </c>
+      <c r="J387" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>97</v>
+      </c>
       <c r="B388">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C388">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D388" t="s">
+        <v>20</v>
+      </c>
+      <c r="E388">
+        <v>5</v>
+      </c>
+      <c r="F388" t="s">
+        <v>54</v>
+      </c>
+      <c r="H388" t="s">
+        <v>17</v>
+      </c>
+      <c r="I388">
+        <v>1.0000467300414999E-2</v>
+      </c>
+      <c r="J388" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>97</v>
+      </c>
       <c r="B389">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C389">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D389" t="s">
+        <v>20</v>
+      </c>
+      <c r="E389">
+        <v>5</v>
+      </c>
+      <c r="F389" t="s">
+        <v>54</v>
+      </c>
+      <c r="H389" t="s">
+        <v>18</v>
+      </c>
+      <c r="I389">
+        <v>5.9571266174316398E-3</v>
+      </c>
+      <c r="J389" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>97</v>
+      </c>
       <c r="B390">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C390">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D390" t="s">
+        <v>21</v>
+      </c>
+      <c r="E390">
+        <v>5</v>
+      </c>
+      <c r="F390" t="s">
+        <v>54</v>
+      </c>
+      <c r="H390" t="s">
+        <v>84</v>
+      </c>
+      <c r="I390">
+        <v>1</v>
+      </c>
+      <c r="J390" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>97</v>
+      </c>
       <c r="B391">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C391">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D391" t="s">
+        <v>21</v>
+      </c>
+      <c r="E391">
+        <v>5</v>
+      </c>
+      <c r="F391" t="s">
+        <v>54</v>
+      </c>
+      <c r="H391" t="s">
+        <v>96</v>
+      </c>
+      <c r="I391">
+        <v>1</v>
+      </c>
+      <c r="J391" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>97</v>
+      </c>
       <c r="B392">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C392">
-        <v>7129</v>
-      </c>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
+        <v>5655</v>
+      </c>
+      <c r="D392" t="s">
+        <v>21</v>
+      </c>
+      <c r="E392">
+        <v>5</v>
+      </c>
+      <c r="F392" t="s">
+        <v>54</v>
+      </c>
+      <c r="H392" t="s">
+        <v>16</v>
+      </c>
+      <c r="I392">
+        <v>82.599888086318899</v>
+      </c>
+      <c r="J392" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>97</v>
+      </c>
       <c r="B393">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C393">
-        <v>7129</v>
+        <v>5655</v>
+      </c>
+      <c r="D393" t="s">
+        <v>21</v>
+      </c>
+      <c r="E393">
+        <v>5</v>
+      </c>
+      <c r="F393" t="s">
+        <v>54</v>
+      </c>
+      <c r="H393" t="s">
+        <v>17</v>
+      </c>
+      <c r="I393">
+        <v>3.9908885955810504E-3</v>
+      </c>
+      <c r="J393" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>97</v>
+      </c>
+      <c r="B394">
+        <v>101</v>
+      </c>
+      <c r="C394">
+        <v>5655</v>
+      </c>
+      <c r="D394" t="s">
+        <v>21</v>
+      </c>
+      <c r="E394">
+        <v>5</v>
+      </c>
+      <c r="F394" t="s">
+        <v>54</v>
+      </c>
+      <c r="H394" t="s">
+        <v>18</v>
+      </c>
+      <c r="I394">
+        <v>3.9885044097900304E-3</v>
+      </c>
+      <c r="J394" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>97</v>
+      </c>
+      <c r="B395">
+        <v>101</v>
+      </c>
+      <c r="C395">
+        <v>5655</v>
+      </c>
+      <c r="D395" t="s">
+        <v>48</v>
+      </c>
+      <c r="E395">
+        <v>5</v>
+      </c>
+      <c r="F395" t="s">
+        <v>54</v>
+      </c>
+      <c r="H395" t="s">
+        <v>84</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>97</v>
+      </c>
+      <c r="B396">
+        <v>101</v>
+      </c>
+      <c r="C396">
+        <v>5655</v>
+      </c>
+      <c r="D396" t="s">
+        <v>48</v>
+      </c>
+      <c r="E396">
+        <v>5</v>
+      </c>
+      <c r="F396" t="s">
+        <v>54</v>
+      </c>
+      <c r="H396" t="s">
+        <v>96</v>
+      </c>
+      <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>97</v>
+      </c>
+      <c r="B397">
+        <v>101</v>
+      </c>
+      <c r="C397">
+        <v>5655</v>
+      </c>
+      <c r="D397" t="s">
+        <v>48</v>
+      </c>
+      <c r="E397">
+        <v>5</v>
+      </c>
+      <c r="F397" t="s">
+        <v>54</v>
+      </c>
+      <c r="H397" t="s">
+        <v>16</v>
+      </c>
+      <c r="I397">
+        <v>110.51457977294901</v>
+      </c>
+      <c r="J397" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>97</v>
+      </c>
+      <c r="B398">
+        <v>101</v>
+      </c>
+      <c r="C398">
+        <v>5655</v>
+      </c>
+      <c r="D398" t="s">
+        <v>48</v>
+      </c>
+      <c r="E398">
+        <v>5</v>
+      </c>
+      <c r="F398" t="s">
+        <v>54</v>
+      </c>
+      <c r="H398" t="s">
+        <v>17</v>
+      </c>
+      <c r="I398">
+        <v>0.19432711601257299</v>
+      </c>
+      <c r="J398" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>97</v>
+      </c>
+      <c r="B399">
+        <v>101</v>
+      </c>
+      <c r="C399">
+        <v>5655</v>
+      </c>
+      <c r="D399" t="s">
+        <v>48</v>
+      </c>
+      <c r="E399">
+        <v>5</v>
+      </c>
+      <c r="F399" t="s">
+        <v>54</v>
+      </c>
+      <c r="H399" t="s">
+        <v>18</v>
+      </c>
+      <c r="I399">
+        <v>1.08582973480224E-2</v>
+      </c>
+      <c r="J399" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>98</v>
+      </c>
+      <c r="B400">
+        <v>162</v>
+      </c>
+      <c r="C400">
+        <v>1308</v>
+      </c>
+      <c r="I400">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>98</v>
+      </c>
+      <c r="B401">
+        <v>162</v>
+      </c>
+      <c r="C401">
+        <v>1308</v>
+      </c>
+      <c r="D401" t="s">
+        <v>11</v>
+      </c>
+      <c r="E401">
+        <v>10</v>
+      </c>
+      <c r="F401" t="s">
+        <v>54</v>
+      </c>
+      <c r="H401" t="s">
+        <v>84</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>98</v>
+      </c>
+      <c r="B402">
+        <v>162</v>
+      </c>
+      <c r="C402">
+        <v>1308</v>
+      </c>
+      <c r="D402" t="s">
+        <v>11</v>
+      </c>
+      <c r="E402">
+        <v>10</v>
+      </c>
+      <c r="F402" t="s">
+        <v>54</v>
+      </c>
+      <c r="H402" t="s">
+        <v>96</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>98</v>
+      </c>
+      <c r="B403">
+        <v>162</v>
+      </c>
+      <c r="C403">
+        <v>1308</v>
+      </c>
+      <c r="D403" t="s">
+        <v>11</v>
+      </c>
+      <c r="E403">
+        <v>10</v>
+      </c>
+      <c r="F403" t="s">
+        <v>54</v>
+      </c>
+      <c r="H403" t="s">
+        <v>13</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+      <c r="J403" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>98</v>
+      </c>
+      <c r="B404">
+        <v>162</v>
+      </c>
+      <c r="C404">
+        <v>1308</v>
+      </c>
+      <c r="D404" t="s">
+        <v>11</v>
+      </c>
+      <c r="E404">
+        <v>10</v>
+      </c>
+      <c r="F404" t="s">
+        <v>54</v>
+      </c>
+      <c r="H404" t="s">
+        <v>16</v>
+      </c>
+      <c r="I404">
+        <v>6.5794165134429896</v>
+      </c>
+      <c r="J404" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>98</v>
+      </c>
+      <c r="B405">
+        <v>162</v>
+      </c>
+      <c r="C405">
+        <v>1308</v>
+      </c>
+      <c r="D405" t="s">
+        <v>11</v>
+      </c>
+      <c r="E405">
+        <v>10</v>
+      </c>
+      <c r="F405" t="s">
+        <v>54</v>
+      </c>
+      <c r="H405" t="s">
+        <v>17</v>
+      </c>
+      <c r="I405">
+        <v>0.21341681480407701</v>
+      </c>
+      <c r="J405" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>98</v>
+      </c>
+      <c r="B406">
+        <v>162</v>
+      </c>
+      <c r="C406">
+        <v>1308</v>
+      </c>
+      <c r="D406" t="s">
+        <v>11</v>
+      </c>
+      <c r="E406">
+        <v>10</v>
+      </c>
+      <c r="F406" t="s">
+        <v>54</v>
+      </c>
+      <c r="H406" t="s">
+        <v>18</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>98</v>
+      </c>
+      <c r="B407">
+        <v>162</v>
+      </c>
+      <c r="C407">
+        <v>1308</v>
+      </c>
+      <c r="D407" t="s">
+        <v>14</v>
+      </c>
+      <c r="E407">
+        <v>10</v>
+      </c>
+      <c r="F407" t="s">
+        <v>54</v>
+      </c>
+      <c r="H407" t="s">
+        <v>84</v>
+      </c>
+      <c r="I407">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="J407" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>98</v>
+      </c>
+      <c r="B408">
+        <v>162</v>
+      </c>
+      <c r="C408">
+        <v>1308</v>
+      </c>
+      <c r="D408" t="s">
+        <v>14</v>
+      </c>
+      <c r="E408">
+        <v>10</v>
+      </c>
+      <c r="F408" t="s">
+        <v>54</v>
+      </c>
+      <c r="H408" t="s">
+        <v>96</v>
+      </c>
+      <c r="I408">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="J408" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>98</v>
+      </c>
+      <c r="B409">
+        <v>162</v>
+      </c>
+      <c r="C409">
+        <v>1308</v>
+      </c>
+      <c r="D409" t="s">
+        <v>14</v>
+      </c>
+      <c r="E409">
+        <v>10</v>
+      </c>
+      <c r="F409" t="s">
+        <v>54</v>
+      </c>
+      <c r="H409" t="s">
+        <v>13</v>
+      </c>
+      <c r="I409">
+        <v>0.89166666666666605</v>
+      </c>
+      <c r="J409" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>98</v>
+      </c>
+      <c r="B410">
+        <v>162</v>
+      </c>
+      <c r="C410">
+        <v>1308</v>
+      </c>
+      <c r="D410" t="s">
+        <v>14</v>
+      </c>
+      <c r="E410">
+        <v>10</v>
+      </c>
+      <c r="F410" t="s">
+        <v>54</v>
+      </c>
+      <c r="H410" t="s">
+        <v>16</v>
+      </c>
+      <c r="I410">
+        <v>5.8806180953979402E-2</v>
+      </c>
+      <c r="J410" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>98</v>
+      </c>
+      <c r="B411">
+        <v>162</v>
+      </c>
+      <c r="C411">
+        <v>1308</v>
+      </c>
+      <c r="D411" t="s">
+        <v>14</v>
+      </c>
+      <c r="E411">
+        <v>10</v>
+      </c>
+      <c r="F411" t="s">
+        <v>54</v>
+      </c>
+      <c r="H411" t="s">
+        <v>17</v>
+      </c>
+      <c r="I411">
+        <v>9.9778175354003906E-4</v>
+      </c>
+      <c r="J411" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>98</v>
+      </c>
+      <c r="B412">
+        <v>162</v>
+      </c>
+      <c r="C412">
+        <v>1308</v>
+      </c>
+      <c r="D412" t="s">
+        <v>14</v>
+      </c>
+      <c r="E412">
+        <v>10</v>
+      </c>
+      <c r="F412" t="s">
+        <v>54</v>
+      </c>
+      <c r="H412" t="s">
+        <v>18</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>98</v>
+      </c>
+      <c r="B413">
+        <v>162</v>
+      </c>
+      <c r="C413">
+        <v>1308</v>
+      </c>
+      <c r="D413" t="s">
+        <v>19</v>
+      </c>
+      <c r="E413">
+        <v>10</v>
+      </c>
+      <c r="F413" t="s">
+        <v>54</v>
+      </c>
+      <c r="H413" t="s">
+        <v>84</v>
+      </c>
+      <c r="I413">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="J413" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>98</v>
+      </c>
+      <c r="B414">
+        <v>162</v>
+      </c>
+      <c r="C414">
+        <v>1308</v>
+      </c>
+      <c r="D414" t="s">
+        <v>19</v>
+      </c>
+      <c r="E414">
+        <v>10</v>
+      </c>
+      <c r="F414" t="s">
+        <v>54</v>
+      </c>
+      <c r="H414" t="s">
+        <v>96</v>
+      </c>
+      <c r="I414">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="J414" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>98</v>
+      </c>
+      <c r="B415">
+        <v>162</v>
+      </c>
+      <c r="C415">
+        <v>1308</v>
+      </c>
+      <c r="D415" t="s">
+        <v>19</v>
+      </c>
+      <c r="E415">
+        <v>10</v>
+      </c>
+      <c r="F415" t="s">
+        <v>54</v>
+      </c>
+      <c r="H415" t="s">
+        <v>13</v>
+      </c>
+      <c r="I415">
+        <v>0.91041666666666599</v>
+      </c>
+      <c r="J415" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>98</v>
+      </c>
+      <c r="B416">
+        <v>162</v>
+      </c>
+      <c r="C416">
+        <v>1308</v>
+      </c>
+      <c r="D416" t="s">
+        <v>19</v>
+      </c>
+      <c r="E416">
+        <v>10</v>
+      </c>
+      <c r="F416" t="s">
+        <v>54</v>
+      </c>
+      <c r="H416" t="s">
+        <v>16</v>
+      </c>
+      <c r="I416">
+        <v>0.34515380859375</v>
+      </c>
+      <c r="J416" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>98</v>
+      </c>
+      <c r="B417">
+        <v>162</v>
+      </c>
+      <c r="C417">
+        <v>1308</v>
+      </c>
+      <c r="D417" t="s">
+        <v>19</v>
+      </c>
+      <c r="E417">
+        <v>10</v>
+      </c>
+      <c r="F417" t="s">
+        <v>54</v>
+      </c>
+      <c r="H417" t="s">
+        <v>17</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>98</v>
+      </c>
+      <c r="B418">
+        <v>162</v>
+      </c>
+      <c r="C418">
+        <v>1308</v>
+      </c>
+      <c r="D418" t="s">
+        <v>19</v>
+      </c>
+      <c r="E418">
+        <v>10</v>
+      </c>
+      <c r="F418" t="s">
+        <v>54</v>
+      </c>
+      <c r="H418" t="s">
+        <v>18</v>
+      </c>
+      <c r="I418">
+        <v>9.4509124755859299E-4</v>
+      </c>
+      <c r="J418" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>98</v>
+      </c>
+      <c r="B419">
+        <v>162</v>
+      </c>
+      <c r="C419">
+        <v>1308</v>
+      </c>
+      <c r="D419" t="s">
+        <v>20</v>
+      </c>
+      <c r="E419">
+        <v>10</v>
+      </c>
+      <c r="F419" t="s">
+        <v>54</v>
+      </c>
+      <c r="H419" t="s">
+        <v>84</v>
+      </c>
+      <c r="I419">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>98</v>
+      </c>
+      <c r="B420">
+        <v>162</v>
+      </c>
+      <c r="C420">
+        <v>1308</v>
+      </c>
+      <c r="D420" t="s">
+        <v>20</v>
+      </c>
+      <c r="E420">
+        <v>10</v>
+      </c>
+      <c r="F420" t="s">
+        <v>54</v>
+      </c>
+      <c r="H420" t="s">
+        <v>96</v>
+      </c>
+      <c r="I420">
+        <v>0.65741124304628396</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>98</v>
+      </c>
+      <c r="B421">
+        <v>162</v>
+      </c>
+      <c r="C421">
+        <v>1308</v>
+      </c>
+      <c r="D421" t="s">
+        <v>20</v>
+      </c>
+      <c r="E421">
+        <v>10</v>
+      </c>
+      <c r="F421" t="s">
+        <v>54</v>
+      </c>
+      <c r="H421" t="s">
+        <v>13</v>
+      </c>
+      <c r="I421">
+        <v>0.97708333333333297</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>98</v>
+      </c>
+      <c r="B422">
+        <v>162</v>
+      </c>
+      <c r="C422">
+        <v>1308</v>
+      </c>
+      <c r="D422" t="s">
+        <v>20</v>
+      </c>
+      <c r="E422">
+        <v>10</v>
+      </c>
+      <c r="F422" t="s">
+        <v>54</v>
+      </c>
+      <c r="H422" t="s">
+        <v>16</v>
+      </c>
+      <c r="I422">
+        <v>4.0290355682373004E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>98</v>
+      </c>
+      <c r="B423">
+        <v>162</v>
+      </c>
+      <c r="C423">
+        <v>1308</v>
+      </c>
+      <c r="D423" t="s">
+        <v>20</v>
+      </c>
+      <c r="E423">
+        <v>10</v>
+      </c>
+      <c r="F423" t="s">
+        <v>54</v>
+      </c>
+      <c r="H423" t="s">
+        <v>17</v>
+      </c>
+      <c r="I423">
+        <v>3.9908885955810504E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>98</v>
+      </c>
+      <c r="B424">
+        <v>162</v>
+      </c>
+      <c r="C424">
+        <v>1308</v>
+      </c>
+      <c r="D424" t="s">
+        <v>20</v>
+      </c>
+      <c r="E424">
+        <v>10</v>
+      </c>
+      <c r="F424" t="s">
+        <v>54</v>
+      </c>
+      <c r="H424" t="s">
+        <v>18</v>
+      </c>
+      <c r="I424">
+        <v>1.9938945770263598E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>98</v>
+      </c>
+      <c r="B425">
+        <v>162</v>
+      </c>
+      <c r="C425">
+        <v>1308</v>
+      </c>
+      <c r="D425" t="s">
+        <v>21</v>
+      </c>
+      <c r="E425">
+        <v>10</v>
+      </c>
+      <c r="F425" t="s">
+        <v>54</v>
+      </c>
+      <c r="H425" t="s">
+        <v>84</v>
+      </c>
+      <c r="I425">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>98</v>
+      </c>
+      <c r="B426">
+        <v>162</v>
+      </c>
+      <c r="C426">
+        <v>1308</v>
+      </c>
+      <c r="D426" t="s">
+        <v>21</v>
+      </c>
+      <c r="E426">
+        <v>10</v>
+      </c>
+      <c r="F426" t="s">
+        <v>54</v>
+      </c>
+      <c r="H426" t="s">
+        <v>96</v>
+      </c>
+      <c r="I426">
+        <v>0.48591265790377502</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>98</v>
+      </c>
+      <c r="B427">
+        <v>162</v>
+      </c>
+      <c r="C427">
+        <v>1308</v>
+      </c>
+      <c r="D427" t="s">
+        <v>21</v>
+      </c>
+      <c r="E427">
+        <v>10</v>
+      </c>
+      <c r="F427" t="s">
+        <v>54</v>
+      </c>
+      <c r="H427" t="s">
+        <v>13</v>
+      </c>
+      <c r="I427">
+        <v>0.87083333333333302</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>98</v>
+      </c>
+      <c r="B428">
+        <v>162</v>
+      </c>
+      <c r="C428">
+        <v>1308</v>
+      </c>
+      <c r="D428" t="s">
+        <v>21</v>
+      </c>
+      <c r="E428">
+        <v>10</v>
+      </c>
+      <c r="F428" t="s">
+        <v>54</v>
+      </c>
+      <c r="H428" t="s">
+        <v>16</v>
+      </c>
+      <c r="I428">
+        <v>15.4246785640716</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>98</v>
+      </c>
+      <c r="B429">
+        <v>162</v>
+      </c>
+      <c r="C429">
+        <v>1308</v>
+      </c>
+      <c r="D429" t="s">
+        <v>21</v>
+      </c>
+      <c r="E429">
+        <v>10</v>
+      </c>
+      <c r="F429" t="s">
+        <v>54</v>
+      </c>
+      <c r="H429" t="s">
+        <v>17</v>
+      </c>
+      <c r="I429">
+        <v>3.9892196655273403E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>98</v>
+      </c>
+      <c r="B430">
+        <v>162</v>
+      </c>
+      <c r="C430">
+        <v>1308</v>
+      </c>
+      <c r="D430" t="s">
+        <v>21</v>
+      </c>
+      <c r="E430">
+        <v>10</v>
+      </c>
+      <c r="F430" t="s">
+        <v>54</v>
+      </c>
+      <c r="H430" t="s">
+        <v>18</v>
+      </c>
+      <c r="I430">
+        <v>2.9916763305664002E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>98</v>
+      </c>
+      <c r="B431">
+        <v>162</v>
+      </c>
+      <c r="C431">
+        <v>1308</v>
+      </c>
+      <c r="D431" t="s">
+        <v>48</v>
+      </c>
+      <c r="E431">
+        <v>10</v>
+      </c>
+      <c r="F431" t="s">
+        <v>54</v>
+      </c>
+      <c r="H431" t="s">
+        <v>84</v>
+      </c>
+      <c r="I431">
+        <v>1</v>
+      </c>
+      <c r="J431" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>98</v>
+      </c>
+      <c r="B432">
+        <v>162</v>
+      </c>
+      <c r="C432">
+        <v>1308</v>
+      </c>
+      <c r="D432" t="s">
+        <v>48</v>
+      </c>
+      <c r="E432">
+        <v>10</v>
+      </c>
+      <c r="F432" t="s">
+        <v>54</v>
+      </c>
+      <c r="H432" t="s">
+        <v>96</v>
+      </c>
+      <c r="I432">
+        <v>1</v>
+      </c>
+      <c r="J432" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>98</v>
+      </c>
+      <c r="B433">
+        <v>162</v>
+      </c>
+      <c r="C433">
+        <v>1308</v>
+      </c>
+      <c r="D433" t="s">
+        <v>48</v>
+      </c>
+      <c r="E433">
+        <v>10</v>
+      </c>
+      <c r="F433" t="s">
+        <v>54</v>
+      </c>
+      <c r="H433" t="s">
+        <v>13</v>
+      </c>
+      <c r="I433">
+        <v>1</v>
+      </c>
+      <c r="J433" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>98</v>
+      </c>
+      <c r="B434">
+        <v>162</v>
+      </c>
+      <c r="C434">
+        <v>1308</v>
+      </c>
+      <c r="D434" t="s">
+        <v>48</v>
+      </c>
+      <c r="E434">
+        <v>10</v>
+      </c>
+      <c r="F434" t="s">
+        <v>54</v>
+      </c>
+      <c r="H434" t="s">
+        <v>16</v>
+      </c>
+      <c r="I434">
+        <v>14.235937833786</v>
+      </c>
+      <c r="J434" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>98</v>
+      </c>
+      <c r="B435">
+        <v>162</v>
+      </c>
+      <c r="C435">
+        <v>1308</v>
+      </c>
+      <c r="D435" t="s">
+        <v>48</v>
+      </c>
+      <c r="E435">
+        <v>10</v>
+      </c>
+      <c r="F435" t="s">
+        <v>54</v>
+      </c>
+      <c r="H435" t="s">
+        <v>17</v>
+      </c>
+      <c r="I435">
+        <v>9.984970092773431E-4</v>
+      </c>
+      <c r="J435" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>98</v>
+      </c>
+      <c r="B436">
+        <v>162</v>
+      </c>
+      <c r="C436">
+        <v>1308</v>
+      </c>
+      <c r="D436" t="s">
+        <v>48</v>
+      </c>
+      <c r="E436">
+        <v>10</v>
+      </c>
+      <c r="F436" t="s">
+        <v>54</v>
+      </c>
+      <c r="H436" t="s">
+        <v>18</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>98</v>
+      </c>
+      <c r="B437">
+        <v>162</v>
+      </c>
+      <c r="C437">
+        <v>1308</v>
+      </c>
+      <c r="D437" t="s">
+        <v>11</v>
+      </c>
+      <c r="E437">
+        <v>20</v>
+      </c>
+      <c r="F437" t="s">
+        <v>54</v>
+      </c>
+      <c r="H437" t="s">
+        <v>84</v>
+      </c>
+      <c r="I437">
+        <v>1</v>
+      </c>
+      <c r="J437" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>98</v>
+      </c>
+      <c r="B438">
+        <v>162</v>
+      </c>
+      <c r="C438">
+        <v>1308</v>
+      </c>
+      <c r="D438" t="s">
+        <v>11</v>
+      </c>
+      <c r="E438">
+        <v>20</v>
+      </c>
+      <c r="F438" t="s">
+        <v>54</v>
+      </c>
+      <c r="H438" t="s">
+        <v>96</v>
+      </c>
+      <c r="I438">
+        <v>1</v>
+      </c>
+      <c r="J438" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>98</v>
+      </c>
+      <c r="B439">
+        <v>162</v>
+      </c>
+      <c r="C439">
+        <v>1308</v>
+      </c>
+      <c r="D439" t="s">
+        <v>11</v>
+      </c>
+      <c r="E439">
+        <v>20</v>
+      </c>
+      <c r="F439" t="s">
+        <v>54</v>
+      </c>
+      <c r="H439" t="s">
+        <v>13</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+      <c r="J439" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>98</v>
+      </c>
+      <c r="B440">
+        <v>162</v>
+      </c>
+      <c r="C440">
+        <v>1308</v>
+      </c>
+      <c r="D440" t="s">
+        <v>11</v>
+      </c>
+      <c r="E440">
+        <v>20</v>
+      </c>
+      <c r="F440" t="s">
+        <v>54</v>
+      </c>
+      <c r="H440" t="s">
+        <v>16</v>
+      </c>
+      <c r="I440">
+        <v>5.7105565071105904</v>
+      </c>
+      <c r="J440" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>98</v>
+      </c>
+      <c r="B441">
+        <v>162</v>
+      </c>
+      <c r="C441">
+        <v>1308</v>
+      </c>
+      <c r="D441" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441">
+        <v>20</v>
+      </c>
+      <c r="F441" t="s">
+        <v>54</v>
+      </c>
+      <c r="H441" t="s">
+        <v>17</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>98</v>
+      </c>
+      <c r="B442">
+        <v>162</v>
+      </c>
+      <c r="C442">
+        <v>1308</v>
+      </c>
+      <c r="D442" t="s">
+        <v>11</v>
+      </c>
+      <c r="E442">
+        <v>20</v>
+      </c>
+      <c r="F442" t="s">
+        <v>54</v>
+      </c>
+      <c r="H442" t="s">
+        <v>18</v>
+      </c>
+      <c r="I442">
+        <v>1.0230541229247999E-3</v>
+      </c>
+      <c r="J442" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>98</v>
+      </c>
+      <c r="B443">
+        <v>162</v>
+      </c>
+      <c r="C443">
+        <v>1308</v>
+      </c>
+      <c r="D443" t="s">
+        <v>14</v>
+      </c>
+      <c r="E443">
+        <v>20</v>
+      </c>
+      <c r="F443" t="s">
+        <v>54</v>
+      </c>
+      <c r="H443" t="s">
+        <v>84</v>
+      </c>
+      <c r="I443">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="J443" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>98</v>
+      </c>
+      <c r="B444">
+        <v>162</v>
+      </c>
+      <c r="C444">
+        <v>1308</v>
+      </c>
+      <c r="D444" t="s">
+        <v>14</v>
+      </c>
+      <c r="E444">
+        <v>20</v>
+      </c>
+      <c r="F444" t="s">
+        <v>54</v>
+      </c>
+      <c r="H444" t="s">
+        <v>96</v>
+      </c>
+      <c r="I444">
+        <v>9.7230558532824599E-2</v>
+      </c>
+      <c r="J444" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>98</v>
+      </c>
+      <c r="B445">
+        <v>162</v>
+      </c>
+      <c r="C445">
+        <v>1308</v>
+      </c>
+      <c r="D445" t="s">
+        <v>14</v>
+      </c>
+      <c r="E445">
+        <v>20</v>
+      </c>
+      <c r="F445" t="s">
+        <v>54</v>
+      </c>
+      <c r="H445" t="s">
+        <v>13</v>
+      </c>
+      <c r="I445">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="J445" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>98</v>
+      </c>
+      <c r="B446">
+        <v>162</v>
+      </c>
+      <c r="C446">
+        <v>1308</v>
+      </c>
+      <c r="D446" t="s">
+        <v>14</v>
+      </c>
+      <c r="E446">
+        <v>20</v>
+      </c>
+      <c r="F446" t="s">
+        <v>54</v>
+      </c>
+      <c r="H446" t="s">
+        <v>16</v>
+      </c>
+      <c r="I446">
+        <v>5.7844400405883699E-2</v>
+      </c>
+      <c r="J446" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>98</v>
+      </c>
+      <c r="B447">
+        <v>162</v>
+      </c>
+      <c r="C447">
+        <v>1308</v>
+      </c>
+      <c r="D447" t="s">
+        <v>14</v>
+      </c>
+      <c r="E447">
+        <v>20</v>
+      </c>
+      <c r="F447" t="s">
+        <v>54</v>
+      </c>
+      <c r="H447" t="s">
+        <v>17</v>
+      </c>
+      <c r="I447">
+        <v>9.9778175354003906E-4</v>
+      </c>
+      <c r="J447" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>98</v>
+      </c>
+      <c r="B448">
+        <v>162</v>
+      </c>
+      <c r="C448">
+        <v>1308</v>
+      </c>
+      <c r="D448" t="s">
+        <v>14</v>
+      </c>
+      <c r="E448">
+        <v>20</v>
+      </c>
+      <c r="F448" t="s">
+        <v>54</v>
+      </c>
+      <c r="H448" t="s">
+        <v>18</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>98</v>
+      </c>
+      <c r="B449">
+        <v>162</v>
+      </c>
+      <c r="C449">
+        <v>1308</v>
+      </c>
+      <c r="D449" t="s">
+        <v>19</v>
+      </c>
+      <c r="E449">
+        <v>20</v>
+      </c>
+      <c r="F449" t="s">
+        <v>54</v>
+      </c>
+      <c r="H449" t="s">
+        <v>84</v>
+      </c>
+      <c r="I449">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="J449" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>98</v>
+      </c>
+      <c r="B450">
+        <v>162</v>
+      </c>
+      <c r="C450">
+        <v>1308</v>
+      </c>
+      <c r="D450" t="s">
+        <v>19</v>
+      </c>
+      <c r="E450">
+        <v>20</v>
+      </c>
+      <c r="F450" t="s">
+        <v>54</v>
+      </c>
+      <c r="H450" t="s">
+        <v>96</v>
+      </c>
+      <c r="I450">
+        <v>0.81409157841069402</v>
+      </c>
+      <c r="J450" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>98</v>
+      </c>
+      <c r="B451">
+        <v>162</v>
+      </c>
+      <c r="C451">
+        <v>1308</v>
+      </c>
+      <c r="D451" t="s">
+        <v>19</v>
+      </c>
+      <c r="E451">
+        <v>20</v>
+      </c>
+      <c r="F451" t="s">
+        <v>54</v>
+      </c>
+      <c r="H451" t="s">
+        <v>13</v>
+      </c>
+      <c r="I451">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="J451" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>98</v>
+      </c>
+      <c r="B452">
+        <v>162</v>
+      </c>
+      <c r="C452">
+        <v>1308</v>
+      </c>
+      <c r="D452" t="s">
+        <v>19</v>
+      </c>
+      <c r="E452">
+        <v>20</v>
+      </c>
+      <c r="F452" t="s">
+        <v>54</v>
+      </c>
+      <c r="H452" t="s">
+        <v>16</v>
+      </c>
+      <c r="I452">
+        <v>0.33016085624694802</v>
+      </c>
+      <c r="J452" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>98</v>
+      </c>
+      <c r="B453">
+        <v>162</v>
+      </c>
+      <c r="C453">
+        <v>1308</v>
+      </c>
+      <c r="D453" t="s">
+        <v>19</v>
+      </c>
+      <c r="E453">
+        <v>20</v>
+      </c>
+      <c r="F453" t="s">
+        <v>54</v>
+      </c>
+      <c r="H453" t="s">
+        <v>17</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>98</v>
+      </c>
+      <c r="B454">
+        <v>162</v>
+      </c>
+      <c r="C454">
+        <v>1308</v>
+      </c>
+      <c r="D454" t="s">
+        <v>19</v>
+      </c>
+      <c r="E454">
+        <v>20</v>
+      </c>
+      <c r="F454" t="s">
+        <v>54</v>
+      </c>
+      <c r="H454" t="s">
+        <v>18</v>
+      </c>
+      <c r="I454">
+        <v>9.5582008361816395E-4</v>
+      </c>
+      <c r="J454" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>98</v>
+      </c>
+      <c r="B455">
+        <v>162</v>
+      </c>
+      <c r="C455">
+        <v>1308</v>
+      </c>
+      <c r="D455" t="s">
+        <v>20</v>
+      </c>
+      <c r="E455">
+        <v>20</v>
+      </c>
+      <c r="F455" t="s">
+        <v>54</v>
+      </c>
+      <c r="H455" t="s">
+        <v>84</v>
+      </c>
+      <c r="I455">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>98</v>
+      </c>
+      <c r="B456">
+        <v>162</v>
+      </c>
+      <c r="C456">
+        <v>1308</v>
+      </c>
+      <c r="D456" t="s">
+        <v>20</v>
+      </c>
+      <c r="E456">
+        <v>20</v>
+      </c>
+      <c r="F456" t="s">
+        <v>54</v>
+      </c>
+      <c r="H456" t="s">
+        <v>96</v>
+      </c>
+      <c r="I456">
+        <v>0.65741124304628396</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>98</v>
+      </c>
+      <c r="B457">
+        <v>162</v>
+      </c>
+      <c r="C457">
+        <v>1308</v>
+      </c>
+      <c r="D457" t="s">
+        <v>20</v>
+      </c>
+      <c r="E457">
+        <v>20</v>
+      </c>
+      <c r="F457" t="s">
+        <v>54</v>
+      </c>
+      <c r="H457" t="s">
+        <v>13</v>
+      </c>
+      <c r="I457">
+        <v>0.97708333333333297</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>98</v>
+      </c>
+      <c r="B458">
+        <v>162</v>
+      </c>
+      <c r="C458">
+        <v>1308</v>
+      </c>
+      <c r="D458" t="s">
+        <v>20</v>
+      </c>
+      <c r="E458">
+        <v>20</v>
+      </c>
+      <c r="F458" t="s">
+        <v>54</v>
+      </c>
+      <c r="H458" t="s">
+        <v>16</v>
+      </c>
+      <c r="I458">
+        <v>3.9896965026855399E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>98</v>
+      </c>
+      <c r="B459">
+        <v>162</v>
+      </c>
+      <c r="C459">
+        <v>1308</v>
+      </c>
+      <c r="D459" t="s">
+        <v>20</v>
+      </c>
+      <c r="E459">
+        <v>20</v>
+      </c>
+      <c r="F459" t="s">
+        <v>54</v>
+      </c>
+      <c r="H459" t="s">
+        <v>17</v>
+      </c>
+      <c r="I459">
+        <v>2.9506683349609301E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>98</v>
+      </c>
+      <c r="B460">
+        <v>162</v>
+      </c>
+      <c r="C460">
+        <v>1308</v>
+      </c>
+      <c r="D460" t="s">
+        <v>20</v>
+      </c>
+      <c r="E460">
+        <v>20</v>
+      </c>
+      <c r="F460" t="s">
+        <v>54</v>
+      </c>
+      <c r="H460" t="s">
+        <v>18</v>
+      </c>
+      <c r="I460">
+        <v>2.0372867584228498E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>98</v>
+      </c>
+      <c r="B461">
+        <v>162</v>
+      </c>
+      <c r="C461">
+        <v>1308</v>
+      </c>
+      <c r="D461" t="s">
+        <v>21</v>
+      </c>
+      <c r="E461">
+        <v>20</v>
+      </c>
+      <c r="F461" t="s">
+        <v>54</v>
+      </c>
+      <c r="H461" t="s">
+        <v>84</v>
+      </c>
+      <c r="I461">
+        <v>0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>98</v>
+      </c>
+      <c r="B462">
+        <v>162</v>
+      </c>
+      <c r="C462">
+        <v>1308</v>
+      </c>
+      <c r="D462" t="s">
+        <v>21</v>
+      </c>
+      <c r="E462">
+        <v>20</v>
+      </c>
+      <c r="F462" t="s">
+        <v>54</v>
+      </c>
+      <c r="H462" t="s">
+        <v>96</v>
+      </c>
+      <c r="I462">
+        <v>0.82352941176470495</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>98</v>
+      </c>
+      <c r="B463">
+        <v>162</v>
+      </c>
+      <c r="C463">
+        <v>1308</v>
+      </c>
+      <c r="D463" t="s">
+        <v>21</v>
+      </c>
+      <c r="E463">
+        <v>20</v>
+      </c>
+      <c r="F463" t="s">
+        <v>54</v>
+      </c>
+      <c r="H463" t="s">
+        <v>13</v>
+      </c>
+      <c r="I463">
+        <v>0.95416666666666605</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>98</v>
+      </c>
+      <c r="B464">
+        <v>162</v>
+      </c>
+      <c r="C464">
+        <v>1308</v>
+      </c>
+      <c r="D464" t="s">
+        <v>21</v>
+      </c>
+      <c r="E464">
+        <v>20</v>
+      </c>
+      <c r="F464" t="s">
+        <v>54</v>
+      </c>
+      <c r="H464" t="s">
+        <v>16</v>
+      </c>
+      <c r="I464">
+        <v>14.6258556842803</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>98</v>
+      </c>
+      <c r="B465">
+        <v>162</v>
+      </c>
+      <c r="C465">
+        <v>1308</v>
+      </c>
+      <c r="D465" t="s">
+        <v>21</v>
+      </c>
+      <c r="E465">
+        <v>20</v>
+      </c>
+      <c r="F465" t="s">
+        <v>54</v>
+      </c>
+      <c r="H465" t="s">
+        <v>17</v>
+      </c>
+      <c r="I465">
+        <v>2.9914379119872999E-3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>98</v>
+      </c>
+      <c r="B466">
+        <v>162</v>
+      </c>
+      <c r="C466">
+        <v>1308</v>
+      </c>
+      <c r="D466" t="s">
+        <v>21</v>
+      </c>
+      <c r="E466">
+        <v>20</v>
+      </c>
+      <c r="F466" t="s">
+        <v>54</v>
+      </c>
+      <c r="H466" t="s">
+        <v>18</v>
+      </c>
+      <c r="I466">
+        <v>2.96616554260253E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>98</v>
+      </c>
+      <c r="B467">
+        <v>162</v>
+      </c>
+      <c r="C467">
+        <v>1308</v>
+      </c>
+      <c r="D467" t="s">
+        <v>48</v>
+      </c>
+      <c r="E467">
+        <v>20</v>
+      </c>
+      <c r="F467" t="s">
+        <v>54</v>
+      </c>
+      <c r="H467" t="s">
+        <v>84</v>
+      </c>
+      <c r="I467">
+        <v>1</v>
+      </c>
+      <c r="J467" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>98</v>
+      </c>
+      <c r="B468">
+        <v>162</v>
+      </c>
+      <c r="C468">
+        <v>1308</v>
+      </c>
+      <c r="D468" t="s">
+        <v>48</v>
+      </c>
+      <c r="E468">
+        <v>20</v>
+      </c>
+      <c r="F468" t="s">
+        <v>54</v>
+      </c>
+      <c r="H468" t="s">
+        <v>96</v>
+      </c>
+      <c r="I468">
+        <v>1</v>
+      </c>
+      <c r="J468" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>98</v>
+      </c>
+      <c r="B469">
+        <v>162</v>
+      </c>
+      <c r="C469">
+        <v>1308</v>
+      </c>
+      <c r="D469" t="s">
+        <v>48</v>
+      </c>
+      <c r="E469">
+        <v>20</v>
+      </c>
+      <c r="F469" t="s">
+        <v>54</v>
+      </c>
+      <c r="H469" t="s">
+        <v>13</v>
+      </c>
+      <c r="I469">
+        <v>1</v>
+      </c>
+      <c r="J469" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>98</v>
+      </c>
+      <c r="B470">
+        <v>162</v>
+      </c>
+      <c r="C470">
+        <v>1308</v>
+      </c>
+      <c r="D470" t="s">
+        <v>48</v>
+      </c>
+      <c r="E470">
+        <v>20</v>
+      </c>
+      <c r="F470" t="s">
+        <v>54</v>
+      </c>
+      <c r="H470" t="s">
+        <v>16</v>
+      </c>
+      <c r="I470">
+        <v>14.09832406044</v>
+      </c>
+      <c r="J470" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>98</v>
+      </c>
+      <c r="B471">
+        <v>162</v>
+      </c>
+      <c r="C471">
+        <v>1308</v>
+      </c>
+      <c r="D471" t="s">
+        <v>48</v>
+      </c>
+      <c r="E471">
+        <v>20</v>
+      </c>
+      <c r="F471" t="s">
+        <v>54</v>
+      </c>
+      <c r="H471" t="s">
+        <v>17</v>
+      </c>
+      <c r="I471">
+        <v>9.9611282348632791E-4</v>
+      </c>
+      <c r="J471" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>98</v>
+      </c>
+      <c r="B472">
+        <v>162</v>
+      </c>
+      <c r="C472">
+        <v>1308</v>
+      </c>
+      <c r="D472" t="s">
+        <v>48</v>
+      </c>
+      <c r="E472">
+        <v>20</v>
+      </c>
+      <c r="F472" t="s">
+        <v>54</v>
+      </c>
+      <c r="H472" t="s">
+        <v>18</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>107</v>
+      </c>
+      <c r="B473">
+        <v>49</v>
+      </c>
+      <c r="C473">
+        <v>10100</v>
+      </c>
+      <c r="D473" t="s">
+        <v>15</v>
+      </c>
+      <c r="H473" t="s">
+        <v>13</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>107</v>
+      </c>
+      <c r="B474">
+        <v>49</v>
+      </c>
+      <c r="C474">
+        <v>10100</v>
+      </c>
+      <c r="D474" t="s">
+        <v>11</v>
+      </c>
+      <c r="E474">
+        <v>10</v>
+      </c>
+      <c r="F474" t="s">
+        <v>31</v>
+      </c>
+      <c r="H474" t="s">
+        <v>84</v>
+      </c>
+      <c r="I474">
+        <v>1</v>
+      </c>
+      <c r="J474" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>107</v>
+      </c>
+      <c r="B475">
+        <v>49</v>
+      </c>
+      <c r="C475">
+        <v>10100</v>
+      </c>
+      <c r="D475" t="s">
+        <v>11</v>
+      </c>
+      <c r="E475">
+        <v>10</v>
+      </c>
+      <c r="F475" t="s">
+        <v>31</v>
+      </c>
+      <c r="H475" t="s">
+        <v>96</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>107</v>
+      </c>
+      <c r="B476">
+        <v>49</v>
+      </c>
+      <c r="C476">
+        <v>10100</v>
+      </c>
+      <c r="D476" t="s">
+        <v>11</v>
+      </c>
+      <c r="E476">
+        <v>10</v>
+      </c>
+      <c r="F476" t="s">
+        <v>31</v>
+      </c>
+      <c r="H476" t="s">
+        <v>16</v>
+      </c>
+      <c r="I476">
+        <v>18.277007818222</v>
+      </c>
+      <c r="J476" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>107</v>
+      </c>
+      <c r="B477">
+        <v>49</v>
+      </c>
+      <c r="C477">
+        <v>10100</v>
+      </c>
+      <c r="D477" t="s">
+        <v>11</v>
+      </c>
+      <c r="E477">
+        <v>10</v>
+      </c>
+      <c r="F477" t="s">
+        <v>31</v>
+      </c>
+      <c r="H477" t="s">
+        <v>17</v>
+      </c>
+      <c r="I477">
+        <v>0.21300625801086401</v>
+      </c>
+      <c r="J477" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>107</v>
+      </c>
+      <c r="B478">
+        <v>49</v>
+      </c>
+      <c r="C478">
+        <v>10100</v>
+      </c>
+      <c r="D478" t="s">
+        <v>11</v>
+      </c>
+      <c r="E478">
+        <v>10</v>
+      </c>
+      <c r="F478" t="s">
+        <v>31</v>
+      </c>
+      <c r="H478" t="s">
+        <v>18</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>107</v>
+      </c>
+      <c r="B479">
+        <v>49</v>
+      </c>
+      <c r="C479">
+        <v>10100</v>
+      </c>
+      <c r="D479" t="s">
+        <v>14</v>
+      </c>
+      <c r="E479">
+        <v>10</v>
+      </c>
+      <c r="F479" t="s">
+        <v>31</v>
+      </c>
+      <c r="H479" t="s">
+        <v>84</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>107</v>
+      </c>
+      <c r="B480">
+        <v>49</v>
+      </c>
+      <c r="C480">
+        <v>10100</v>
+      </c>
+      <c r="D480" t="s">
+        <v>14</v>
+      </c>
+      <c r="E480">
+        <v>10</v>
+      </c>
+      <c r="F480" t="s">
+        <v>31</v>
+      </c>
+      <c r="H480" t="s">
+        <v>96</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>107</v>
+      </c>
+      <c r="B481">
+        <v>49</v>
+      </c>
+      <c r="C481">
+        <v>10100</v>
+      </c>
+      <c r="D481" t="s">
+        <v>14</v>
+      </c>
+      <c r="E481">
+        <v>10</v>
+      </c>
+      <c r="F481" t="s">
+        <v>31</v>
+      </c>
+      <c r="H481" t="s">
+        <v>16</v>
+      </c>
+      <c r="I481">
+        <v>0.30813455581665</v>
+      </c>
+      <c r="J481" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>107</v>
+      </c>
+      <c r="B482">
+        <v>49</v>
+      </c>
+      <c r="C482">
+        <v>10100</v>
+      </c>
+      <c r="D482" t="s">
+        <v>14</v>
+      </c>
+      <c r="E482">
+        <v>10</v>
+      </c>
+      <c r="F482" t="s">
+        <v>31</v>
+      </c>
+      <c r="H482" t="s">
+        <v>17</v>
+      </c>
+      <c r="I482">
+        <v>9.9754333496093707E-4</v>
+      </c>
+      <c r="J482" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>107</v>
+      </c>
+      <c r="B483">
+        <v>49</v>
+      </c>
+      <c r="C483">
+        <v>10100</v>
+      </c>
+      <c r="D483" t="s">
+        <v>14</v>
+      </c>
+      <c r="E483">
+        <v>10</v>
+      </c>
+      <c r="F483" t="s">
+        <v>31</v>
+      </c>
+      <c r="H483" t="s">
+        <v>18</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>107</v>
+      </c>
+      <c r="B484">
+        <v>49</v>
+      </c>
+      <c r="C484">
+        <v>10100</v>
+      </c>
+      <c r="D484" t="s">
+        <v>19</v>
+      </c>
+      <c r="E484">
+        <v>10</v>
+      </c>
+      <c r="F484" t="s">
+        <v>31</v>
+      </c>
+      <c r="H484" t="s">
+        <v>84</v>
+      </c>
+      <c r="I484">
+        <v>1</v>
+      </c>
+      <c r="J484" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>107</v>
+      </c>
+      <c r="B485">
+        <v>49</v>
+      </c>
+      <c r="C485">
+        <v>10100</v>
+      </c>
+      <c r="D485" t="s">
+        <v>19</v>
+      </c>
+      <c r="E485">
+        <v>10</v>
+      </c>
+      <c r="F485" t="s">
+        <v>31</v>
+      </c>
+      <c r="H485" t="s">
+        <v>96</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="J485" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>107</v>
+      </c>
+      <c r="B486">
+        <v>49</v>
+      </c>
+      <c r="C486">
+        <v>10100</v>
+      </c>
+      <c r="D486" t="s">
+        <v>19</v>
+      </c>
+      <c r="E486">
+        <v>10</v>
+      </c>
+      <c r="F486" t="s">
+        <v>31</v>
+      </c>
+      <c r="H486" t="s">
+        <v>16</v>
+      </c>
+      <c r="I486">
+        <v>0.31715178489684998</v>
+      </c>
+      <c r="J486" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>107</v>
+      </c>
+      <c r="B487">
+        <v>49</v>
+      </c>
+      <c r="C487">
+        <v>10100</v>
+      </c>
+      <c r="D487" t="s">
+        <v>19</v>
+      </c>
+      <c r="E487">
+        <v>10</v>
+      </c>
+      <c r="F487" t="s">
+        <v>31</v>
+      </c>
+      <c r="H487" t="s">
+        <v>17</v>
+      </c>
+      <c r="I487">
+        <v>9.9730491638183594E-4</v>
+      </c>
+      <c r="J487" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>107</v>
+      </c>
+      <c r="B488">
+        <v>49</v>
+      </c>
+      <c r="C488">
+        <v>10100</v>
+      </c>
+      <c r="D488" t="s">
+        <v>19</v>
+      </c>
+      <c r="E488">
+        <v>10</v>
+      </c>
+      <c r="F488" t="s">
+        <v>31</v>
+      </c>
+      <c r="H488" t="s">
+        <v>18</v>
+      </c>
+      <c r="I488">
+        <v>0</v>
+      </c>
+      <c r="J488" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>107</v>
+      </c>
+      <c r="B489">
+        <v>49</v>
+      </c>
+      <c r="C489">
+        <v>10100</v>
+      </c>
+      <c r="D489" t="s">
+        <v>20</v>
+      </c>
+      <c r="E489">
+        <v>10</v>
+      </c>
+      <c r="F489" t="s">
+        <v>31</v>
+      </c>
+      <c r="H489" t="s">
+        <v>84</v>
+      </c>
+      <c r="I489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>107</v>
+      </c>
+      <c r="B490">
+        <v>49</v>
+      </c>
+      <c r="C490">
+        <v>10100</v>
+      </c>
+      <c r="D490" t="s">
+        <v>20</v>
+      </c>
+      <c r="E490">
+        <v>10</v>
+      </c>
+      <c r="F490" t="s">
+        <v>31</v>
+      </c>
+      <c r="H490" t="s">
+        <v>96</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>107</v>
+      </c>
+      <c r="B491">
+        <v>49</v>
+      </c>
+      <c r="C491">
+        <v>10100</v>
+      </c>
+      <c r="D491" t="s">
+        <v>20</v>
+      </c>
+      <c r="E491">
+        <v>10</v>
+      </c>
+      <c r="F491" t="s">
+        <v>31</v>
+      </c>
+      <c r="H491" t="s">
+        <v>16</v>
+      </c>
+      <c r="I491">
+        <v>1.8947601318359299E-2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>107</v>
+      </c>
+      <c r="B492">
+        <v>49</v>
+      </c>
+      <c r="C492">
+        <v>10100</v>
+      </c>
+      <c r="D492" t="s">
+        <v>20</v>
+      </c>
+      <c r="E492">
+        <v>10</v>
+      </c>
+      <c r="F492" t="s">
+        <v>31</v>
+      </c>
+      <c r="H492" t="s">
+        <v>17</v>
+      </c>
+      <c r="I492">
+        <v>9.9754333496093707E-4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>107</v>
+      </c>
+      <c r="B493">
+        <v>49</v>
+      </c>
+      <c r="C493">
+        <v>10100</v>
+      </c>
+      <c r="D493" t="s">
+        <v>20</v>
+      </c>
+      <c r="E493">
+        <v>10</v>
+      </c>
+      <c r="F493" t="s">
+        <v>31</v>
+      </c>
+      <c r="H493" t="s">
+        <v>18</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>107</v>
+      </c>
+      <c r="B494">
+        <v>49</v>
+      </c>
+      <c r="C494">
+        <v>10100</v>
+      </c>
+      <c r="D494" t="s">
+        <v>21</v>
+      </c>
+      <c r="E494">
+        <v>10</v>
+      </c>
+      <c r="F494" t="s">
+        <v>31</v>
+      </c>
+      <c r="H494" t="s">
+        <v>84</v>
+      </c>
+      <c r="I494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>107</v>
+      </c>
+      <c r="B495">
+        <v>49</v>
+      </c>
+      <c r="C495">
+        <v>10100</v>
+      </c>
+      <c r="D495" t="s">
+        <v>21</v>
+      </c>
+      <c r="E495">
+        <v>10</v>
+      </c>
+      <c r="F495" t="s">
+        <v>31</v>
+      </c>
+      <c r="H495" t="s">
+        <v>96</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>107</v>
+      </c>
+      <c r="B496">
+        <v>49</v>
+      </c>
+      <c r="C496">
+        <v>10100</v>
+      </c>
+      <c r="D496" t="s">
+        <v>21</v>
+      </c>
+      <c r="E496">
+        <v>10</v>
+      </c>
+      <c r="F496" t="s">
+        <v>31</v>
+      </c>
+      <c r="H496" t="s">
+        <v>16</v>
+      </c>
+      <c r="I496">
+        <v>24.388379096984799</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>107</v>
+      </c>
+      <c r="B497">
+        <v>49</v>
+      </c>
+      <c r="C497">
+        <v>10100</v>
+      </c>
+      <c r="D497" t="s">
+        <v>21</v>
+      </c>
+      <c r="E497">
+        <v>10</v>
+      </c>
+      <c r="F497" t="s">
+        <v>31</v>
+      </c>
+      <c r="H497" t="s">
+        <v>17</v>
+      </c>
+      <c r="I497">
+        <v>8.9781284332275304E-3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>107</v>
+      </c>
+      <c r="B498">
+        <v>49</v>
+      </c>
+      <c r="C498">
+        <v>10100</v>
+      </c>
+      <c r="D498" t="s">
+        <v>21</v>
+      </c>
+      <c r="E498">
+        <v>10</v>
+      </c>
+      <c r="F498" t="s">
+        <v>31</v>
+      </c>
+      <c r="H498" t="s">
+        <v>18</v>
+      </c>
+      <c r="I498">
+        <v>9.9587440490722591E-4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>107</v>
+      </c>
+      <c r="B499">
+        <v>49</v>
+      </c>
+      <c r="C499">
+        <v>10100</v>
+      </c>
+      <c r="D499" t="s">
+        <v>48</v>
+      </c>
+      <c r="E499">
+        <v>10</v>
+      </c>
+      <c r="F499" t="s">
+        <v>31</v>
+      </c>
+      <c r="H499" t="s">
+        <v>84</v>
+      </c>
+      <c r="I499">
+        <v>1</v>
+      </c>
+      <c r="J499" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>107</v>
+      </c>
+      <c r="B500">
+        <v>49</v>
+      </c>
+      <c r="C500">
+        <v>10100</v>
+      </c>
+      <c r="D500" t="s">
+        <v>48</v>
+      </c>
+      <c r="E500">
+        <v>10</v>
+      </c>
+      <c r="F500" t="s">
+        <v>31</v>
+      </c>
+      <c r="H500" t="s">
+        <v>96</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>107</v>
+      </c>
+      <c r="B501">
+        <v>49</v>
+      </c>
+      <c r="C501">
+        <v>10100</v>
+      </c>
+      <c r="D501" t="s">
+        <v>48</v>
+      </c>
+      <c r="E501">
+        <v>10</v>
+      </c>
+      <c r="F501" t="s">
+        <v>31</v>
+      </c>
+      <c r="H501" t="s">
+        <v>16</v>
+      </c>
+      <c r="I501">
+        <v>236.109554052352</v>
+      </c>
+      <c r="J501" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>107</v>
+      </c>
+      <c r="B502">
+        <v>49</v>
+      </c>
+      <c r="C502">
+        <v>10100</v>
+      </c>
+      <c r="D502" t="s">
+        <v>48</v>
+      </c>
+      <c r="E502">
+        <v>10</v>
+      </c>
+      <c r="F502" t="s">
+        <v>31</v>
+      </c>
+      <c r="H502" t="s">
+        <v>17</v>
+      </c>
+      <c r="I502">
+        <v>0.95739722251892001</v>
+      </c>
+      <c r="J502" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>107</v>
+      </c>
+      <c r="B503">
+        <v>49</v>
+      </c>
+      <c r="C503">
+        <v>10100</v>
+      </c>
+      <c r="D503" t="s">
+        <v>48</v>
+      </c>
+      <c r="E503">
+        <v>10</v>
+      </c>
+      <c r="F503" t="s">
+        <v>31</v>
+      </c>
+      <c r="H503" t="s">
+        <v>18</v>
+      </c>
+      <c r="I503">
+        <v>0.30269312858581499</v>
+      </c>
+      <c r="J503" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>107</v>
+      </c>
+      <c r="B504">
+        <v>49</v>
+      </c>
+      <c r="C504">
+        <v>10100</v>
+      </c>
+      <c r="D504" t="s">
+        <v>11</v>
+      </c>
+      <c r="E504">
+        <v>20</v>
+      </c>
+      <c r="F504" t="s">
+        <v>31</v>
+      </c>
+      <c r="H504" t="s">
+        <v>84</v>
+      </c>
+      <c r="I504">
+        <v>1</v>
+      </c>
+      <c r="J504" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>107</v>
+      </c>
+      <c r="B505">
+        <v>49</v>
+      </c>
+      <c r="C505">
+        <v>10100</v>
+      </c>
+      <c r="D505" t="s">
+        <v>11</v>
+      </c>
+      <c r="E505">
+        <v>20</v>
+      </c>
+      <c r="F505" t="s">
+        <v>31</v>
+      </c>
+      <c r="H505" t="s">
+        <v>96</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>107</v>
+      </c>
+      <c r="B506">
+        <v>49</v>
+      </c>
+      <c r="C506">
+        <v>10100</v>
+      </c>
+      <c r="D506" t="s">
+        <v>11</v>
+      </c>
+      <c r="E506">
+        <v>20</v>
+      </c>
+      <c r="F506" t="s">
+        <v>31</v>
+      </c>
+      <c r="H506" t="s">
+        <v>16</v>
+      </c>
+      <c r="I506">
+        <v>26.273670911788901</v>
+      </c>
+      <c r="J506" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>107</v>
+      </c>
+      <c r="B507">
+        <v>49</v>
+      </c>
+      <c r="C507">
+        <v>10100</v>
+      </c>
+      <c r="D507" t="s">
+        <v>11</v>
+      </c>
+      <c r="E507">
+        <v>20</v>
+      </c>
+      <c r="F507" t="s">
+        <v>31</v>
+      </c>
+      <c r="H507" t="s">
+        <v>17</v>
+      </c>
+      <c r="I507">
+        <v>6.3161849975585903E-3</v>
+      </c>
+      <c r="J507" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>107</v>
+      </c>
+      <c r="B508">
+        <v>49</v>
+      </c>
+      <c r="C508">
+        <v>10100</v>
+      </c>
+      <c r="D508" t="s">
+        <v>11</v>
+      </c>
+      <c r="E508">
+        <v>20</v>
+      </c>
+      <c r="F508" t="s">
+        <v>31</v>
+      </c>
+      <c r="H508" t="s">
+        <v>18</v>
+      </c>
+      <c r="I508">
+        <v>0.16433668136596599</v>
+      </c>
+      <c r="J508" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>107</v>
+      </c>
+      <c r="B509">
+        <v>49</v>
+      </c>
+      <c r="C509">
+        <v>10100</v>
+      </c>
+      <c r="D509" t="s">
+        <v>14</v>
+      </c>
+      <c r="E509">
+        <v>20</v>
+      </c>
+      <c r="F509" t="s">
+        <v>31</v>
+      </c>
+      <c r="H509" t="s">
+        <v>84</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="J509" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>107</v>
+      </c>
+      <c r="B510">
+        <v>49</v>
+      </c>
+      <c r="C510">
+        <v>10100</v>
+      </c>
+      <c r="D510" t="s">
+        <v>14</v>
+      </c>
+      <c r="E510">
+        <v>20</v>
+      </c>
+      <c r="F510" t="s">
+        <v>31</v>
+      </c>
+      <c r="H510" t="s">
+        <v>96</v>
+      </c>
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="J510" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>107</v>
+      </c>
+      <c r="B511">
+        <v>49</v>
+      </c>
+      <c r="C511">
+        <v>10100</v>
+      </c>
+      <c r="D511" t="s">
+        <v>14</v>
+      </c>
+      <c r="E511">
+        <v>20</v>
+      </c>
+      <c r="F511" t="s">
+        <v>31</v>
+      </c>
+      <c r="H511" t="s">
+        <v>16</v>
+      </c>
+      <c r="I511">
+        <v>0.39669919013977001</v>
+      </c>
+      <c r="J511" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>107</v>
+      </c>
+      <c r="B512">
+        <v>49</v>
+      </c>
+      <c r="C512">
+        <v>10100</v>
+      </c>
+      <c r="D512" t="s">
+        <v>14</v>
+      </c>
+      <c r="E512">
+        <v>20</v>
+      </c>
+      <c r="F512" t="s">
+        <v>31</v>
+      </c>
+      <c r="H512" t="s">
+        <v>17</v>
+      </c>
+      <c r="I512">
+        <v>9.987354278564451E-4</v>
+      </c>
+      <c r="J512" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>107</v>
+      </c>
+      <c r="B513">
+        <v>49</v>
+      </c>
+      <c r="C513">
+        <v>10100</v>
+      </c>
+      <c r="D513" t="s">
+        <v>14</v>
+      </c>
+      <c r="E513">
+        <v>20</v>
+      </c>
+      <c r="F513" t="s">
+        <v>31</v>
+      </c>
+      <c r="H513" t="s">
+        <v>18</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>107</v>
+      </c>
+      <c r="B514">
+        <v>49</v>
+      </c>
+      <c r="C514">
+        <v>10100</v>
+      </c>
+      <c r="D514" t="s">
+        <v>19</v>
+      </c>
+      <c r="E514">
+        <v>20</v>
+      </c>
+      <c r="F514" t="s">
+        <v>31</v>
+      </c>
+      <c r="H514" t="s">
+        <v>84</v>
+      </c>
+      <c r="I514">
+        <v>1</v>
+      </c>
+      <c r="J514" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>107</v>
+      </c>
+      <c r="B515">
+        <v>49</v>
+      </c>
+      <c r="C515">
+        <v>10100</v>
+      </c>
+      <c r="D515" t="s">
+        <v>19</v>
+      </c>
+      <c r="E515">
+        <v>20</v>
+      </c>
+      <c r="F515" t="s">
+        <v>31</v>
+      </c>
+      <c r="H515" t="s">
+        <v>96</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="J515" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>107</v>
+      </c>
+      <c r="B516">
+        <v>49</v>
+      </c>
+      <c r="C516">
+        <v>10100</v>
+      </c>
+      <c r="D516" t="s">
+        <v>19</v>
+      </c>
+      <c r="E516">
+        <v>20</v>
+      </c>
+      <c r="F516" t="s">
+        <v>31</v>
+      </c>
+      <c r="H516" t="s">
+        <v>16</v>
+      </c>
+      <c r="I516">
+        <v>0.41987514495849598</v>
+      </c>
+      <c r="J516" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>107</v>
+      </c>
+      <c r="B517">
+        <v>49</v>
+      </c>
+      <c r="C517">
+        <v>10100</v>
+      </c>
+      <c r="D517" t="s">
+        <v>19</v>
+      </c>
+      <c r="E517">
+        <v>20</v>
+      </c>
+      <c r="F517" t="s">
+        <v>31</v>
+      </c>
+      <c r="H517" t="s">
+        <v>17</v>
+      </c>
+      <c r="I517">
+        <v>9.9778175354003906E-4</v>
+      </c>
+      <c r="J517" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>107</v>
+      </c>
+      <c r="B518">
+        <v>49</v>
+      </c>
+      <c r="C518">
+        <v>10100</v>
+      </c>
+      <c r="D518" t="s">
+        <v>19</v>
+      </c>
+      <c r="E518">
+        <v>20</v>
+      </c>
+      <c r="F518" t="s">
+        <v>31</v>
+      </c>
+      <c r="H518" t="s">
+        <v>18</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>107</v>
+      </c>
+      <c r="B519">
+        <v>49</v>
+      </c>
+      <c r="C519">
+        <v>10100</v>
+      </c>
+      <c r="D519" t="s">
+        <v>20</v>
+      </c>
+      <c r="E519">
+        <v>20</v>
+      </c>
+      <c r="F519" t="s">
+        <v>31</v>
+      </c>
+      <c r="H519" t="s">
+        <v>84</v>
+      </c>
+      <c r="I519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>107</v>
+      </c>
+      <c r="B520">
+        <v>49</v>
+      </c>
+      <c r="C520">
+        <v>10100</v>
+      </c>
+      <c r="D520" t="s">
+        <v>20</v>
+      </c>
+      <c r="E520">
+        <v>20</v>
+      </c>
+      <c r="F520" t="s">
+        <v>31</v>
+      </c>
+      <c r="H520" t="s">
+        <v>96</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>107</v>
+      </c>
+      <c r="B521">
+        <v>49</v>
+      </c>
+      <c r="C521">
+        <v>10100</v>
+      </c>
+      <c r="D521" t="s">
+        <v>20</v>
+      </c>
+      <c r="E521">
+        <v>20</v>
+      </c>
+      <c r="F521" t="s">
+        <v>31</v>
+      </c>
+      <c r="H521" t="s">
+        <v>16</v>
+      </c>
+      <c r="I521">
+        <v>6.7843437194824205E-2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>107</v>
+      </c>
+      <c r="B522">
+        <v>49</v>
+      </c>
+      <c r="C522">
+        <v>10100</v>
+      </c>
+      <c r="D522" t="s">
+        <v>20</v>
+      </c>
+      <c r="E522">
+        <v>20</v>
+      </c>
+      <c r="F522" t="s">
+        <v>31</v>
+      </c>
+      <c r="H522" t="s">
+        <v>17</v>
+      </c>
+      <c r="I522">
+        <v>9.9754333496093707E-4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>107</v>
+      </c>
+      <c r="B523">
+        <v>49</v>
+      </c>
+      <c r="C523">
+        <v>10100</v>
+      </c>
+      <c r="D523" t="s">
+        <v>20</v>
+      </c>
+      <c r="E523">
+        <v>20</v>
+      </c>
+      <c r="F523" t="s">
+        <v>31</v>
+      </c>
+      <c r="H523" t="s">
+        <v>18</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>107</v>
+      </c>
+      <c r="B524">
+        <v>49</v>
+      </c>
+      <c r="C524">
+        <v>10100</v>
+      </c>
+      <c r="D524" t="s">
+        <v>21</v>
+      </c>
+      <c r="E524">
+        <v>20</v>
+      </c>
+      <c r="F524" t="s">
+        <v>31</v>
+      </c>
+      <c r="H524" t="s">
+        <v>84</v>
+      </c>
+      <c r="I524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>107</v>
+      </c>
+      <c r="B525">
+        <v>49</v>
+      </c>
+      <c r="C525">
+        <v>10100</v>
+      </c>
+      <c r="D525" t="s">
+        <v>21</v>
+      </c>
+      <c r="E525">
+        <v>20</v>
+      </c>
+      <c r="F525" t="s">
+        <v>31</v>
+      </c>
+      <c r="H525" t="s">
+        <v>96</v>
+      </c>
+      <c r="I525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>107</v>
+      </c>
+      <c r="B526">
+        <v>49</v>
+      </c>
+      <c r="C526">
+        <v>10100</v>
+      </c>
+      <c r="D526" t="s">
+        <v>21</v>
+      </c>
+      <c r="E526">
+        <v>20</v>
+      </c>
+      <c r="F526" t="s">
+        <v>31</v>
+      </c>
+      <c r="H526" t="s">
+        <v>16</v>
+      </c>
+      <c r="I526">
+        <v>23.090159654617299</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>107</v>
+      </c>
+      <c r="B527">
+        <v>49</v>
+      </c>
+      <c r="C527">
+        <v>10100</v>
+      </c>
+      <c r="D527" t="s">
+        <v>21</v>
+      </c>
+      <c r="E527">
+        <v>20</v>
+      </c>
+      <c r="F527" t="s">
+        <v>31</v>
+      </c>
+      <c r="H527" t="s">
+        <v>17</v>
+      </c>
+      <c r="I527">
+        <v>6.9816112518310504E-3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>107</v>
+      </c>
+      <c r="B528">
+        <v>49</v>
+      </c>
+      <c r="C528">
+        <v>10100</v>
+      </c>
+      <c r="D528" t="s">
+        <v>21</v>
+      </c>
+      <c r="E528">
+        <v>20</v>
+      </c>
+      <c r="F528" t="s">
+        <v>31</v>
+      </c>
+      <c r="H528" t="s">
+        <v>18</v>
+      </c>
+      <c r="I528">
+        <v>9.9802017211913997E-4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>115</v>
+      </c>
+      <c r="B529">
+        <v>84</v>
+      </c>
+      <c r="C529">
+        <v>456</v>
+      </c>
+      <c r="H529" t="s">
+        <v>84</v>
+      </c>
+      <c r="I529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>115</v>
+      </c>
+      <c r="B530">
+        <v>84</v>
+      </c>
+      <c r="C530">
+        <v>456</v>
+      </c>
+      <c r="D530" t="s">
+        <v>11</v>
+      </c>
+      <c r="E530">
+        <v>20</v>
+      </c>
+      <c r="F530" t="s">
+        <v>31</v>
+      </c>
+      <c r="H530" t="s">
+        <v>84</v>
+      </c>
+      <c r="I530">
+        <v>1</v>
+      </c>
+      <c r="J530" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>115</v>
+      </c>
+      <c r="B531">
+        <v>84</v>
+      </c>
+      <c r="C531">
+        <v>456</v>
+      </c>
+      <c r="D531" t="s">
+        <v>11</v>
+      </c>
+      <c r="E531">
+        <v>20</v>
+      </c>
+      <c r="F531" t="s">
+        <v>31</v>
+      </c>
+      <c r="H531" t="s">
+        <v>96</v>
+      </c>
+      <c r="I531">
+        <v>0</v>
+      </c>
+      <c r="J531" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>115</v>
+      </c>
+      <c r="B532">
+        <v>84</v>
+      </c>
+      <c r="C532">
+        <v>456</v>
+      </c>
+      <c r="D532" t="s">
+        <v>11</v>
+      </c>
+      <c r="E532">
+        <v>20</v>
+      </c>
+      <c r="F532" t="s">
+        <v>31</v>
+      </c>
+      <c r="H532" t="s">
+        <v>16</v>
+      </c>
+      <c r="I532">
+        <v>4.2745575904846103</v>
+      </c>
+      <c r="J532" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>115</v>
+      </c>
+      <c r="B533">
+        <v>84</v>
+      </c>
+      <c r="C533">
+        <v>456</v>
+      </c>
+      <c r="D533" t="s">
+        <v>11</v>
+      </c>
+      <c r="E533">
+        <v>20</v>
+      </c>
+      <c r="F533" t="s">
+        <v>31</v>
+      </c>
+      <c r="H533" t="s">
+        <v>17</v>
+      </c>
+      <c r="I533">
+        <v>0.22483706474304199</v>
+      </c>
+      <c r="J533" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>115</v>
+      </c>
+      <c r="B534">
+        <v>84</v>
+      </c>
+      <c r="C534">
+        <v>456</v>
+      </c>
+      <c r="D534" t="s">
+        <v>11</v>
+      </c>
+      <c r="E534">
+        <v>20</v>
+      </c>
+      <c r="F534" t="s">
+        <v>31</v>
+      </c>
+      <c r="H534" t="s">
+        <v>18</v>
+      </c>
+      <c r="I534">
+        <v>9.4079971313476497E-4</v>
+      </c>
+      <c r="J534" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>115</v>
+      </c>
+      <c r="B535">
+        <v>84</v>
+      </c>
+      <c r="C535">
+        <v>456</v>
+      </c>
+      <c r="D535" t="s">
+        <v>14</v>
+      </c>
+      <c r="E535">
+        <v>20</v>
+      </c>
+      <c r="F535" t="s">
+        <v>31</v>
+      </c>
+      <c r="H535" t="s">
+        <v>84</v>
+      </c>
+      <c r="I535">
+        <v>1</v>
+      </c>
+      <c r="J535" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>115</v>
+      </c>
+      <c r="B536">
+        <v>84</v>
+      </c>
+      <c r="C536">
+        <v>456</v>
+      </c>
+      <c r="D536" t="s">
+        <v>14</v>
+      </c>
+      <c r="E536">
+        <v>20</v>
+      </c>
+      <c r="F536" t="s">
+        <v>31</v>
+      </c>
+      <c r="H536" t="s">
+        <v>96</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="J536" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>115</v>
+      </c>
+      <c r="B537">
+        <v>84</v>
+      </c>
+      <c r="C537">
+        <v>456</v>
+      </c>
+      <c r="D537" t="s">
+        <v>14</v>
+      </c>
+      <c r="E537">
+        <v>20</v>
+      </c>
+      <c r="F537" t="s">
+        <v>31</v>
+      </c>
+      <c r="H537" t="s">
+        <v>16</v>
+      </c>
+      <c r="I537">
+        <v>2.59315967559814E-2</v>
+      </c>
+      <c r="J537" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>115</v>
+      </c>
+      <c r="B538">
+        <v>84</v>
+      </c>
+      <c r="C538">
+        <v>456</v>
+      </c>
+      <c r="D538" t="s">
+        <v>14</v>
+      </c>
+      <c r="E538">
+        <v>20</v>
+      </c>
+      <c r="F538" t="s">
+        <v>31</v>
+      </c>
+      <c r="H538" t="s">
+        <v>17</v>
+      </c>
+      <c r="I538">
+        <v>9.9682807922363195E-4</v>
+      </c>
+      <c r="J538" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>115</v>
+      </c>
+      <c r="B539">
+        <v>84</v>
+      </c>
+      <c r="C539">
+        <v>456</v>
+      </c>
+      <c r="D539" t="s">
+        <v>14</v>
+      </c>
+      <c r="E539">
+        <v>20</v>
+      </c>
+      <c r="F539" t="s">
+        <v>31</v>
+      </c>
+      <c r="H539" t="s">
+        <v>18</v>
+      </c>
+      <c r="I539">
+        <v>0</v>
+      </c>
+      <c r="J539" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>115</v>
+      </c>
+      <c r="B540">
+        <v>84</v>
+      </c>
+      <c r="C540">
+        <v>456</v>
+      </c>
+      <c r="D540" t="s">
+        <v>19</v>
+      </c>
+      <c r="E540">
+        <v>20</v>
+      </c>
+      <c r="F540" t="s">
+        <v>31</v>
+      </c>
+      <c r="H540" t="s">
+        <v>84</v>
+      </c>
+      <c r="I540">
+        <v>1</v>
+      </c>
+      <c r="J540" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>115</v>
+      </c>
+      <c r="B541">
+        <v>84</v>
+      </c>
+      <c r="C541">
+        <v>456</v>
+      </c>
+      <c r="D541" t="s">
+        <v>19</v>
+      </c>
+      <c r="E541">
+        <v>20</v>
+      </c>
+      <c r="F541" t="s">
+        <v>31</v>
+      </c>
+      <c r="H541" t="s">
+        <v>96</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+      <c r="J541" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>115</v>
+      </c>
+      <c r="B542">
+        <v>84</v>
+      </c>
+      <c r="C542">
+        <v>456</v>
+      </c>
+      <c r="D542" t="s">
+        <v>19</v>
+      </c>
+      <c r="E542">
+        <v>20</v>
+      </c>
+      <c r="F542" t="s">
+        <v>31</v>
+      </c>
+      <c r="H542" t="s">
+        <v>16</v>
+      </c>
+      <c r="I542">
+        <v>0.37849116325378401</v>
+      </c>
+      <c r="J542" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>115</v>
+      </c>
+      <c r="B543">
+        <v>84</v>
+      </c>
+      <c r="C543">
+        <v>456</v>
+      </c>
+      <c r="D543" t="s">
+        <v>19</v>
+      </c>
+      <c r="E543">
+        <v>20</v>
+      </c>
+      <c r="F543" t="s">
+        <v>31</v>
+      </c>
+      <c r="H543" t="s">
+        <v>17</v>
+      </c>
+      <c r="I543">
+        <v>1.0495185852050701E-3</v>
+      </c>
+      <c r="J543" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>115</v>
+      </c>
+      <c r="B544">
+        <v>84</v>
+      </c>
+      <c r="C544">
+        <v>456</v>
+      </c>
+      <c r="D544" t="s">
+        <v>19</v>
+      </c>
+      <c r="E544">
+        <v>20</v>
+      </c>
+      <c r="F544" t="s">
+        <v>31</v>
+      </c>
+      <c r="H544" t="s">
+        <v>18</v>
+      </c>
+      <c r="I544">
+        <v>0</v>
+      </c>
+      <c r="J544" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>115</v>
+      </c>
+      <c r="B545">
+        <v>84</v>
+      </c>
+      <c r="C545">
+        <v>456</v>
+      </c>
+      <c r="D545" t="s">
+        <v>20</v>
+      </c>
+      <c r="E545">
+        <v>20</v>
+      </c>
+      <c r="F545" t="s">
+        <v>31</v>
+      </c>
+      <c r="H545" t="s">
+        <v>84</v>
+      </c>
+      <c r="I545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>115</v>
+      </c>
+      <c r="B546">
+        <v>84</v>
+      </c>
+      <c r="C546">
+        <v>456</v>
+      </c>
+      <c r="D546" t="s">
+        <v>20</v>
+      </c>
+      <c r="E546">
+        <v>20</v>
+      </c>
+      <c r="F546" t="s">
+        <v>31</v>
+      </c>
+      <c r="H546" t="s">
+        <v>96</v>
+      </c>
+      <c r="I546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>115</v>
+      </c>
+      <c r="B547">
+        <v>84</v>
+      </c>
+      <c r="C547">
+        <v>456</v>
+      </c>
+      <c r="D547" t="s">
+        <v>20</v>
+      </c>
+      <c r="E547">
+        <v>20</v>
+      </c>
+      <c r="F547" t="s">
+        <v>31</v>
+      </c>
+      <c r="H547" t="s">
+        <v>16</v>
+      </c>
+      <c r="I547">
+        <v>1.9950866699218698E-3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>115</v>
+      </c>
+      <c r="B548">
+        <v>84</v>
+      </c>
+      <c r="C548">
+        <v>456</v>
+      </c>
+      <c r="D548" t="s">
+        <v>20</v>
+      </c>
+      <c r="E548">
+        <v>20</v>
+      </c>
+      <c r="F548" t="s">
+        <v>31</v>
+      </c>
+      <c r="H548" t="s">
+        <v>17</v>
+      </c>
+      <c r="I548">
+        <v>5.9382915496826102E-3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>115</v>
+      </c>
+      <c r="B549">
+        <v>84</v>
+      </c>
+      <c r="C549">
+        <v>456</v>
+      </c>
+      <c r="D549" t="s">
+        <v>20</v>
+      </c>
+      <c r="E549">
+        <v>20</v>
+      </c>
+      <c r="F549" t="s">
+        <v>31</v>
+      </c>
+      <c r="H549" t="s">
+        <v>18</v>
+      </c>
+      <c r="I549">
+        <v>2.00247764587402E-3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>115</v>
+      </c>
+      <c r="B550">
+        <v>84</v>
+      </c>
+      <c r="C550">
+        <v>456</v>
+      </c>
+      <c r="D550" t="s">
+        <v>21</v>
+      </c>
+      <c r="E550">
+        <v>20</v>
+      </c>
+      <c r="F550" t="s">
+        <v>31</v>
+      </c>
+      <c r="H550" t="s">
+        <v>84</v>
+      </c>
+      <c r="I550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>115</v>
+      </c>
+      <c r="B551">
+        <v>84</v>
+      </c>
+      <c r="C551">
+        <v>456</v>
+      </c>
+      <c r="D551" t="s">
+        <v>21</v>
+      </c>
+      <c r="E551">
+        <v>20</v>
+      </c>
+      <c r="F551" t="s">
+        <v>31</v>
+      </c>
+      <c r="H551" t="s">
+        <v>96</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>115</v>
+      </c>
+      <c r="B552">
+        <v>84</v>
+      </c>
+      <c r="C552">
+        <v>456</v>
+      </c>
+      <c r="D552" t="s">
+        <v>21</v>
+      </c>
+      <c r="E552">
+        <v>20</v>
+      </c>
+      <c r="F552" t="s">
+        <v>31</v>
+      </c>
+      <c r="H552" t="s">
+        <v>16</v>
+      </c>
+      <c r="I552">
+        <v>3.9992008209228498</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>115</v>
+      </c>
+      <c r="B553">
+        <v>84</v>
+      </c>
+      <c r="C553">
+        <v>456</v>
+      </c>
+      <c r="D553" t="s">
+        <v>21</v>
+      </c>
+      <c r="E553">
+        <v>20</v>
+      </c>
+      <c r="F553" t="s">
+        <v>31</v>
+      </c>
+      <c r="H553" t="s">
+        <v>17</v>
+      </c>
+      <c r="I553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>115</v>
+      </c>
+      <c r="B554">
+        <v>84</v>
+      </c>
+      <c r="C554">
+        <v>456</v>
+      </c>
+      <c r="D554" t="s">
+        <v>21</v>
+      </c>
+      <c r="E554">
+        <v>20</v>
+      </c>
+      <c r="F554" t="s">
+        <v>31</v>
+      </c>
+      <c r="H554" t="s">
+        <v>18</v>
+      </c>
+      <c r="I554">
+        <v>1.00040435791015E-3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>115</v>
+      </c>
+      <c r="B555">
+        <v>84</v>
+      </c>
+      <c r="C555">
+        <v>456</v>
+      </c>
+      <c r="D555" t="s">
+        <v>11</v>
+      </c>
+      <c r="E555">
+        <v>20</v>
+      </c>
+      <c r="F555" t="s">
+        <v>31</v>
+      </c>
+      <c r="H555" t="s">
+        <v>84</v>
+      </c>
+      <c r="I555">
+        <v>1</v>
+      </c>
+      <c r="J555" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>115</v>
+      </c>
+      <c r="B556">
+        <v>84</v>
+      </c>
+      <c r="C556">
+        <v>456</v>
+      </c>
+      <c r="D556" t="s">
+        <v>11</v>
+      </c>
+      <c r="E556">
+        <v>20</v>
+      </c>
+      <c r="F556" t="s">
+        <v>31</v>
+      </c>
+      <c r="H556" t="s">
+        <v>96</v>
+      </c>
+      <c r="I556">
+        <v>0</v>
+      </c>
+      <c r="J556" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>115</v>
+      </c>
+      <c r="B557">
+        <v>84</v>
+      </c>
+      <c r="C557">
+        <v>456</v>
+      </c>
+      <c r="D557" t="s">
+        <v>11</v>
+      </c>
+      <c r="E557">
+        <v>20</v>
+      </c>
+      <c r="F557" t="s">
+        <v>31</v>
+      </c>
+      <c r="H557" t="s">
+        <v>16</v>
+      </c>
+      <c r="I557">
+        <v>1.4418470859527499</v>
+      </c>
+      <c r="J557" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>115</v>
+      </c>
+      <c r="B558">
+        <v>84</v>
+      </c>
+      <c r="C558">
+        <v>456</v>
+      </c>
+      <c r="D558" t="s">
+        <v>11</v>
+      </c>
+      <c r="E558">
+        <v>20</v>
+      </c>
+      <c r="F558" t="s">
+        <v>31</v>
+      </c>
+      <c r="H558" t="s">
+        <v>17</v>
+      </c>
+      <c r="I558">
+        <v>9.9730491638183594E-4</v>
+      </c>
+      <c r="J558" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>115</v>
+      </c>
+      <c r="B559">
+        <v>84</v>
+      </c>
+      <c r="C559">
+        <v>456</v>
+      </c>
+      <c r="D559" t="s">
+        <v>11</v>
+      </c>
+      <c r="E559">
+        <v>20</v>
+      </c>
+      <c r="F559" t="s">
+        <v>31</v>
+      </c>
+      <c r="H559" t="s">
+        <v>18</v>
+      </c>
+      <c r="I559">
+        <v>0</v>
+      </c>
+      <c r="J559" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>115</v>
+      </c>
+      <c r="B560">
+        <v>84</v>
+      </c>
+      <c r="C560">
+        <v>456</v>
+      </c>
+      <c r="D560" t="s">
+        <v>14</v>
+      </c>
+      <c r="E560">
+        <v>20</v>
+      </c>
+      <c r="F560" t="s">
+        <v>31</v>
+      </c>
+      <c r="H560" t="s">
+        <v>84</v>
+      </c>
+      <c r="I560">
+        <v>1</v>
+      </c>
+      <c r="J560" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>115</v>
+      </c>
+      <c r="B561">
+        <v>84</v>
+      </c>
+      <c r="C561">
+        <v>456</v>
+      </c>
+      <c r="D561" t="s">
+        <v>14</v>
+      </c>
+      <c r="E561">
+        <v>20</v>
+      </c>
+      <c r="F561" t="s">
+        <v>31</v>
+      </c>
+      <c r="H561" t="s">
+        <v>96</v>
+      </c>
+      <c r="I561">
+        <v>0</v>
+      </c>
+      <c r="J561" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>115</v>
+      </c>
+      <c r="B562">
+        <v>84</v>
+      </c>
+      <c r="C562">
+        <v>456</v>
+      </c>
+      <c r="D562" t="s">
+        <v>14</v>
+      </c>
+      <c r="E562">
+        <v>20</v>
+      </c>
+      <c r="F562" t="s">
+        <v>31</v>
+      </c>
+      <c r="H562" t="s">
+        <v>16</v>
+      </c>
+      <c r="I562">
+        <v>2.2964715957641602E-2</v>
+      </c>
+      <c r="J562" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>115</v>
+      </c>
+      <c r="B563">
+        <v>84</v>
+      </c>
+      <c r="C563">
+        <v>456</v>
+      </c>
+      <c r="D563" t="s">
+        <v>14</v>
+      </c>
+      <c r="E563">
+        <v>20</v>
+      </c>
+      <c r="F563" t="s">
+        <v>31</v>
+      </c>
+      <c r="H563" t="s">
+        <v>17</v>
+      </c>
+      <c r="I563">
+        <v>9.9706649780273394E-4</v>
+      </c>
+      <c r="J563" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>115</v>
+      </c>
+      <c r="B564">
+        <v>84</v>
+      </c>
+      <c r="C564">
+        <v>456</v>
+      </c>
+      <c r="D564" t="s">
+        <v>14</v>
+      </c>
+      <c r="E564">
+        <v>20</v>
+      </c>
+      <c r="F564" t="s">
+        <v>31</v>
+      </c>
+      <c r="H564" t="s">
+        <v>18</v>
+      </c>
+      <c r="I564">
+        <v>0</v>
+      </c>
+      <c r="J564" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>115</v>
+      </c>
+      <c r="B565">
+        <v>84</v>
+      </c>
+      <c r="C565">
+        <v>456</v>
+      </c>
+      <c r="D565" t="s">
+        <v>19</v>
+      </c>
+      <c r="E565">
+        <v>20</v>
+      </c>
+      <c r="F565" t="s">
+        <v>31</v>
+      </c>
+      <c r="H565" t="s">
+        <v>84</v>
+      </c>
+      <c r="I565">
+        <v>1</v>
+      </c>
+      <c r="J565" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>115</v>
+      </c>
+      <c r="B566">
+        <v>84</v>
+      </c>
+      <c r="C566">
+        <v>456</v>
+      </c>
+      <c r="D566" t="s">
+        <v>19</v>
+      </c>
+      <c r="E566">
+        <v>20</v>
+      </c>
+      <c r="F566" t="s">
+        <v>31</v>
+      </c>
+      <c r="H566" t="s">
+        <v>96</v>
+      </c>
+      <c r="I566">
+        <v>0</v>
+      </c>
+      <c r="J566" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>115</v>
+      </c>
+      <c r="B567">
+        <v>84</v>
+      </c>
+      <c r="C567">
+        <v>456</v>
+      </c>
+      <c r="D567" t="s">
+        <v>19</v>
+      </c>
+      <c r="E567">
+        <v>20</v>
+      </c>
+      <c r="F567" t="s">
+        <v>31</v>
+      </c>
+      <c r="H567" t="s">
+        <v>16</v>
+      </c>
+      <c r="I567">
+        <v>0.31415987014770502</v>
+      </c>
+      <c r="J567" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>115</v>
+      </c>
+      <c r="B568">
+        <v>84</v>
+      </c>
+      <c r="C568">
+        <v>456</v>
+      </c>
+      <c r="D568" t="s">
+        <v>19</v>
+      </c>
+      <c r="E568">
+        <v>20</v>
+      </c>
+      <c r="F568" t="s">
+        <v>31</v>
+      </c>
+      <c r="H568" t="s">
+        <v>17</v>
+      </c>
+      <c r="I568">
+        <v>1.0228157043457001E-3</v>
+      </c>
+      <c r="J568" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>115</v>
+      </c>
+      <c r="B569">
+        <v>84</v>
+      </c>
+      <c r="C569">
+        <v>456</v>
+      </c>
+      <c r="D569" t="s">
+        <v>19</v>
+      </c>
+      <c r="E569">
+        <v>20</v>
+      </c>
+      <c r="F569" t="s">
+        <v>31</v>
+      </c>
+      <c r="H569" t="s">
+        <v>18</v>
+      </c>
+      <c r="I569">
+        <v>9.7203254699706999E-4</v>
+      </c>
+      <c r="J569" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>115</v>
+      </c>
+      <c r="B570">
+        <v>84</v>
+      </c>
+      <c r="C570">
+        <v>456</v>
+      </c>
+      <c r="D570" t="s">
+        <v>20</v>
+      </c>
+      <c r="E570">
+        <v>20</v>
+      </c>
+      <c r="F570" t="s">
+        <v>31</v>
+      </c>
+      <c r="H570" t="s">
+        <v>84</v>
+      </c>
+      <c r="I570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>115</v>
+      </c>
+      <c r="B571">
+        <v>84</v>
+      </c>
+      <c r="C571">
+        <v>456</v>
+      </c>
+      <c r="D571" t="s">
+        <v>20</v>
+      </c>
+      <c r="E571">
+        <v>20</v>
+      </c>
+      <c r="F571" t="s">
+        <v>31</v>
+      </c>
+      <c r="H571" t="s">
+        <v>96</v>
+      </c>
+      <c r="I571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>115</v>
+      </c>
+      <c r="B572">
+        <v>84</v>
+      </c>
+      <c r="C572">
+        <v>456</v>
+      </c>
+      <c r="D572" t="s">
+        <v>20</v>
+      </c>
+      <c r="E572">
+        <v>20</v>
+      </c>
+      <c r="F572" t="s">
+        <v>31</v>
+      </c>
+      <c r="H572" t="s">
+        <v>16</v>
+      </c>
+      <c r="I572">
+        <v>1.00302696228027E-3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>115</v>
+      </c>
+      <c r="B573">
+        <v>84</v>
+      </c>
+      <c r="C573">
+        <v>456</v>
+      </c>
+      <c r="D573" t="s">
+        <v>20</v>
+      </c>
+      <c r="E573">
+        <v>20</v>
+      </c>
+      <c r="F573" t="s">
+        <v>31</v>
+      </c>
+      <c r="H573" t="s">
+        <v>17</v>
+      </c>
+      <c r="I573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>115</v>
+      </c>
+      <c r="B574">
+        <v>84</v>
+      </c>
+      <c r="C574">
+        <v>456</v>
+      </c>
+      <c r="D574" t="s">
+        <v>20</v>
+      </c>
+      <c r="E574">
+        <v>20</v>
+      </c>
+      <c r="F574" t="s">
+        <v>31</v>
+      </c>
+      <c r="H574" t="s">
+        <v>18</v>
+      </c>
+      <c r="I574">
+        <v>1.0085105895996001E-3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>115</v>
+      </c>
+      <c r="B575">
+        <v>84</v>
+      </c>
+      <c r="C575">
+        <v>456</v>
+      </c>
+      <c r="D575" t="s">
+        <v>21</v>
+      </c>
+      <c r="E575">
+        <v>20</v>
+      </c>
+      <c r="F575" t="s">
+        <v>31</v>
+      </c>
+      <c r="H575" t="s">
+        <v>84</v>
+      </c>
+      <c r="I575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>115</v>
+      </c>
+      <c r="B576">
+        <v>84</v>
+      </c>
+      <c r="C576">
+        <v>456</v>
+      </c>
+      <c r="D576" t="s">
+        <v>21</v>
+      </c>
+      <c r="E576">
+        <v>20</v>
+      </c>
+      <c r="F576" t="s">
+        <v>31</v>
+      </c>
+      <c r="H576" t="s">
+        <v>96</v>
+      </c>
+      <c r="I576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>115</v>
+      </c>
+      <c r="B577">
+        <v>84</v>
+      </c>
+      <c r="C577">
+        <v>456</v>
+      </c>
+      <c r="D577" t="s">
+        <v>21</v>
+      </c>
+      <c r="E577">
+        <v>20</v>
+      </c>
+      <c r="F577" t="s">
+        <v>31</v>
+      </c>
+      <c r="H577" t="s">
+        <v>16</v>
+      </c>
+      <c r="I577">
+        <v>3.8437511920928902</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>115</v>
+      </c>
+      <c r="B578">
+        <v>84</v>
+      </c>
+      <c r="C578">
+        <v>456</v>
+      </c>
+      <c r="D578" t="s">
+        <v>21</v>
+      </c>
+      <c r="E578">
+        <v>20</v>
+      </c>
+      <c r="F578" t="s">
+        <v>31</v>
+      </c>
+      <c r="H578" t="s">
+        <v>17</v>
+      </c>
+      <c r="I578">
+        <v>9.7441673278808496E-4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>115</v>
+      </c>
+      <c r="B579">
+        <v>84</v>
+      </c>
+      <c r="C579">
+        <v>456</v>
+      </c>
+      <c r="D579" t="s">
+        <v>21</v>
+      </c>
+      <c r="E579">
+        <v>20</v>
+      </c>
+      <c r="F579" t="s">
+        <v>31</v>
+      </c>
+      <c r="H579" t="s">
+        <v>18</v>
+      </c>
+      <c r="I579">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>